--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="4875" windowWidth="14865" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="4875"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
-    <sheet name="Dependencies" r:id="rId2" sheetId="6"/>
-    <sheet name="updates" r:id="rId3" sheetId="7"/>
-    <sheet name="Sheet2" r:id="rId4" sheetId="8"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Dependencies" sheetId="6" r:id="rId2"/>
+    <sheet name="updates" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="481">
   <si>
     <t>Ankit</t>
   </si>
@@ -1455,13 +1454,18 @@
   </si>
   <si>
     <t>SS_ItemDelete_OneItem_CheckOut</t>
+  </si>
+  <si>
+    <t>SS_CheckOut_NewAddress_Clinique</t>
+  </si>
+  <si>
+    <t>BRANDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1671,81 +1675,87 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="8" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1762,10 +1772,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1800,7 +1810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1852,7 +1862,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1957,7 +1967,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1966,13 +1976,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1982,7 +1992,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1991,7 +2001,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2000,7 +2010,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2010,12 +2020,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2046,7 +2056,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2065,7 +2075,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2077,28 +2087,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH286"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CG287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B140" xSplit="1" ySplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="A150" pane="bottomRight" sqref="A150"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="98.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="34.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="61" max="61" style="14" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="98.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="36" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="23.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>165</v>
       </c>
@@ -2824,7 +2834,7 @@
         <v>365</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -4413,7 +4423,7 @@
         <v>367</v>
       </c>
     </row>
-    <row ht="60" r="24" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:85" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -4507,7 +4517,7 @@
         <v>367</v>
       </c>
     </row>
-    <row ht="45" r="25" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:85" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
@@ -9009,7 +9019,7 @@
         <v>365</v>
       </c>
     </row>
-    <row ht="30" r="70" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>16</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>367</v>
       </c>
     </row>
-    <row ht="30" r="79" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -11169,7 +11179,7 @@
         <v>367</v>
       </c>
     </row>
-    <row ht="30" r="92" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>24</v>
       </c>
@@ -11504,7 +11514,7 @@
         <v>367</v>
       </c>
     </row>
-    <row ht="30" r="95" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>101</v>
       </c>
@@ -11633,7 +11643,7 @@
         <v>367</v>
       </c>
     </row>
-    <row ht="30" r="96" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>103</v>
       </c>
@@ -13791,10 +13801,10 @@
       </c>
     </row>
     <row r="117" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="A117" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B117" s="30" t="s">
         <v>366</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -13803,118 +13813,109 @@
       <c r="D117" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="I117" s="1"/>
-      <c r="J117" s="2" t="s">
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="H117" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" s="30"/>
+      <c r="J117" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="L117" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N117" s="1" t="s">
+      <c r="N117" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1" t="s">
+      <c r="O117" s="30"/>
+      <c r="P117" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
-      <c r="Y117" s="1"/>
-      <c r="Z117" s="1"/>
-      <c r="AA117" s="1"/>
-      <c r="AB117" s="1"/>
-      <c r="AC117" s="1"/>
-      <c r="AD117" s="1"/>
-      <c r="AE117" s="1"/>
-      <c r="AF117" s="1"/>
-      <c r="AG117" s="1"/>
-      <c r="AH117" s="1"/>
-      <c r="AI117" s="1"/>
-      <c r="AJ117" s="1"/>
-      <c r="AK117" s="1"/>
-      <c r="AL117" s="1"/>
-      <c r="AM117" s="1"/>
-      <c r="AN117" s="1"/>
-      <c r="AO117" s="1"/>
-      <c r="AP117" s="1"/>
-      <c r="AQ117" s="1"/>
-      <c r="AR117" s="1"/>
-      <c r="AS117" s="1"/>
-      <c r="AT117" s="1"/>
-      <c r="AU117" s="1"/>
-      <c r="AV117" s="1"/>
-      <c r="AW117" s="1"/>
-      <c r="AX117" s="1"/>
-      <c r="AY117" s="1"/>
-      <c r="AZ117" s="1"/>
-      <c r="BA117" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB117" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD117" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE117" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF117" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG117" s="1"/>
-      <c r="BH117" s="1"/>
-      <c r="BI117" s="1"/>
-      <c r="BJ117" s="1"/>
-      <c r="BK117" s="1"/>
-      <c r="BL117" s="1"/>
-      <c r="BM117" s="1"/>
-      <c r="BN117" s="1"/>
-      <c r="BO117" s="1"/>
-      <c r="BP117" s="1"/>
-      <c r="BQ117" s="1"/>
-      <c r="BR117" s="1"/>
-      <c r="BS117" s="1"/>
-      <c r="BT117" s="1"/>
-      <c r="BU117" s="1"/>
-      <c r="BV117" s="1"/>
-      <c r="BW117" s="1"/>
-      <c r="BX117" s="1"/>
-      <c r="BY117" s="1"/>
-      <c r="BZ117" s="1"/>
-      <c r="CA117" s="1"/>
-      <c r="CB117" s="1"/>
-      <c r="CC117" s="1"/>
-      <c r="CD117" s="1"/>
-      <c r="CE117" s="1"/>
-      <c r="CF117" s="1"/>
-      <c r="CG117" t="s">
+      <c r="Q117" s="30"/>
+      <c r="R117" s="30"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="30"/>
+      <c r="U117" s="30"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="30"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30"/>
+      <c r="AE117" s="30"/>
+      <c r="AF117" s="30"/>
+      <c r="AG117" s="30"/>
+      <c r="AH117" s="30"/>
+      <c r="AI117" s="30"/>
+      <c r="AJ117" s="30"/>
+      <c r="AK117" s="30"/>
+      <c r="AL117" s="30"/>
+      <c r="AM117" s="30"/>
+      <c r="AN117" s="30"/>
+      <c r="AO117" s="30"/>
+      <c r="AP117" s="30"/>
+      <c r="AQ117" s="30"/>
+      <c r="AR117" s="30"/>
+      <c r="AS117" s="30"/>
+      <c r="AT117" s="30"/>
+      <c r="AU117" s="30"/>
+      <c r="AV117" s="30"/>
+      <c r="AW117" s="30"/>
+      <c r="AX117" s="30"/>
+      <c r="AY117" s="30"/>
+      <c r="AZ117" s="30"/>
+      <c r="BA117" s="30"/>
+      <c r="BB117" s="30"/>
+      <c r="BC117" s="30"/>
+      <c r="BD117" s="30"/>
+      <c r="BE117" s="30"/>
+      <c r="BF117" s="30"/>
+      <c r="BG117" s="30"/>
+      <c r="BH117" s="30"/>
+      <c r="BI117" s="30"/>
+      <c r="BJ117" s="30"/>
+      <c r="BK117" s="30"/>
+      <c r="BL117" s="30"/>
+      <c r="BM117" s="30"/>
+      <c r="BN117" s="30"/>
+      <c r="BO117" s="30"/>
+      <c r="BP117" s="30"/>
+      <c r="BQ117" s="30"/>
+      <c r="BR117" s="30"/>
+      <c r="BS117" s="30"/>
+      <c r="BT117" s="30"/>
+      <c r="BU117" s="30"/>
+      <c r="BV117" s="30"/>
+      <c r="BW117" s="30"/>
+      <c r="BX117" s="30"/>
+      <c r="BY117" s="30"/>
+      <c r="BZ117" s="30"/>
+      <c r="CA117" s="30"/>
+      <c r="CB117" s="30"/>
+      <c r="CC117" s="30"/>
+      <c r="CD117" s="30"/>
+      <c r="CE117" s="30"/>
+      <c r="CF117" s="30"/>
+      <c r="CG117" s="29" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>366</v>
@@ -13990,18 +13991,21 @@
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
       <c r="BA118" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB118" s="1"/>
-      <c r="BC118" s="1"/>
-      <c r="BD118" s="1"/>
-      <c r="BE118" s="1"/>
-      <c r="BF118" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG118" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BB118" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE118" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG118" s="1"/>
       <c r="BH118" s="1"/>
       <c r="BI118" s="1"/>
       <c r="BJ118" s="1"/>
@@ -14033,7 +14037,7 @@
     </row>
     <row r="119" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>394</v>
+        <v>131</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>366</v>
@@ -14152,7 +14156,7 @@
     </row>
     <row r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>366</v>
@@ -14214,12 +14218,8 @@
       <c r="AK120" s="1"/>
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
-      <c r="AN120" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO120" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
       <c r="AR120" s="1"/>
@@ -14248,14 +14248,10 @@
       <c r="BI120" s="1"/>
       <c r="BJ120" s="1"/>
       <c r="BK120" s="1"/>
-      <c r="BL120" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="BL120" s="1"/>
       <c r="BM120" s="1"/>
       <c r="BN120" s="1"/>
-      <c r="BO120" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO120" s="1"/>
       <c r="BP120" s="1"/>
       <c r="BQ120" s="1"/>
       <c r="BR120" s="1"/>
@@ -14279,7 +14275,7 @@
     </row>
     <row r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>366</v>
@@ -14406,16 +14402,16 @@
     </row>
     <row r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>363</v>
+      <c r="C122" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -14533,7 +14529,7 @@
     </row>
     <row r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>366</v>
@@ -14550,7 +14546,7 @@
         <v>53</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="2" t="s">
@@ -14655,12 +14651,12 @@
       <c r="CE123" s="1"/>
       <c r="CF123" s="1"/>
       <c r="CG123" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>366</v>
@@ -14677,7 +14673,7 @@
         <v>53</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="2" t="s">
@@ -14782,12 +14778,12 @@
       <c r="CE124" s="1"/>
       <c r="CF124" s="1"/>
       <c r="CG124" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>366</v>
@@ -14914,7 +14910,7 @@
     </row>
     <row r="126" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>366</v>
@@ -15041,16 +15037,16 @@
     </row>
     <row r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C127" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="27" t="s">
-        <v>3</v>
+      <c r="C127" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -15168,7 +15164,7 @@
     </row>
     <row r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>366</v>
@@ -15295,7 +15291,7 @@
     </row>
     <row r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>366</v>
@@ -15350,10 +15346,9 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
-      <c r="AG129" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
       <c r="AK129" s="1"/>
       <c r="AL129" s="1"/>
@@ -15418,12 +15413,12 @@
       <c r="CE129" s="1"/>
       <c r="CF129" s="1"/>
       <c r="CG129" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>366</v>
@@ -15478,11 +15473,10 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
-      <c r="AG130" s="1"/>
+      <c r="AG130" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
@@ -15552,7 +15546,7 @@
     </row>
     <row r="131" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>366</v>
@@ -15609,13 +15603,13 @@
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
-      <c r="AI131" s="1"/>
+      <c r="AI131" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="AJ131" s="1"/>
       <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
-      <c r="AM131" s="26" t="s">
-        <v>426</v>
-      </c>
+      <c r="AM131" s="1"/>
       <c r="AN131" s="1" t="s">
         <v>396</v>
       </c>
@@ -15676,12 +15670,12 @@
       <c r="CE131" s="1"/>
       <c r="CF131" s="1"/>
       <c r="CG131" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>366</v>
@@ -15740,11 +15734,11 @@
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
-      <c r="AK132" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="AK132" s="1"/>
       <c r="AL132" s="1"/>
-      <c r="AM132" s="1"/>
+      <c r="AM132" s="26" t="s">
+        <v>426</v>
+      </c>
       <c r="AN132" s="1" t="s">
         <v>396</v>
       </c>
@@ -15810,7 +15804,7 @@
     </row>
     <row r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>366</v>
@@ -15869,7 +15863,9 @@
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
-      <c r="AK133" s="1"/>
+      <c r="AK133" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="AL133" s="1"/>
       <c r="AM133" s="1"/>
       <c r="AN133" s="1" t="s">
@@ -15937,7 +15933,7 @@
     </row>
     <row r="134" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>366</v>
@@ -16059,12 +16055,12 @@
       <c r="CE134" s="1"/>
       <c r="CF134" s="1"/>
       <c r="CG134" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>366</v>
@@ -16191,7 +16187,7 @@
     </row>
     <row r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>366</v>
@@ -16246,9 +16242,7 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
-      <c r="AG136" s="1" t="s">
-        <v>466</v>
-      </c>
+      <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
@@ -16320,16 +16314,16 @@
     </row>
     <row r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>363</v>
+      <c r="C137" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -16375,7 +16369,9 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
-      <c r="AG137" s="1"/>
+      <c r="AG137" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="AH137" s="1"/>
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
@@ -16447,7 +16443,7 @@
     </row>
     <row r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>366</v>
@@ -16569,12 +16565,12 @@
       <c r="CE138" s="1"/>
       <c r="CF138" s="1"/>
       <c r="CG138" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>366</v>
@@ -16696,12 +16692,12 @@
       <c r="CE139" s="1"/>
       <c r="CF139" s="1"/>
       <c r="CG139" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>366</v>
@@ -16823,21 +16819,21 @@
       <c r="CE140" s="1"/>
       <c r="CF140" s="1"/>
       <c r="CG140" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C141" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>3</v>
+      <c r="C141" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -16955,15 +16951,15 @@
     </row>
     <row r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C142" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="C142" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E142" s="1"/>
@@ -17082,7 +17078,7 @@
     </row>
     <row r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>366</v>
@@ -17099,7 +17095,7 @@
         <v>53</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="2" t="s">
@@ -17204,20 +17200,20 @@
       <c r="CE143" s="1"/>
       <c r="CF143" s="1"/>
       <c r="CG143" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C144" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" s="27" t="s">
+      <c r="C144" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="1"/>
@@ -17226,7 +17222,7 @@
         <v>53</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="2" t="s">
@@ -17331,12 +17327,12 @@
       <c r="CE144" s="1"/>
       <c r="CF144" s="1"/>
       <c r="CG144" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>366</v>
@@ -17463,7 +17459,7 @@
     </row>
     <row r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>399</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>366</v>
@@ -17525,8 +17521,12 @@
       <c r="AK146" s="1"/>
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
-      <c r="AN146" s="1"/>
-      <c r="AO146" s="1"/>
+      <c r="AN146" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO146" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
       <c r="AR146" s="1"/>
@@ -17539,30 +17539,30 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="BB146" s="1"/>
       <c r="BC146" s="1"/>
       <c r="BD146" s="1"/>
       <c r="BE146" s="1"/>
-      <c r="BF146" s="1"/>
-      <c r="BG146" s="1"/>
-      <c r="BH146" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI146" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ146" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BK146" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BL146" s="1"/>
+      <c r="BF146" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG146" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH146" s="1"/>
+      <c r="BI146" s="1"/>
+      <c r="BJ146" s="1"/>
+      <c r="BK146" s="1"/>
+      <c r="BL146" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
-      <c r="BO146" s="1"/>
+      <c r="BO146" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP146" s="1"/>
       <c r="BQ146" s="1"/>
       <c r="BR146" s="1"/>
@@ -17581,21 +17581,21 @@
       <c r="CE146" s="1"/>
       <c r="CF146" s="1"/>
       <c r="CG146" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C147" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>363</v>
+      <c r="C147" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -17671,16 +17671,16 @@
       <c r="BF147" s="1"/>
       <c r="BG147" s="1"/>
       <c r="BH147" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI147" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="BJ147" t="s">
-        <v>342</v>
+        <v>136</v>
+      </c>
+      <c r="BI147" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ147" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="BK147" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="BL147" s="1"/>
       <c r="BM147" s="1"/>
@@ -17694,18 +17694,10 @@
       <c r="BU147" s="1"/>
       <c r="BV147" s="1"/>
       <c r="BW147" s="1"/>
-      <c r="BX147" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY147" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="BZ147" t="s">
-        <v>344</v>
-      </c>
-      <c r="CA147" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="BX147" s="1"/>
+      <c r="BY147" s="1"/>
+      <c r="BZ147" s="1"/>
+      <c r="CA147" s="1"/>
       <c r="CB147" s="1"/>
       <c r="CC147" s="1"/>
       <c r="CD147" s="1"/>
@@ -17717,16 +17709,16 @@
     </row>
     <row r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>338</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C148" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>3</v>
+      <c r="C148" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>363</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -17793,25 +17785,26 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
       <c r="BA148" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB148" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD148" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE148" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF148" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="BB148" s="1"/>
+      <c r="BC148" s="1"/>
+      <c r="BD148" s="1"/>
+      <c r="BE148" s="1"/>
+      <c r="BF148" s="1"/>
       <c r="BG148" s="1"/>
-      <c r="BH148" s="1"/>
-      <c r="BI148" s="1"/>
-      <c r="BJ148" s="1"/>
-      <c r="BK148" s="1"/>
+      <c r="BH148" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI148" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="BJ148" t="s">
+        <v>342</v>
+      </c>
+      <c r="BK148" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="BL148" s="1"/>
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
@@ -17824,22 +17817,30 @@
       <c r="BU148" s="1"/>
       <c r="BV148" s="1"/>
       <c r="BW148" s="1"/>
-      <c r="BX148" s="1"/>
-      <c r="BY148" s="1"/>
-      <c r="BZ148" s="1"/>
-      <c r="CA148" s="1"/>
+      <c r="BX148" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY148" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="BZ148" t="s">
+        <v>344</v>
+      </c>
+      <c r="CA148" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="CB148" s="1"/>
       <c r="CC148" s="1"/>
       <c r="CD148" s="1"/>
       <c r="CE148" s="1"/>
       <c r="CF148" s="1"/>
       <c r="CG148" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>366</v>
@@ -17915,18 +17916,21 @@
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
       <c r="BA149" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB149" s="1"/>
-      <c r="BC149" s="1"/>
-      <c r="BD149" s="1"/>
-      <c r="BE149" s="1"/>
-      <c r="BF149" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG149" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="BB149" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF149" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
       <c r="BI149" s="1"/>
       <c r="BJ149" s="1"/>
@@ -17958,7 +17962,7 @@
     </row>
     <row r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>366</v>
@@ -18033,25 +18037,23 @@
       <c r="AX150" s="1"/>
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
-      <c r="BA150" s="1"/>
+      <c r="BA150" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB150" s="1"/>
       <c r="BC150" s="1"/>
       <c r="BD150" s="1"/>
       <c r="BE150" s="1"/>
-      <c r="BF150" s="1"/>
-      <c r="BG150" s="1"/>
-      <c r="BH150" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI150" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ150" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BK150" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="BF150" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG150" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH150" s="1"/>
+      <c r="BI150" s="1"/>
+      <c r="BJ150" s="1"/>
+      <c r="BK150" s="1"/>
       <c r="BL150" s="1"/>
       <c r="BM150" s="1"/>
       <c r="BN150" s="1"/>
@@ -18079,15 +18081,17 @@
     </row>
     <row r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D151" s="1"/>
+      <c r="C151" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="2" t="s">
@@ -18152,26 +18156,25 @@
       <c r="AX151" s="1"/>
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
-      <c r="BA151" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB151" s="4" t="s">
+      <c r="BA151" s="1"/>
+      <c r="BB151" s="1"/>
+      <c r="BC151" s="1"/>
+      <c r="BD151" s="1"/>
+      <c r="BE151" s="1"/>
+      <c r="BF151" s="1"/>
+      <c r="BG151" s="1"/>
+      <c r="BH151" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI151" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BD151" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE151" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF151" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG151" s="1"/>
-      <c r="BH151" s="1"/>
-      <c r="BI151" s="1"/>
-      <c r="BJ151" s="1"/>
-      <c r="BK151" s="1"/>
+      <c r="BJ151" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK151" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="BL151" s="1"/>
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
@@ -18199,7 +18202,7 @@
     </row>
     <row r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>366</v>
@@ -18273,18 +18276,21 @@
       <c r="AY152" s="1"/>
       <c r="AZ152" s="1"/>
       <c r="BA152" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB152" s="1"/>
-      <c r="BC152" s="1"/>
-      <c r="BD152" s="1"/>
-      <c r="BE152" s="1"/>
-      <c r="BF152" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG152" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="BB152" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE152" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG152" s="1"/>
       <c r="BH152" s="1"/>
       <c r="BI152" s="1"/>
       <c r="BJ152" s="1"/>
@@ -18314,9 +18320,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="153" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>469</v>
+        <v>144</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>366</v>
@@ -18431,9 +18437,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="154" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>366</v>
@@ -18448,7 +18454,7 @@
         <v>53</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>468</v>
+        <v>326</v>
       </c>
       <c r="I154" s="1"/>
       <c r="J154" s="2" t="s">
@@ -18506,13 +18512,19 @@
       <c r="AX154" s="1"/>
       <c r="AY154" s="1"/>
       <c r="AZ154" s="1"/>
-      <c r="BA154" s="1"/>
+      <c r="BA154" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB154" s="1"/>
       <c r="BC154" s="1"/>
       <c r="BD154" s="1"/>
       <c r="BE154" s="1"/>
-      <c r="BF154" s="1"/>
-      <c r="BG154" s="4"/>
+      <c r="BF154" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG154" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="BH154" s="1"/>
       <c r="BI154" s="1"/>
       <c r="BJ154" s="1"/>
@@ -18542,26 +18554,24 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="155" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C155" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>326</v>
+        <v>468</v>
       </c>
       <c r="I155" s="1"/>
       <c r="J155" s="2" t="s">
@@ -18619,19 +18629,13 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
-      <c r="BA155" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="BA155" s="1"/>
       <c r="BB155" s="1"/>
       <c r="BC155" s="1"/>
       <c r="BD155" s="1"/>
       <c r="BE155" s="1"/>
-      <c r="BF155" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG155" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="BF155" s="1"/>
+      <c r="BG155" s="4"/>
       <c r="BH155" s="1"/>
       <c r="BI155" s="1"/>
       <c r="BJ155" s="1"/>
@@ -18639,9 +18643,7 @@
       <c r="BL155" s="1"/>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
-      <c r="BO155" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="BO155" s="1"/>
       <c r="BP155" s="1"/>
       <c r="BQ155" s="1"/>
       <c r="BR155" s="1"/>
@@ -18660,12 +18662,12 @@
       <c r="CE155" s="1"/>
       <c r="CF155" s="1"/>
       <c r="CG155" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row customFormat="1" r="156" spans="1:85" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>366</v>
@@ -18757,9 +18759,7 @@
       <c r="BI156" s="1"/>
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
-      <c r="BL156" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="BL156" s="1"/>
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
       <c r="BO156" s="1" t="s">
@@ -18783,12 +18783,12 @@
       <c r="CE156" s="1"/>
       <c r="CF156" s="1"/>
       <c r="CG156" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row customFormat="1" r="157" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>366</v>
@@ -18885,7 +18885,9 @@
       </c>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
-      <c r="BO157" s="1"/>
+      <c r="BO157" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="BP157" s="1"/>
       <c r="BQ157" s="1"/>
       <c r="BR157" s="1"/>
@@ -18904,20 +18906,22 @@
       <c r="CE157" s="1"/>
       <c r="CF157" s="1"/>
       <c r="CG157" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row customFormat="1" r="158" spans="1:85" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>403</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D158" s="1"/>
+      <c r="C158" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="2" t="s">
@@ -18982,26 +18986,26 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
-      <c r="BA158" s="1"/>
+      <c r="BA158" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB158" s="1"/>
       <c r="BC158" s="1"/>
       <c r="BD158" s="1"/>
       <c r="BE158" s="1"/>
-      <c r="BF158" s="1"/>
-      <c r="BG158" s="1"/>
-      <c r="BH158" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI158" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ158" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BK158" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BL158" s="1"/>
+      <c r="BF158" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG158" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH158" s="1"/>
+      <c r="BI158" s="1"/>
+      <c r="BJ158" s="1"/>
+      <c r="BK158" s="1"/>
+      <c r="BL158" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
       <c r="BO158" s="1"/>
@@ -19023,26 +19027,22 @@
       <c r="CE158" s="1"/>
       <c r="CF158" s="1"/>
       <c r="CG158" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row customFormat="1" r="159" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C159" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C159" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" t="s">
-        <v>3</v>
-      </c>
+      <c r="F159" s="1"/>
       <c r="G159" s="2" t="s">
         <v>53</v>
       </c>
@@ -19074,9 +19074,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
-      <c r="V159" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V159" s="1"/>
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
@@ -19087,19 +19085,13 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
-      <c r="AG159" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG159" s="1"/>
       <c r="AH159" s="1"/>
-      <c r="AI159" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
       <c r="AK159" s="1"/>
       <c r="AL159" s="1"/>
-      <c r="AM159" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM159" s="1"/>
       <c r="AN159" s="1"/>
       <c r="AO159" s="1"/>
       <c r="AP159" s="1"/>
@@ -19113,26 +19105,25 @@
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
-      <c r="BA159" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB159" s="4" t="s">
+      <c r="BA159" s="1"/>
+      <c r="BB159" s="1"/>
+      <c r="BC159" s="1"/>
+      <c r="BD159" s="1"/>
+      <c r="BE159" s="1"/>
+      <c r="BF159" s="1"/>
+      <c r="BG159" s="1"/>
+      <c r="BH159" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI159" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BD159" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE159" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF159" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG159" s="1"/>
-      <c r="BH159" s="1"/>
-      <c r="BI159" s="1"/>
-      <c r="BJ159" s="1"/>
-      <c r="BK159" s="1"/>
+      <c r="BJ159" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK159" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="BL159" s="1"/>
       <c r="BM159" s="1"/>
       <c r="BN159" s="1"/>
@@ -19158,15 +19149,15 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="160" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>3</v>
@@ -19246,18 +19237,21 @@
       <c r="AY160" s="1"/>
       <c r="AZ160" s="1"/>
       <c r="BA160" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB160" s="1"/>
-      <c r="BC160" s="1"/>
-      <c r="BD160" s="1"/>
-      <c r="BE160" s="1"/>
-      <c r="BF160" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG160" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BB160" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE160" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF160" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG160" s="1"/>
       <c r="BH160" s="1"/>
       <c r="BI160" s="1"/>
       <c r="BJ160" s="1"/>
@@ -19287,15 +19281,15 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="161" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>3</v>
@@ -19374,25 +19368,23 @@
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
-      <c r="BA161" s="1"/>
+      <c r="BA161" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB161" s="1"/>
       <c r="BC161" s="1"/>
       <c r="BD161" s="1"/>
       <c r="BE161" s="1"/>
-      <c r="BF161" s="1"/>
-      <c r="BG161" s="1"/>
-      <c r="BH161" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI161" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ161" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BK161" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="BF161" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG161" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH161" s="1"/>
+      <c r="BI161" s="1"/>
+      <c r="BJ161" s="1"/>
+      <c r="BK161" s="1"/>
       <c r="BL161" s="1"/>
       <c r="BM161" s="1"/>
       <c r="BN161" s="1"/>
@@ -19418,15 +19410,15 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="162" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>3</v>
@@ -19506,15 +19498,24 @@
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
       <c r="BA162" s="1"/>
-      <c r="BB162" s="4"/>
-      <c r="BD162" s="2"/>
-      <c r="BE162" s="3"/>
-      <c r="BF162" s="2"/>
+      <c r="BB162" s="1"/>
+      <c r="BC162" s="1"/>
+      <c r="BD162" s="1"/>
+      <c r="BE162" s="1"/>
+      <c r="BF162" s="1"/>
       <c r="BG162" s="1"/>
-      <c r="BH162" s="1"/>
-      <c r="BI162" s="1"/>
-      <c r="BJ162" s="1"/>
-      <c r="BK162" s="1"/>
+      <c r="BH162" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI162" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ162" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK162" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="BL162" s="1"/>
       <c r="BM162" s="1"/>
       <c r="BN162" s="1"/>
@@ -19540,33 +19541,57 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="163" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>241</v>
+    <row r="163" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="C163" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
+      <c r="F163" t="s">
+        <v>3</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>326</v>
+      </c>
       <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
+      <c r="J163" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K163" t="s">
+        <v>1</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
+      <c r="P163" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
+      <c r="V163" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
@@ -19577,13 +19602,19 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
-      <c r="AG163" s="1"/>
+      <c r="AG163" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH163" s="1"/>
-      <c r="AI163" s="1"/>
+      <c r="AI163" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ163" s="1"/>
       <c r="AK163" s="1"/>
       <c r="AL163" s="1"/>
-      <c r="AM163" s="1"/>
+      <c r="AM163" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN163" s="1"/>
       <c r="AO163" s="1"/>
       <c r="AP163" s="1"/>
@@ -19598,14 +19629,13 @@
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
       <c r="BA163" s="1"/>
-      <c r="BB163" s="1"/>
-      <c r="BC163" s="1"/>
-      <c r="BD163" s="1"/>
-      <c r="BE163" s="1"/>
-      <c r="BF163" s="1"/>
+      <c r="BB163" s="4"/>
+      <c r="BD163" s="2"/>
+      <c r="BE163" s="3"/>
+      <c r="BF163" s="2"/>
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
-      <c r="BI163" s="11"/>
+      <c r="BI163" s="1"/>
       <c r="BJ163" s="1"/>
       <c r="BK163" s="1"/>
       <c r="BL163" s="1"/>
@@ -19629,66 +19659,36 @@
       <c r="CD163" s="1"/>
       <c r="CE163" s="1"/>
       <c r="CF163" s="1"/>
-      <c r="CG163" s="1"/>
-    </row>
-    <row customFormat="1" r="164" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>249</v>
+      <c r="CG163" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C164" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K164" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="M164" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N164" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
       <c r="O164" s="1"/>
-      <c r="P164" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q164" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="R164" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="S164" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="T164" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="U164" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
@@ -19700,9 +19700,7 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
-      <c r="AG164" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
@@ -19722,21 +19720,12 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
-      <c r="BA164" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB164" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD164" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE164" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF164" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA164" s="1"/>
+      <c r="BB164" s="1"/>
+      <c r="BC164" s="1"/>
+      <c r="BD164" s="1"/>
+      <c r="BE164" s="1"/>
+      <c r="BF164" s="1"/>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="11"/>
@@ -19762,14 +19751,12 @@
       <c r="CC164" s="1"/>
       <c r="CD164" s="1"/>
       <c r="CE164" s="1"/>
-      <c r="CF164" s="18"/>
-      <c r="CG164" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row customFormat="1" r="165" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CF164" s="1"/>
+      <c r="CG164" s="1"/>
+    </row>
+    <row r="165" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>366</v>
@@ -19783,22 +19770,22 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>430</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>28</v>
@@ -19837,7 +19824,7 @@
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
       <c r="AG165" s="1" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
@@ -19903,9 +19890,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="166" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>366</v>
@@ -19918,19 +19905,23 @@
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="1"/>
+      <c r="G166" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I166" s="1" t="s">
         <v>430</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="M166" s="2" t="s">
         <v>28</v>
@@ -19969,7 +19960,7 @@
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
       <c r="AG166" s="1" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
@@ -19990,12 +19981,21 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
-      <c r="BA166" s="1"/>
-      <c r="BB166" s="1"/>
-      <c r="BC166" s="12"/>
-      <c r="BD166" s="1"/>
-      <c r="BE166" s="1"/>
-      <c r="BF166" s="1"/>
+      <c r="BA166" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB166" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD166" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE166" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF166" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
       <c r="BI166" s="11"/>
@@ -20026,46 +20026,40 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="167" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>474</v>
+        <v>385</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>363</v>
       </c>
       <c r="E167" s="3"/>
-      <c r="F167" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="1"/>
       <c r="I167" s="1" t="s">
         <v>430</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>371</v>
+        <v>28</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="O167" s="1"/>
       <c r="P167" s="1" t="s">
@@ -20098,7 +20092,7 @@
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
       <c r="AG167" s="1" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
@@ -20155,21 +20149,23 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="168" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>253</v>
+    <row r="168" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>385</v>
+        <v>474</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>363</v>
       </c>
       <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
+      <c r="F168" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="G168" s="3" t="s">
         <v>242</v>
       </c>
@@ -20180,19 +20176,19 @@
         <v>430</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>28</v>
+        <v>371</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="O168" s="1"/>
       <c r="P168" s="1" t="s">
@@ -20225,7 +20221,7 @@
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
       <c r="AG168" s="1" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
@@ -20246,21 +20242,12 @@
       <c r="AX168" s="1"/>
       <c r="AY168" s="1"/>
       <c r="AZ168" s="1"/>
-      <c r="BA168" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB168" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD168" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE168" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF168" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA168" s="1"/>
+      <c r="BB168" s="1"/>
+      <c r="BC168" s="12"/>
+      <c r="BD168" s="1"/>
+      <c r="BE168" s="1"/>
+      <c r="BF168" s="1"/>
       <c r="BG168" s="1"/>
       <c r="BH168" s="1"/>
       <c r="BI168" s="11"/>
@@ -20291,9 +20278,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="169" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>366</v>
@@ -20306,8 +20293,12 @@
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="1"/>
+      <c r="G169" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="I169" s="1" t="s">
         <v>430</v>
       </c>
@@ -20423,9 +20414,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="170" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>366</v>
@@ -20555,40 +20546,34 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="171" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>363</v>
       </c>
       <c r="E171" s="3"/>
-      <c r="F171" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="1"/>
       <c r="I171" s="1" t="s">
         <v>430</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>28</v>
@@ -20627,7 +20612,7 @@
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
       <c r="AG171" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
@@ -20679,56 +20664,80 @@
       <c r="BT171" s="1"/>
       <c r="BU171" s="1"/>
       <c r="BV171" s="1"/>
-      <c r="BW171" s="12"/>
-      <c r="BX171" s="12"/>
-      <c r="BY171" s="12"/>
-      <c r="BZ171" s="12"/>
-      <c r="CA171" s="12"/>
-      <c r="CB171" s="12"/>
-      <c r="CC171" s="12"/>
-      <c r="CD171" s="12"/>
+      <c r="BW171" s="1"/>
+      <c r="BX171" s="1"/>
+      <c r="BY171" s="1"/>
+      <c r="BZ171" s="1"/>
+      <c r="CA171" s="1"/>
+      <c r="CB171" s="1"/>
+      <c r="CC171" s="1"/>
+      <c r="CD171" s="1"/>
       <c r="CE171" s="1"/>
       <c r="CF171" s="18"/>
       <c r="CG171" t="s">
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="172" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C172" s="11" t="s">
-        <v>2</v>
+      <c r="C172" s="28" t="s">
+        <v>475</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
       <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
+      <c r="F172" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="G172" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>326</v>
+        <v>242</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J172" s="1"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="1"/>
+      <c r="J172" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="11"/>
-      <c r="R172" s="10"/>
-      <c r="S172" s="10"/>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
+      <c r="P172" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q172" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="R172" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="S172" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
@@ -20740,7 +20749,9 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
-      <c r="AG172" s="1"/>
+      <c r="AG172" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
@@ -20760,18 +20771,24 @@
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
-      <c r="BA172" s="1"/>
-      <c r="BB172" s="4"/>
-      <c r="BD172" s="2"/>
-      <c r="BE172" s="3"/>
-      <c r="BF172" s="2"/>
+      <c r="BA172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB172" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD172" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE172" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF172" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG172" s="1"/>
-      <c r="BH172" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BI172" s="11" t="s">
-        <v>353</v>
-      </c>
+      <c r="BH172" s="1"/>
+      <c r="BI172" s="11"/>
       <c r="BJ172" s="1"/>
       <c r="BK172" s="1"/>
       <c r="BL172" s="1"/>
@@ -20799,18 +20816,18 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="173" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C173" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D173" s="28" t="s">
-        <v>389</v>
+      <c r="C173" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -20823,28 +20840,16 @@
       <c r="I173" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K173" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="J173" s="1"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="1"/>
       <c r="O173" s="1"/>
-      <c r="P173" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="P173" s="1"/>
       <c r="Q173" s="11"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
+      <c r="R173" s="10"/>
+      <c r="S173" s="10"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
@@ -20878,9 +20883,7 @@
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
-      <c r="BA173" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BA173" s="1"/>
       <c r="BB173" s="4"/>
       <c r="BD173" s="2"/>
       <c r="BE173" s="3"/>
@@ -20890,14 +20893,10 @@
         <v>287</v>
       </c>
       <c r="BI173" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="BJ173" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="BK173" s="1" t="s">
-        <v>354</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="BJ173" s="1"/>
+      <c r="BK173" s="1"/>
       <c r="BL173" s="1"/>
       <c r="BM173" s="1"/>
       <c r="BN173" s="1"/>
@@ -20920,35 +20919,37 @@
       <c r="CE173" s="1"/>
       <c r="CF173" s="18"/>
       <c r="CG173" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row customFormat="1" r="174" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>434</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="174" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="I174" s="1"/>
+      <c r="I174" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="J174" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K174" t="s">
+      <c r="K174" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L174" s="1" t="s">
@@ -20964,7 +20965,7 @@
       <c r="P174" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q174" s="1"/>
+      <c r="Q174" s="11"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
@@ -21001,22 +21002,25 @@
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
       <c r="BA174" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="BB174" s="1"/>
-      <c r="BC174" s="1"/>
-      <c r="BD174" s="1"/>
-      <c r="BE174" s="1"/>
-      <c r="BF174" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="BG174" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="BH174" s="1"/>
-      <c r="BI174" s="1"/>
-      <c r="BJ174" s="1"/>
-      <c r="BK174" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="BB174" s="4"/>
+      <c r="BD174" s="2"/>
+      <c r="BE174" s="3"/>
+      <c r="BF174" s="2"/>
+      <c r="BG174" s="1"/>
+      <c r="BH174" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BI174" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="BJ174" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="BK174" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="BL174" s="1"/>
       <c r="BM174" s="1"/>
       <c r="BN174" s="1"/>
@@ -21028,23 +21032,23 @@
       <c r="BT174" s="1"/>
       <c r="BU174" s="1"/>
       <c r="BV174" s="1"/>
-      <c r="BW174" s="1"/>
-      <c r="BX174" s="1"/>
-      <c r="BY174" s="1"/>
-      <c r="BZ174" s="1"/>
-      <c r="CA174" s="1"/>
-      <c r="CB174" s="1"/>
-      <c r="CC174" s="1"/>
-      <c r="CD174" s="1"/>
+      <c r="BW174" s="12"/>
+      <c r="BX174" s="12"/>
+      <c r="BY174" s="12"/>
+      <c r="BZ174" s="12"/>
+      <c r="CA174" s="12"/>
+      <c r="CB174" s="12"/>
+      <c r="CC174" s="12"/>
+      <c r="CD174" s="12"/>
       <c r="CE174" s="1"/>
-      <c r="CF174" s="1"/>
+      <c r="CF174" s="18"/>
       <c r="CG174" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row customFormat="1" r="175" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>366</v>
@@ -21127,7 +21131,7 @@
       <c r="BD175" s="1"/>
       <c r="BE175" s="1"/>
       <c r="BF175" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BG175" s="4" t="s">
         <v>441</v>
@@ -21161,9 +21165,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="176" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>366</v>
@@ -21246,7 +21250,7 @@
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
       <c r="BF176" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BG176" s="4" t="s">
         <v>441</v>
@@ -21280,9 +21284,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="177" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>366</v>
@@ -21365,7 +21369,7 @@
       <c r="BD177" s="1"/>
       <c r="BE177" s="1"/>
       <c r="BF177" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BG177" s="4" t="s">
         <v>441</v>
@@ -21399,9 +21403,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="178" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>366</v>
@@ -21484,7 +21488,7 @@
       <c r="BD178" s="1"/>
       <c r="BE178" s="1"/>
       <c r="BF178" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BG178" s="4" t="s">
         <v>441</v>
@@ -21518,9 +21522,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="179" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>366</v>
@@ -21603,7 +21607,7 @@
       <c r="BD179" s="1"/>
       <c r="BE179" s="1"/>
       <c r="BF179" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="BG179" s="4" t="s">
         <v>441</v>
@@ -21637,17 +21641,19 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="180" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D180" s="1"/>
+      <c r="C180" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="2" t="s">
@@ -21720,7 +21726,7 @@
       <c r="BD180" s="1"/>
       <c r="BE180" s="1"/>
       <c r="BF180" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="BG180" s="4" t="s">
         <v>441</v>
@@ -21754,9 +21760,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="181" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>366</v>
@@ -21837,7 +21843,7 @@
       <c r="BD181" s="1"/>
       <c r="BE181" s="1"/>
       <c r="BF181" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BG181" s="4" t="s">
         <v>441</v>
@@ -21871,9 +21877,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="182" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>366</v>
@@ -21954,7 +21960,7 @@
       <c r="BD182" s="1"/>
       <c r="BE182" s="1"/>
       <c r="BF182" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BG182" s="4" t="s">
         <v>441</v>
@@ -21988,9 +21994,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="183" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>366</v>
@@ -22071,7 +22077,7 @@
       <c r="BD183" s="1"/>
       <c r="BE183" s="1"/>
       <c r="BF183" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BG183" s="4" t="s">
         <v>441</v>
@@ -22105,9 +22111,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="184" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>366</v>
@@ -22188,7 +22194,7 @@
       <c r="BD184" s="1"/>
       <c r="BE184" s="1"/>
       <c r="BF184" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BG184" s="4" t="s">
         <v>441</v>
@@ -22222,19 +22228,17 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="185" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C185" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C185" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="2" t="s">
@@ -22306,8 +22310,12 @@
       <c r="BC185" s="1"/>
       <c r="BD185" s="1"/>
       <c r="BE185" s="1"/>
-      <c r="BF185" s="1"/>
-      <c r="BG185" s="4"/>
+      <c r="BF185" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="BG185" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="BH185" s="1"/>
       <c r="BI185" s="1"/>
       <c r="BJ185" s="1"/>
@@ -22337,17 +22345,19 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="186" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D186" s="1"/>
+      <c r="C186" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="2" t="s">
@@ -22419,12 +22429,8 @@
       <c r="BC186" s="1"/>
       <c r="BD186" s="1"/>
       <c r="BE186" s="1"/>
-      <c r="BF186" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="BG186" s="4" t="s">
-        <v>441</v>
-      </c>
+      <c r="BF186" s="1"/>
+      <c r="BG186" s="4"/>
       <c r="BH186" s="1"/>
       <c r="BI186" s="1"/>
       <c r="BJ186" s="1"/>
@@ -22454,9 +22460,9 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="187" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>366</v>
@@ -22537,9 +22543,11 @@
       <c r="BD187" s="1"/>
       <c r="BE187" s="1"/>
       <c r="BF187" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG187" s="4"/>
+        <v>461</v>
+      </c>
+      <c r="BG187" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="BH187" s="1"/>
       <c r="BI187" s="1"/>
       <c r="BJ187" s="1"/>
@@ -22569,54 +22577,50 @@
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="188" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>289</v>
+    <row r="188" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C188" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="C188" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I188" s="1"/>
       <c r="J188" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K188" s="2" t="s">
-        <v>294</v>
+        <v>0</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="M188" s="2"/>
-      <c r="N188" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="R188" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="S188" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="T188" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="U188" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="P188" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
@@ -22628,9 +22632,7 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
       <c r="AF188" s="1"/>
-      <c r="AG188" s="1" t="s">
-        <v>290</v>
-      </c>
+      <c r="AG188" s="1"/>
       <c r="AH188" s="1"/>
       <c r="AI188" s="1"/>
       <c r="AJ188" s="1"/>
@@ -22650,20 +22652,23 @@
       <c r="AX188" s="1"/>
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
-      <c r="BA188" s="1"/>
-      <c r="BB188" s="4"/>
-      <c r="BD188" s="2"/>
-      <c r="BE188" s="3"/>
-      <c r="BF188" s="2"/>
-      <c r="BG188" s="1"/>
+      <c r="BA188" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB188" s="1"/>
+      <c r="BC188" s="1"/>
+      <c r="BD188" s="1"/>
+      <c r="BE188" s="1"/>
+      <c r="BF188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG188" s="4"/>
       <c r="BH188" s="1"/>
-      <c r="BI188" s="11"/>
+      <c r="BI188" s="1"/>
       <c r="BJ188" s="1"/>
       <c r="BK188" s="1"/>
       <c r="BL188" s="1"/>
-      <c r="BM188" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="BM188" s="1"/>
       <c r="BN188" s="1"/>
       <c r="BO188" s="1"/>
       <c r="BP188" s="1"/>
@@ -22673,41 +22678,68 @@
       <c r="BT188" s="1"/>
       <c r="BU188" s="1"/>
       <c r="BV188" s="1"/>
-      <c r="BW188" s="12"/>
-      <c r="BX188" s="12"/>
-      <c r="BY188" s="12"/>
-      <c r="BZ188" s="12"/>
-      <c r="CA188" s="12"/>
-      <c r="CB188" s="12"/>
-      <c r="CC188" s="12"/>
-      <c r="CD188" s="12"/>
+      <c r="BW188" s="1"/>
+      <c r="BX188" s="1"/>
+      <c r="BY188" s="1"/>
+      <c r="BZ188" s="1"/>
+      <c r="CA188" s="1"/>
+      <c r="CB188" s="1"/>
+      <c r="CC188" s="1"/>
+      <c r="CD188" s="1"/>
       <c r="CE188" s="1"/>
-      <c r="CF188" s="18"/>
+      <c r="CF188" s="1"/>
       <c r="CG188" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row customFormat="1" r="189" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="2"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="189" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C189" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D189" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
       <c r="H189" s="3"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="2"/>
-      <c r="L189" s="1"/>
+      <c r="I189" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="M189" s="2"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
+      <c r="Q189" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="R189" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="S189" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="U189" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
@@ -22719,7 +22751,9 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
-      <c r="AG189" s="1"/>
+      <c r="AG189" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AH189" s="1"/>
       <c r="AI189" s="1"/>
       <c r="AJ189" s="1"/>
@@ -22740,18 +22774,19 @@
       <c r="AY189" s="1"/>
       <c r="AZ189" s="1"/>
       <c r="BA189" s="1"/>
-      <c r="BB189" s="1"/>
-      <c r="BC189" s="1"/>
-      <c r="BD189" s="1"/>
-      <c r="BE189" s="1"/>
-      <c r="BF189" s="1"/>
-      <c r="BG189" s="4"/>
+      <c r="BB189" s="4"/>
+      <c r="BD189" s="2"/>
+      <c r="BE189" s="3"/>
+      <c r="BF189" s="2"/>
+      <c r="BG189" s="1"/>
       <c r="BH189" s="1"/>
-      <c r="BI189" s="1"/>
+      <c r="BI189" s="11"/>
       <c r="BJ189" s="1"/>
       <c r="BK189" s="1"/>
       <c r="BL189" s="1"/>
-      <c r="BM189" s="1"/>
+      <c r="BM189" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="BN189" s="1"/>
       <c r="BO189" s="1"/>
       <c r="BP189" s="1"/>
@@ -22761,18 +22796,21 @@
       <c r="BT189" s="1"/>
       <c r="BU189" s="1"/>
       <c r="BV189" s="1"/>
-      <c r="BW189" s="1"/>
-      <c r="BX189" s="1"/>
-      <c r="BY189" s="1"/>
-      <c r="BZ189" s="1"/>
-      <c r="CA189" s="1"/>
-      <c r="CB189" s="1"/>
-      <c r="CC189" s="1"/>
-      <c r="CD189" s="1"/>
+      <c r="BW189" s="12"/>
+      <c r="BX189" s="12"/>
+      <c r="BY189" s="12"/>
+      <c r="BZ189" s="12"/>
+      <c r="CA189" s="12"/>
+      <c r="CB189" s="12"/>
+      <c r="CC189" s="12"/>
+      <c r="CD189" s="12"/>
       <c r="CE189" s="1"/>
-      <c r="CF189" s="1"/>
-    </row>
-    <row customFormat="1" r="190" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CF189" s="18"/>
+      <c r="CG189" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="190" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -22857,7 +22895,7 @@
       <c r="CE190" s="1"/>
       <c r="CF190" s="1"/>
     </row>
-    <row customFormat="1" r="191" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -22942,7 +22980,7 @@
       <c r="CE191" s="1"/>
       <c r="CF191" s="1"/>
     </row>
-    <row customFormat="1" r="192" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -23027,7 +23065,7 @@
       <c r="CE192" s="1"/>
       <c r="CF192" s="1"/>
     </row>
-    <row customFormat="1" r="193" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -23112,7 +23150,7 @@
       <c r="CE193" s="1"/>
       <c r="CF193" s="1"/>
     </row>
-    <row customFormat="1" r="194" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -23197,20 +23235,19 @@
       <c r="CE194" s="1"/>
       <c r="CF194" s="1"/>
     </row>
-    <row customFormat="1" r="195" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
+    <row r="195" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="11"/>
+      <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="3"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
+      <c r="J195" s="2"/>
       <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
+      <c r="M195" s="2"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
@@ -23256,9 +23293,9 @@
       <c r="BD195" s="1"/>
       <c r="BE195" s="1"/>
       <c r="BF195" s="1"/>
-      <c r="BG195" s="1"/>
+      <c r="BG195" s="4"/>
       <c r="BH195" s="1"/>
-      <c r="BI195" s="11"/>
+      <c r="BI195" s="1"/>
       <c r="BJ195" s="1"/>
       <c r="BK195" s="1"/>
       <c r="BL195" s="1"/>
@@ -23282,9 +23319,8 @@
       <c r="CD195" s="1"/>
       <c r="CE195" s="1"/>
       <c r="CF195" s="1"/>
-      <c r="CG195" s="1"/>
-    </row>
-    <row customFormat="1" r="196" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="1"/>
       <c r="C196" s="11"/>
@@ -23371,7 +23407,7 @@
       <c r="CF196" s="1"/>
       <c r="CG196" s="1"/>
     </row>
-    <row customFormat="1" r="197" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="1"/>
       <c r="C197" s="11"/>
@@ -23458,7 +23494,7 @@
       <c r="CF197" s="1"/>
       <c r="CG197" s="1"/>
     </row>
-    <row customFormat="1" r="198" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="1"/>
       <c r="C198" s="11"/>
@@ -23545,7 +23581,7 @@
       <c r="CF198" s="1"/>
       <c r="CG198" s="1"/>
     </row>
-    <row customFormat="1" r="199" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="1"/>
       <c r="C199" s="11"/>
@@ -23632,7 +23668,7 @@
       <c r="CF199" s="1"/>
       <c r="CG199" s="1"/>
     </row>
-    <row customFormat="1" r="200" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="1"/>
       <c r="C200" s="11"/>
@@ -23719,7 +23755,7 @@
       <c r="CF200" s="1"/>
       <c r="CG200" s="1"/>
     </row>
-    <row customFormat="1" r="201" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="1"/>
       <c r="C201" s="11"/>
@@ -23806,7 +23842,7 @@
       <c r="CF201" s="1"/>
       <c r="CG201" s="1"/>
     </row>
-    <row customFormat="1" r="202" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="1"/>
       <c r="C202" s="11"/>
@@ -23893,7 +23929,7 @@
       <c r="CF202" s="1"/>
       <c r="CG202" s="1"/>
     </row>
-    <row customFormat="1" r="203" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="1"/>
       <c r="C203" s="11"/>
@@ -23980,7 +24016,7 @@
       <c r="CF203" s="1"/>
       <c r="CG203" s="1"/>
     </row>
-    <row customFormat="1" r="204" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="1"/>
       <c r="C204" s="11"/>
@@ -24067,7 +24103,7 @@
       <c r="CF204" s="1"/>
       <c r="CG204" s="1"/>
     </row>
-    <row customFormat="1" r="205" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="1"/>
       <c r="C205" s="11"/>
@@ -24154,7 +24190,7 @@
       <c r="CF205" s="1"/>
       <c r="CG205" s="1"/>
     </row>
-    <row customFormat="1" r="206" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="1"/>
       <c r="C206" s="11"/>
@@ -24241,7 +24277,7 @@
       <c r="CF206" s="1"/>
       <c r="CG206" s="1"/>
     </row>
-    <row customFormat="1" r="207" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="1"/>
       <c r="C207" s="11"/>
@@ -24328,7 +24364,7 @@
       <c r="CF207" s="1"/>
       <c r="CG207" s="1"/>
     </row>
-    <row customFormat="1" r="208" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="1"/>
       <c r="C208" s="11"/>
@@ -24415,7 +24451,7 @@
       <c r="CF208" s="1"/>
       <c r="CG208" s="1"/>
     </row>
-    <row customFormat="1" r="209" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="1"/>
       <c r="C209" s="11"/>
@@ -24502,7 +24538,7 @@
       <c r="CF209" s="1"/>
       <c r="CG209" s="1"/>
     </row>
-    <row customFormat="1" r="210" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="1"/>
       <c r="C210" s="11"/>
@@ -24589,7 +24625,7 @@
       <c r="CF210" s="1"/>
       <c r="CG210" s="1"/>
     </row>
-    <row customFormat="1" r="211" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="1"/>
       <c r="C211" s="11"/>
@@ -24676,7 +24712,7 @@
       <c r="CF211" s="1"/>
       <c r="CG211" s="1"/>
     </row>
-    <row customFormat="1" r="212" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="1"/>
       <c r="C212" s="11"/>
@@ -24763,7 +24799,7 @@
       <c r="CF212" s="1"/>
       <c r="CG212" s="1"/>
     </row>
-    <row customFormat="1" r="213" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="1"/>
       <c r="C213" s="11"/>
@@ -24850,94 +24886,94 @@
       <c r="CF213" s="1"/>
       <c r="CG213" s="1"/>
     </row>
-    <row customFormat="1" r="214" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
-      <c r="Z214" s="2"/>
-      <c r="AA214" s="2"/>
-      <c r="AB214" s="2"/>
-      <c r="AC214" s="2"/>
-      <c r="AD214" s="2"/>
-      <c r="AE214" s="2"/>
-      <c r="AF214" s="2"/>
-      <c r="AG214" s="2"/>
-      <c r="AH214" s="2"/>
-      <c r="AI214" s="2"/>
-      <c r="AJ214" s="2"/>
-      <c r="AK214" s="2"/>
-      <c r="AL214" s="2"/>
-      <c r="AM214" s="2"/>
-      <c r="AN214" s="2"/>
-      <c r="AO214" s="2"/>
-      <c r="AP214" s="2"/>
-      <c r="AQ214" s="2"/>
-      <c r="AR214" s="2"/>
-      <c r="AS214" s="2"/>
-      <c r="AT214" s="2"/>
-      <c r="AU214" s="2"/>
-      <c r="AV214" s="2"/>
-      <c r="AW214" s="2"/>
-      <c r="AX214" s="2"/>
-      <c r="AY214" s="2"/>
-      <c r="AZ214" s="2"/>
-      <c r="BA214" s="2"/>
-      <c r="BB214" s="2"/>
-      <c r="BC214" s="2"/>
-      <c r="BD214" s="2"/>
-      <c r="BE214" s="2"/>
-      <c r="BF214" s="2"/>
-      <c r="BG214" s="2"/>
-      <c r="BH214" s="2"/>
-      <c r="BI214" s="3"/>
-      <c r="BJ214" s="2"/>
-      <c r="BK214" s="2"/>
-      <c r="BL214" s="2"/>
-      <c r="BM214" s="2"/>
-      <c r="BN214" s="2"/>
-      <c r="BO214" s="2"/>
-      <c r="BP214" s="2"/>
-      <c r="BQ214" s="2"/>
-      <c r="BR214" s="2"/>
-      <c r="BS214" s="2"/>
-      <c r="BT214" s="2"/>
-      <c r="BU214" s="2"/>
-      <c r="BV214" s="2"/>
-      <c r="BW214" s="2"/>
-      <c r="BX214" s="2"/>
-      <c r="BY214" s="2"/>
-      <c r="BZ214" s="2"/>
-      <c r="CA214" s="2"/>
-      <c r="CB214" s="2"/>
-      <c r="CC214" s="2"/>
-      <c r="CD214" s="2"/>
-      <c r="CE214" s="2"/>
-      <c r="CF214" s="2"/>
-      <c r="CG214" s="2"/>
-    </row>
-    <row customFormat="1" r="215" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+      <c r="Y214" s="1"/>
+      <c r="Z214" s="1"/>
+      <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
+      <c r="AC214" s="1"/>
+      <c r="AD214" s="1"/>
+      <c r="AE214" s="1"/>
+      <c r="AF214" s="1"/>
+      <c r="AG214" s="1"/>
+      <c r="AH214" s="1"/>
+      <c r="AI214" s="1"/>
+      <c r="AJ214" s="1"/>
+      <c r="AK214" s="1"/>
+      <c r="AL214" s="1"/>
+      <c r="AM214" s="1"/>
+      <c r="AN214" s="1"/>
+      <c r="AO214" s="1"/>
+      <c r="AP214" s="1"/>
+      <c r="AQ214" s="1"/>
+      <c r="AR214" s="1"/>
+      <c r="AS214" s="1"/>
+      <c r="AT214" s="1"/>
+      <c r="AU214" s="1"/>
+      <c r="AV214" s="1"/>
+      <c r="AW214" s="1"/>
+      <c r="AX214" s="1"/>
+      <c r="AY214" s="1"/>
+      <c r="AZ214" s="1"/>
+      <c r="BA214" s="1"/>
+      <c r="BB214" s="1"/>
+      <c r="BC214" s="1"/>
+      <c r="BD214" s="1"/>
+      <c r="BE214" s="1"/>
+      <c r="BF214" s="1"/>
+      <c r="BG214" s="1"/>
+      <c r="BH214" s="1"/>
+      <c r="BI214" s="11"/>
+      <c r="BJ214" s="1"/>
+      <c r="BK214" s="1"/>
+      <c r="BL214" s="1"/>
+      <c r="BM214" s="1"/>
+      <c r="BN214" s="1"/>
+      <c r="BO214" s="1"/>
+      <c r="BP214" s="1"/>
+      <c r="BQ214" s="1"/>
+      <c r="BR214" s="1"/>
+      <c r="BS214" s="1"/>
+      <c r="BT214" s="1"/>
+      <c r="BU214" s="1"/>
+      <c r="BV214" s="1"/>
+      <c r="BW214" s="1"/>
+      <c r="BX214" s="1"/>
+      <c r="BY214" s="1"/>
+      <c r="BZ214" s="1"/>
+      <c r="CA214" s="1"/>
+      <c r="CB214" s="1"/>
+      <c r="CC214" s="1"/>
+      <c r="CD214" s="1"/>
+      <c r="CE214" s="1"/>
+      <c r="CF214" s="1"/>
+      <c r="CG214" s="1"/>
+    </row>
+    <row r="215" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="2"/>
       <c r="C215" s="3"/>
@@ -25024,7 +25060,7 @@
       <c r="CF215" s="2"/>
       <c r="CG215" s="2"/>
     </row>
-    <row customFormat="1" r="216" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="2"/>
       <c r="C216" s="3"/>
@@ -25111,7 +25147,7 @@
       <c r="CF216" s="2"/>
       <c r="CG216" s="2"/>
     </row>
-    <row customFormat="1" r="217" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="2"/>
       <c r="C217" s="3"/>
@@ -25198,7 +25234,7 @@
       <c r="CF217" s="2"/>
       <c r="CG217" s="2"/>
     </row>
-    <row customFormat="1" r="218" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
@@ -25285,7 +25321,7 @@
       <c r="CF218" s="2"/>
       <c r="CG218" s="2"/>
     </row>
-    <row customFormat="1" r="219" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="2"/>
       <c r="C219" s="3"/>
@@ -25372,7 +25408,7 @@
       <c r="CF219" s="2"/>
       <c r="CG219" s="2"/>
     </row>
-    <row customFormat="1" r="220" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3"/>
@@ -25459,7 +25495,7 @@
       <c r="CF220" s="2"/>
       <c r="CG220" s="2"/>
     </row>
-    <row customFormat="1" r="221" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
@@ -25546,7 +25582,7 @@
       <c r="CF221" s="2"/>
       <c r="CG221" s="2"/>
     </row>
-    <row customFormat="1" r="222" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
@@ -25633,7 +25669,7 @@
       <c r="CF222" s="2"/>
       <c r="CG222" s="2"/>
     </row>
-    <row customFormat="1" r="223" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="2"/>
       <c r="C223" s="3"/>
@@ -25720,7 +25756,7 @@
       <c r="CF223" s="2"/>
       <c r="CG223" s="2"/>
     </row>
-    <row customFormat="1" r="224" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
@@ -25807,7 +25843,7 @@
       <c r="CF224" s="2"/>
       <c r="CG224" s="2"/>
     </row>
-    <row customFormat="1" r="225" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
@@ -25894,7 +25930,7 @@
       <c r="CF225" s="2"/>
       <c r="CG225" s="2"/>
     </row>
-    <row customFormat="1" r="226" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="2"/>
       <c r="C226" s="3"/>
@@ -25981,7 +26017,7 @@
       <c r="CF226" s="2"/>
       <c r="CG226" s="2"/>
     </row>
-    <row customFormat="1" r="227" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
@@ -26068,7 +26104,7 @@
       <c r="CF227" s="2"/>
       <c r="CG227" s="2"/>
     </row>
-    <row customFormat="1" r="228" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
@@ -26155,7 +26191,7 @@
       <c r="CF228" s="2"/>
       <c r="CG228" s="2"/>
     </row>
-    <row customFormat="1" r="229" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
@@ -26242,7 +26278,7 @@
       <c r="CF229" s="2"/>
       <c r="CG229" s="2"/>
     </row>
-    <row customFormat="1" r="230" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
@@ -26329,7 +26365,7 @@
       <c r="CF230" s="2"/>
       <c r="CG230" s="2"/>
     </row>
-    <row customFormat="1" r="231" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
@@ -26416,7 +26452,7 @@
       <c r="CF231" s="2"/>
       <c r="CG231" s="2"/>
     </row>
-    <row customFormat="1" r="232" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
@@ -26503,7 +26539,7 @@
       <c r="CF232" s="2"/>
       <c r="CG232" s="2"/>
     </row>
-    <row customFormat="1" r="233" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
@@ -26590,7 +26626,7 @@
       <c r="CF233" s="2"/>
       <c r="CG233" s="2"/>
     </row>
-    <row customFormat="1" r="234" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
@@ -26677,7 +26713,7 @@
       <c r="CF234" s="2"/>
       <c r="CG234" s="2"/>
     </row>
-    <row customFormat="1" r="235" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
@@ -26764,7 +26800,7 @@
       <c r="CF235" s="2"/>
       <c r="CG235" s="2"/>
     </row>
-    <row customFormat="1" r="236" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
@@ -26851,7 +26887,7 @@
       <c r="CF236" s="2"/>
       <c r="CG236" s="2"/>
     </row>
-    <row customFormat="1" r="237" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
@@ -26938,7 +26974,7 @@
       <c r="CF237" s="2"/>
       <c r="CG237" s="2"/>
     </row>
-    <row customFormat="1" r="238" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
@@ -27025,7 +27061,7 @@
       <c r="CF238" s="2"/>
       <c r="CG238" s="2"/>
     </row>
-    <row customFormat="1" r="239" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
@@ -27112,7 +27148,7 @@
       <c r="CF239" s="2"/>
       <c r="CG239" s="2"/>
     </row>
-    <row customFormat="1" r="240" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
@@ -27199,7 +27235,7 @@
       <c r="CF240" s="2"/>
       <c r="CG240" s="2"/>
     </row>
-    <row customFormat="1" r="241" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
@@ -27286,7 +27322,7 @@
       <c r="CF241" s="2"/>
       <c r="CG241" s="2"/>
     </row>
-    <row customFormat="1" r="242" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
@@ -27373,7 +27409,7 @@
       <c r="CF242" s="2"/>
       <c r="CG242" s="2"/>
     </row>
-    <row customFormat="1" r="243" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
@@ -27460,7 +27496,7 @@
       <c r="CF243" s="2"/>
       <c r="CG243" s="2"/>
     </row>
-    <row customFormat="1" r="244" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
@@ -27547,7 +27583,7 @@
       <c r="CF244" s="2"/>
       <c r="CG244" s="2"/>
     </row>
-    <row customFormat="1" r="245" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
@@ -27634,7 +27670,7 @@
       <c r="CF245" s="2"/>
       <c r="CG245" s="2"/>
     </row>
-    <row customFormat="1" r="246" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
@@ -27721,7 +27757,7 @@
       <c r="CF246" s="2"/>
       <c r="CG246" s="2"/>
     </row>
-    <row customFormat="1" r="247" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
@@ -27808,7 +27844,7 @@
       <c r="CF247" s="2"/>
       <c r="CG247" s="2"/>
     </row>
-    <row customFormat="1" r="248" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
@@ -27895,7 +27931,7 @@
       <c r="CF248" s="2"/>
       <c r="CG248" s="2"/>
     </row>
-    <row customFormat="1" r="249" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
@@ -27982,7 +28018,7 @@
       <c r="CF249" s="2"/>
       <c r="CG249" s="2"/>
     </row>
-    <row customFormat="1" r="250" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
@@ -28069,7 +28105,7 @@
       <c r="CF250" s="2"/>
       <c r="CG250" s="2"/>
     </row>
-    <row customFormat="1" r="251" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
@@ -28156,7 +28192,7 @@
       <c r="CF251" s="2"/>
       <c r="CG251" s="2"/>
     </row>
-    <row customFormat="1" r="252" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
@@ -28243,7 +28279,7 @@
       <c r="CF252" s="2"/>
       <c r="CG252" s="2"/>
     </row>
-    <row customFormat="1" r="253" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
@@ -28330,7 +28366,7 @@
       <c r="CF253" s="2"/>
       <c r="CG253" s="2"/>
     </row>
-    <row customFormat="1" r="254" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
@@ -28417,7 +28453,7 @@
       <c r="CF254" s="2"/>
       <c r="CG254" s="2"/>
     </row>
-    <row customFormat="1" r="255" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
@@ -28504,7 +28540,7 @@
       <c r="CF255" s="2"/>
       <c r="CG255" s="2"/>
     </row>
-    <row customFormat="1" r="256" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
@@ -28591,7 +28627,7 @@
       <c r="CF256" s="2"/>
       <c r="CG256" s="2"/>
     </row>
-    <row customFormat="1" r="257" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
@@ -28678,7 +28714,7 @@
       <c r="CF257" s="2"/>
       <c r="CG257" s="2"/>
     </row>
-    <row customFormat="1" r="258" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
@@ -28765,7 +28801,7 @@
       <c r="CF258" s="2"/>
       <c r="CG258" s="2"/>
     </row>
-    <row customFormat="1" r="259" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -28852,7 +28888,7 @@
       <c r="CF259" s="2"/>
       <c r="CG259" s="2"/>
     </row>
-    <row customFormat="1" r="260" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -28939,7 +28975,7 @@
       <c r="CF260" s="2"/>
       <c r="CG260" s="2"/>
     </row>
-    <row customFormat="1" r="261" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -29026,7 +29062,7 @@
       <c r="CF261" s="2"/>
       <c r="CG261" s="2"/>
     </row>
-    <row customFormat="1" r="262" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
@@ -29113,7 +29149,7 @@
       <c r="CF262" s="2"/>
       <c r="CG262" s="2"/>
     </row>
-    <row customFormat="1" r="263" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
@@ -29200,7 +29236,7 @@
       <c r="CF263" s="2"/>
       <c r="CG263" s="2"/>
     </row>
-    <row customFormat="1" r="264" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
@@ -29287,7 +29323,7 @@
       <c r="CF264" s="2"/>
       <c r="CG264" s="2"/>
     </row>
-    <row customFormat="1" r="265" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
@@ -29374,7 +29410,7 @@
       <c r="CF265" s="2"/>
       <c r="CG265" s="2"/>
     </row>
-    <row customFormat="1" r="266" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
@@ -29461,7 +29497,7 @@
       <c r="CF266" s="2"/>
       <c r="CG266" s="2"/>
     </row>
-    <row customFormat="1" r="267" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
@@ -29548,7 +29584,7 @@
       <c r="CF267" s="2"/>
       <c r="CG267" s="2"/>
     </row>
-    <row customFormat="1" r="268" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
@@ -29635,7 +29671,7 @@
       <c r="CF268" s="2"/>
       <c r="CG268" s="2"/>
     </row>
-    <row customFormat="1" r="269" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
@@ -29722,7 +29758,7 @@
       <c r="CF269" s="2"/>
       <c r="CG269" s="2"/>
     </row>
-    <row customFormat="1" r="270" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
@@ -29809,7 +29845,7 @@
       <c r="CF270" s="2"/>
       <c r="CG270" s="2"/>
     </row>
-    <row customFormat="1" r="271" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
@@ -29896,7 +29932,7 @@
       <c r="CF271" s="2"/>
       <c r="CG271" s="2"/>
     </row>
-    <row customFormat="1" r="272" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
@@ -29983,7 +30019,7 @@
       <c r="CF272" s="2"/>
       <c r="CG272" s="2"/>
     </row>
-    <row customFormat="1" r="273" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
@@ -30070,7 +30106,7 @@
       <c r="CF273" s="2"/>
       <c r="CG273" s="2"/>
     </row>
-    <row customFormat="1" r="274" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
@@ -30157,7 +30193,7 @@
       <c r="CF274" s="2"/>
       <c r="CG274" s="2"/>
     </row>
-    <row customFormat="1" r="275" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
@@ -30244,7 +30280,7 @@
       <c r="CF275" s="2"/>
       <c r="CG275" s="2"/>
     </row>
-    <row customFormat="1" r="276" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
@@ -30331,8 +30367,8 @@
       <c r="CF276" s="2"/>
       <c r="CG276" s="2"/>
     </row>
-    <row customFormat="1" r="277" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
+    <row r="277" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A277" s="8"/>
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
       <c r="D277" s="2"/>
@@ -30418,7 +30454,7 @@
       <c r="CF277" s="2"/>
       <c r="CG277" s="2"/>
     </row>
-    <row customFormat="1" r="278" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="3"/>
@@ -30505,7 +30541,7 @@
       <c r="CF278" s="2"/>
       <c r="CG278" s="2"/>
     </row>
-    <row customFormat="1" r="279" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="3"/>
@@ -30592,7 +30628,7 @@
       <c r="CF279" s="2"/>
       <c r="CG279" s="2"/>
     </row>
-    <row customFormat="1" r="280" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="3"/>
@@ -30679,7 +30715,7 @@
       <c r="CF280" s="2"/>
       <c r="CG280" s="2"/>
     </row>
-    <row customFormat="1" r="281" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="3"/>
@@ -30766,7 +30802,7 @@
       <c r="CF281" s="2"/>
       <c r="CG281" s="2"/>
     </row>
-    <row customFormat="1" r="282" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="3"/>
@@ -30853,7 +30889,7 @@
       <c r="CF282" s="2"/>
       <c r="CG282" s="2"/>
     </row>
-    <row customFormat="1" r="283" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="3"/>
@@ -30940,7 +30976,7 @@
       <c r="CF283" s="2"/>
       <c r="CG283" s="2"/>
     </row>
-    <row customFormat="1" r="284" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="3"/>
@@ -31027,7 +31063,7 @@
       <c r="CF284" s="2"/>
       <c r="CG284" s="2"/>
     </row>
-    <row customFormat="1" r="285" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="3"/>
@@ -31114,7 +31150,7 @@
       <c r="CF285" s="2"/>
       <c r="CG285" s="2"/>
     </row>
-    <row customFormat="1" r="286" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="3"/>
@@ -31201,202 +31237,291 @@
       <c r="CF286" s="2"/>
       <c r="CG286" s="2"/>
     </row>
+    <row r="287" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+      <c r="L287" s="2"/>
+      <c r="M287" s="2"/>
+      <c r="N287" s="2"/>
+      <c r="O287" s="2"/>
+      <c r="P287" s="2"/>
+      <c r="Q287" s="2"/>
+      <c r="R287" s="2"/>
+      <c r="S287" s="2"/>
+      <c r="T287" s="2"/>
+      <c r="U287" s="2"/>
+      <c r="V287" s="2"/>
+      <c r="W287" s="2"/>
+      <c r="X287" s="2"/>
+      <c r="Y287" s="2"/>
+      <c r="Z287" s="2"/>
+      <c r="AA287" s="2"/>
+      <c r="AB287" s="2"/>
+      <c r="AC287" s="2"/>
+      <c r="AD287" s="2"/>
+      <c r="AE287" s="2"/>
+      <c r="AF287" s="2"/>
+      <c r="AG287" s="2"/>
+      <c r="AH287" s="2"/>
+      <c r="AI287" s="2"/>
+      <c r="AJ287" s="2"/>
+      <c r="AK287" s="2"/>
+      <c r="AL287" s="2"/>
+      <c r="AM287" s="2"/>
+      <c r="AN287" s="2"/>
+      <c r="AO287" s="2"/>
+      <c r="AP287" s="2"/>
+      <c r="AQ287" s="2"/>
+      <c r="AR287" s="2"/>
+      <c r="AS287" s="2"/>
+      <c r="AT287" s="2"/>
+      <c r="AU287" s="2"/>
+      <c r="AV287" s="2"/>
+      <c r="AW287" s="2"/>
+      <c r="AX287" s="2"/>
+      <c r="AY287" s="2"/>
+      <c r="AZ287" s="2"/>
+      <c r="BA287" s="2"/>
+      <c r="BB287" s="2"/>
+      <c r="BC287" s="2"/>
+      <c r="BD287" s="2"/>
+      <c r="BE287" s="2"/>
+      <c r="BF287" s="2"/>
+      <c r="BG287" s="2"/>
+      <c r="BH287" s="2"/>
+      <c r="BI287" s="3"/>
+      <c r="BJ287" s="2"/>
+      <c r="BK287" s="2"/>
+      <c r="BL287" s="2"/>
+      <c r="BM287" s="2"/>
+      <c r="BN287" s="2"/>
+      <c r="BO287" s="2"/>
+      <c r="BP287" s="2"/>
+      <c r="BQ287" s="2"/>
+      <c r="BR287" s="2"/>
+      <c r="BS287" s="2"/>
+      <c r="BT287" s="2"/>
+      <c r="BU287" s="2"/>
+      <c r="BV287" s="2"/>
+      <c r="BW287" s="2"/>
+      <c r="BX287" s="2"/>
+      <c r="BY287" s="2"/>
+      <c r="BZ287" s="2"/>
+      <c r="CA287" s="2"/>
+      <c r="CB287" s="2"/>
+      <c r="CC287" s="2"/>
+      <c r="CD287" s="2"/>
+      <c r="CE287" s="2"/>
+      <c r="CF287" s="2"/>
+      <c r="CG287" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="abc@test.com" r:id="rId1" ref="BM25"/>
-    <hyperlink r:id="rId2" ref="C66"/>
-    <hyperlink r:id="rId3" ref="C73"/>
-    <hyperlink r:id="rId4" ref="C25"/>
-    <hyperlink r:id="rId5" ref="C11"/>
-    <hyperlink r:id="rId6" ref="C167"/>
-    <hyperlink r:id="rId7" ref="C79"/>
-    <hyperlink display="Ankit@12345" r:id="rId8" ref="AU79"/>
-    <hyperlink r:id="rId9" ref="C147"/>
-    <hyperlink display="Deepika@1234" r:id="rId10" ref="D147"/>
-    <hyperlink r:id="rId11" ref="C159"/>
-    <hyperlink r:id="rId12" ref="C160"/>
-    <hyperlink r:id="rId13" ref="C161"/>
-    <hyperlink r:id="rId14" ref="C162"/>
-    <hyperlink r:id="rId15" ref="C164"/>
-    <hyperlink r:id="rId16" ref="C171"/>
-    <hyperlink r:id="rId17" ref="C173"/>
-    <hyperlink r:id="rId18" ref="C188"/>
-    <hyperlink r:id="rId19" ref="D173"/>
-    <hyperlink r:id="rId20" ref="D188"/>
-    <hyperlink r:id="rId21" ref="C155"/>
-    <hyperlink r:id="rId22" ref="C156"/>
-    <hyperlink r:id="rId23" ref="C157"/>
-    <hyperlink r:id="rId24" ref="C142"/>
-    <hyperlink r:id="rId25" ref="C143"/>
-    <hyperlink r:id="rId26" ref="AM131"/>
-    <hyperlink r:id="rId27" ref="C165"/>
-    <hyperlink r:id="rId28" ref="C166"/>
-    <hyperlink r:id="rId29" ref="C168"/>
-    <hyperlink r:id="rId30" ref="C169"/>
-    <hyperlink r:id="rId31" ref="C170"/>
-    <hyperlink r:id="rId32" ref="D11"/>
-    <hyperlink r:id="rId33" ref="C46"/>
-    <hyperlink r:id="rId34" ref="C47"/>
-    <hyperlink r:id="rId35" ref="D46"/>
-    <hyperlink r:id="rId36" ref="D47"/>
-    <hyperlink r:id="rId37" ref="C50"/>
-    <hyperlink r:id="rId38" ref="C51"/>
-    <hyperlink r:id="rId39" ref="C52"/>
-    <hyperlink r:id="rId40" ref="D50"/>
-    <hyperlink r:id="rId41" ref="D51"/>
-    <hyperlink r:id="rId42" ref="D52"/>
-    <hyperlink r:id="rId43" ref="C54"/>
-    <hyperlink r:id="rId44" ref="D54"/>
-    <hyperlink r:id="rId45" ref="C57"/>
-    <hyperlink r:id="rId46" ref="C58"/>
-    <hyperlink r:id="rId47" ref="C59"/>
-    <hyperlink r:id="rId48" ref="D57"/>
-    <hyperlink r:id="rId49" ref="D58"/>
-    <hyperlink r:id="rId50" ref="D59"/>
-    <hyperlink r:id="rId51" ref="C62"/>
-    <hyperlink r:id="rId52" ref="C63"/>
-    <hyperlink r:id="rId53" ref="D62"/>
-    <hyperlink r:id="rId54" ref="D63"/>
-    <hyperlink r:id="rId55" ref="C65"/>
-    <hyperlink r:id="rId56" ref="D65"/>
-    <hyperlink r:id="rId57" ref="C67"/>
-    <hyperlink r:id="rId58" ref="D67"/>
-    <hyperlink r:id="rId59" ref="C69"/>
-    <hyperlink r:id="rId60" ref="C70"/>
-    <hyperlink r:id="rId61" ref="C71"/>
-    <hyperlink r:id="rId62" ref="C72"/>
-    <hyperlink r:id="rId63" ref="D71"/>
-    <hyperlink r:id="rId64" ref="D72"/>
-    <hyperlink r:id="rId65" ref="C77"/>
-    <hyperlink r:id="rId66" ref="C78"/>
-    <hyperlink r:id="rId67" ref="D77"/>
-    <hyperlink r:id="rId68" ref="D78"/>
-    <hyperlink r:id="rId69" ref="C80"/>
-    <hyperlink r:id="rId70" ref="C81"/>
-    <hyperlink r:id="rId71" ref="C82"/>
-    <hyperlink r:id="rId72" ref="C83"/>
-    <hyperlink r:id="rId73" ref="D80"/>
-    <hyperlink r:id="rId74" ref="D81"/>
-    <hyperlink r:id="rId75" ref="D82"/>
-    <hyperlink r:id="rId76" ref="D83"/>
-    <hyperlink r:id="rId77" ref="C85"/>
-    <hyperlink r:id="rId78" ref="C86"/>
-    <hyperlink r:id="rId79" ref="C87"/>
-    <hyperlink r:id="rId80" ref="C88"/>
-    <hyperlink r:id="rId81" ref="C89"/>
-    <hyperlink r:id="rId82" ref="C90"/>
-    <hyperlink r:id="rId83" ref="C91"/>
-    <hyperlink r:id="rId84" ref="C92"/>
-    <hyperlink r:id="rId85" ref="C93"/>
-    <hyperlink r:id="rId86" ref="C94"/>
-    <hyperlink r:id="rId87" ref="C95"/>
-    <hyperlink r:id="rId88" ref="C96"/>
-    <hyperlink r:id="rId89" ref="C97"/>
-    <hyperlink r:id="rId90" ref="C98"/>
-    <hyperlink r:id="rId91" ref="D85"/>
-    <hyperlink r:id="rId92" ref="D86"/>
-    <hyperlink r:id="rId93" ref="D87"/>
-    <hyperlink r:id="rId94" ref="D88"/>
-    <hyperlink r:id="rId95" ref="D89"/>
-    <hyperlink r:id="rId96" ref="D90"/>
-    <hyperlink r:id="rId97" ref="D91"/>
-    <hyperlink r:id="rId98" ref="D92"/>
-    <hyperlink r:id="rId99" ref="D93"/>
-    <hyperlink r:id="rId100" ref="D94"/>
-    <hyperlink r:id="rId101" ref="D95"/>
-    <hyperlink r:id="rId102" ref="D96"/>
-    <hyperlink r:id="rId103" ref="D97"/>
-    <hyperlink r:id="rId104" ref="D98"/>
-    <hyperlink r:id="rId105" ref="C107"/>
-    <hyperlink r:id="rId106" ref="D107"/>
-    <hyperlink r:id="rId107" ref="C111"/>
-    <hyperlink r:id="rId108" ref="C112"/>
-    <hyperlink r:id="rId109" ref="C113"/>
-    <hyperlink r:id="rId110" ref="C114"/>
-    <hyperlink r:id="rId111" ref="C115"/>
-    <hyperlink r:id="rId112" ref="C116"/>
-    <hyperlink r:id="rId113" ref="C117"/>
-    <hyperlink r:id="rId114" ref="C118"/>
-    <hyperlink r:id="rId115" ref="C119"/>
-    <hyperlink r:id="rId116" ref="C120"/>
-    <hyperlink r:id="rId117" ref="C121"/>
-    <hyperlink r:id="rId118" ref="D111"/>
-    <hyperlink r:id="rId119" ref="D112"/>
-    <hyperlink r:id="rId120" ref="D113"/>
-    <hyperlink r:id="rId121" ref="D114"/>
-    <hyperlink r:id="rId122" ref="D115"/>
-    <hyperlink r:id="rId123" ref="D116"/>
-    <hyperlink r:id="rId124" ref="D117"/>
-    <hyperlink r:id="rId125" ref="D118"/>
-    <hyperlink r:id="rId126" ref="D119"/>
-    <hyperlink r:id="rId127" ref="D120"/>
-    <hyperlink r:id="rId128" ref="D121"/>
-    <hyperlink r:id="rId129" ref="C127"/>
-    <hyperlink r:id="rId130" ref="C128"/>
-    <hyperlink r:id="rId131" ref="C129"/>
-    <hyperlink r:id="rId132" ref="C130"/>
-    <hyperlink r:id="rId133" ref="C131"/>
-    <hyperlink r:id="rId134" ref="C132"/>
-    <hyperlink r:id="rId135" ref="C133"/>
-    <hyperlink r:id="rId136" ref="C134"/>
-    <hyperlink r:id="rId137" ref="C135"/>
-    <hyperlink r:id="rId138" ref="C136"/>
-    <hyperlink r:id="rId139" ref="D127"/>
-    <hyperlink r:id="rId140" ref="D128"/>
-    <hyperlink r:id="rId141" ref="D129"/>
-    <hyperlink r:id="rId142" ref="D130"/>
-    <hyperlink r:id="rId143" ref="D131"/>
-    <hyperlink r:id="rId144" ref="D132"/>
-    <hyperlink r:id="rId145" ref="D133"/>
-    <hyperlink r:id="rId146" ref="D134"/>
-    <hyperlink r:id="rId147" ref="D135"/>
-    <hyperlink r:id="rId148" ref="D136"/>
-    <hyperlink r:id="rId149" ref="C141"/>
-    <hyperlink r:id="rId150" ref="D141"/>
-    <hyperlink r:id="rId151" ref="C144"/>
-    <hyperlink r:id="rId152" ref="C145"/>
-    <hyperlink r:id="rId153" ref="C146"/>
-    <hyperlink r:id="rId154" ref="D144"/>
-    <hyperlink r:id="rId155" ref="D145"/>
-    <hyperlink r:id="rId156" ref="D146"/>
-    <hyperlink r:id="rId157" ref="C148"/>
-    <hyperlink r:id="rId158" ref="C149"/>
-    <hyperlink r:id="rId159" ref="C150"/>
-    <hyperlink r:id="rId160" ref="D148"/>
-    <hyperlink r:id="rId161" ref="D149"/>
-    <hyperlink r:id="rId162" ref="D150"/>
-    <hyperlink r:id="rId163" ref="C174"/>
-    <hyperlink r:id="rId164" ref="C175"/>
-    <hyperlink r:id="rId165" ref="C176"/>
-    <hyperlink r:id="rId166" ref="C177"/>
-    <hyperlink r:id="rId167" ref="C178"/>
-    <hyperlink r:id="rId168" ref="C179"/>
-    <hyperlink r:id="rId169" ref="D174"/>
-    <hyperlink r:id="rId170" ref="D175"/>
-    <hyperlink r:id="rId171" ref="D176"/>
-    <hyperlink r:id="rId172" ref="D177"/>
-    <hyperlink r:id="rId173" ref="D178"/>
-    <hyperlink r:id="rId174" ref="D179"/>
-    <hyperlink r:id="rId175" ref="C185"/>
-    <hyperlink r:id="rId176" ref="D185"/>
+    <hyperlink ref="BM25" r:id="rId1" display="abc@test.com"/>
+    <hyperlink ref="C66" r:id="rId2"/>
+    <hyperlink ref="C73" r:id="rId3"/>
+    <hyperlink ref="C25" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C168" r:id="rId6"/>
+    <hyperlink ref="C79" r:id="rId7"/>
+    <hyperlink ref="AU79" r:id="rId8" display="Ankit@12345"/>
+    <hyperlink ref="C148" r:id="rId9"/>
+    <hyperlink ref="D148" r:id="rId10" display="Deepika@1234"/>
+    <hyperlink ref="C160" r:id="rId11"/>
+    <hyperlink ref="C161" r:id="rId12"/>
+    <hyperlink ref="C162" r:id="rId13"/>
+    <hyperlink ref="C163" r:id="rId14"/>
+    <hyperlink ref="C165" r:id="rId15"/>
+    <hyperlink ref="C172" r:id="rId16"/>
+    <hyperlink ref="C174" r:id="rId17"/>
+    <hyperlink ref="C189" r:id="rId18"/>
+    <hyperlink ref="D174" r:id="rId19"/>
+    <hyperlink ref="D189" r:id="rId20"/>
+    <hyperlink ref="C156" r:id="rId21"/>
+    <hyperlink ref="C157" r:id="rId22"/>
+    <hyperlink ref="C158" r:id="rId23"/>
+    <hyperlink ref="C143" r:id="rId24"/>
+    <hyperlink ref="C144" r:id="rId25"/>
+    <hyperlink ref="AM132" r:id="rId26"/>
+    <hyperlink ref="C166" r:id="rId27"/>
+    <hyperlink ref="C167" r:id="rId28"/>
+    <hyperlink ref="C169" r:id="rId29"/>
+    <hyperlink ref="C170" r:id="rId30"/>
+    <hyperlink ref="C171" r:id="rId31"/>
+    <hyperlink ref="D11" r:id="rId32"/>
+    <hyperlink ref="C46" r:id="rId33"/>
+    <hyperlink ref="C47" r:id="rId34"/>
+    <hyperlink ref="D46" r:id="rId35"/>
+    <hyperlink ref="D47" r:id="rId36"/>
+    <hyperlink ref="C50" r:id="rId37"/>
+    <hyperlink ref="C51" r:id="rId38"/>
+    <hyperlink ref="C52" r:id="rId39"/>
+    <hyperlink ref="D50" r:id="rId40"/>
+    <hyperlink ref="D51" r:id="rId41"/>
+    <hyperlink ref="D52" r:id="rId42"/>
+    <hyperlink ref="C54" r:id="rId43"/>
+    <hyperlink ref="D54" r:id="rId44"/>
+    <hyperlink ref="C57" r:id="rId45"/>
+    <hyperlink ref="C58" r:id="rId46"/>
+    <hyperlink ref="C59" r:id="rId47"/>
+    <hyperlink ref="D57" r:id="rId48"/>
+    <hyperlink ref="D58" r:id="rId49"/>
+    <hyperlink ref="D59" r:id="rId50"/>
+    <hyperlink ref="C62" r:id="rId51"/>
+    <hyperlink ref="C63" r:id="rId52"/>
+    <hyperlink ref="D62" r:id="rId53"/>
+    <hyperlink ref="D63" r:id="rId54"/>
+    <hyperlink ref="C65" r:id="rId55"/>
+    <hyperlink ref="D65" r:id="rId56"/>
+    <hyperlink ref="C67" r:id="rId57"/>
+    <hyperlink ref="D67" r:id="rId58"/>
+    <hyperlink ref="C69" r:id="rId59"/>
+    <hyperlink ref="C70" r:id="rId60"/>
+    <hyperlink ref="C71" r:id="rId61"/>
+    <hyperlink ref="C72" r:id="rId62"/>
+    <hyperlink ref="D71" r:id="rId63"/>
+    <hyperlink ref="D72" r:id="rId64"/>
+    <hyperlink ref="C77" r:id="rId65"/>
+    <hyperlink ref="C78" r:id="rId66"/>
+    <hyperlink ref="D77" r:id="rId67"/>
+    <hyperlink ref="D78" r:id="rId68"/>
+    <hyperlink ref="C80" r:id="rId69"/>
+    <hyperlink ref="C81" r:id="rId70"/>
+    <hyperlink ref="C82" r:id="rId71"/>
+    <hyperlink ref="C83" r:id="rId72"/>
+    <hyperlink ref="D80" r:id="rId73"/>
+    <hyperlink ref="D81" r:id="rId74"/>
+    <hyperlink ref="D82" r:id="rId75"/>
+    <hyperlink ref="D83" r:id="rId76"/>
+    <hyperlink ref="C85" r:id="rId77"/>
+    <hyperlink ref="C86" r:id="rId78"/>
+    <hyperlink ref="C87" r:id="rId79"/>
+    <hyperlink ref="C88" r:id="rId80"/>
+    <hyperlink ref="C89" r:id="rId81"/>
+    <hyperlink ref="C90" r:id="rId82"/>
+    <hyperlink ref="C91" r:id="rId83"/>
+    <hyperlink ref="C92" r:id="rId84"/>
+    <hyperlink ref="C93" r:id="rId85"/>
+    <hyperlink ref="C94" r:id="rId86"/>
+    <hyperlink ref="C95" r:id="rId87"/>
+    <hyperlink ref="C96" r:id="rId88"/>
+    <hyperlink ref="C97" r:id="rId89"/>
+    <hyperlink ref="C98" r:id="rId90"/>
+    <hyperlink ref="D85" r:id="rId91"/>
+    <hyperlink ref="D86" r:id="rId92"/>
+    <hyperlink ref="D87" r:id="rId93"/>
+    <hyperlink ref="D88" r:id="rId94"/>
+    <hyperlink ref="D89" r:id="rId95"/>
+    <hyperlink ref="D90" r:id="rId96"/>
+    <hyperlink ref="D91" r:id="rId97"/>
+    <hyperlink ref="D92" r:id="rId98"/>
+    <hyperlink ref="D93" r:id="rId99"/>
+    <hyperlink ref="D94" r:id="rId100"/>
+    <hyperlink ref="D95" r:id="rId101"/>
+    <hyperlink ref="D96" r:id="rId102"/>
+    <hyperlink ref="D97" r:id="rId103"/>
+    <hyperlink ref="D98" r:id="rId104"/>
+    <hyperlink ref="C107" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="C111" r:id="rId107"/>
+    <hyperlink ref="C112" r:id="rId108"/>
+    <hyperlink ref="C113" r:id="rId109"/>
+    <hyperlink ref="C114" r:id="rId110"/>
+    <hyperlink ref="C115" r:id="rId111"/>
+    <hyperlink ref="C116" r:id="rId112"/>
+    <hyperlink ref="C118" r:id="rId113"/>
+    <hyperlink ref="C119" r:id="rId114"/>
+    <hyperlink ref="C120" r:id="rId115"/>
+    <hyperlink ref="C121" r:id="rId116"/>
+    <hyperlink ref="C122" r:id="rId117"/>
+    <hyperlink ref="D111" r:id="rId118"/>
+    <hyperlink ref="D112" r:id="rId119"/>
+    <hyperlink ref="D113" r:id="rId120"/>
+    <hyperlink ref="D114" r:id="rId121"/>
+    <hyperlink ref="D115" r:id="rId122"/>
+    <hyperlink ref="D116" r:id="rId123"/>
+    <hyperlink ref="D118" r:id="rId124"/>
+    <hyperlink ref="D119" r:id="rId125"/>
+    <hyperlink ref="D120" r:id="rId126"/>
+    <hyperlink ref="D121" r:id="rId127"/>
+    <hyperlink ref="D122" r:id="rId128"/>
+    <hyperlink ref="C128" r:id="rId129"/>
+    <hyperlink ref="C129" r:id="rId130"/>
+    <hyperlink ref="C130" r:id="rId131"/>
+    <hyperlink ref="C131" r:id="rId132"/>
+    <hyperlink ref="C132" r:id="rId133"/>
+    <hyperlink ref="C133" r:id="rId134"/>
+    <hyperlink ref="C134" r:id="rId135"/>
+    <hyperlink ref="C135" r:id="rId136"/>
+    <hyperlink ref="C136" r:id="rId137"/>
+    <hyperlink ref="C137" r:id="rId138"/>
+    <hyperlink ref="D128" r:id="rId139"/>
+    <hyperlink ref="D129" r:id="rId140"/>
+    <hyperlink ref="D130" r:id="rId141"/>
+    <hyperlink ref="D131" r:id="rId142"/>
+    <hyperlink ref="D132" r:id="rId143"/>
+    <hyperlink ref="D133" r:id="rId144"/>
+    <hyperlink ref="D134" r:id="rId145"/>
+    <hyperlink ref="D135" r:id="rId146"/>
+    <hyperlink ref="D136" r:id="rId147"/>
+    <hyperlink ref="D137" r:id="rId148"/>
+    <hyperlink ref="C142" r:id="rId149"/>
+    <hyperlink ref="D142" r:id="rId150"/>
+    <hyperlink ref="C145" r:id="rId151"/>
+    <hyperlink ref="C146" r:id="rId152"/>
+    <hyperlink ref="C147" r:id="rId153"/>
+    <hyperlink ref="D145" r:id="rId154"/>
+    <hyperlink ref="D146" r:id="rId155"/>
+    <hyperlink ref="D147" r:id="rId156"/>
+    <hyperlink ref="C149" r:id="rId157"/>
+    <hyperlink ref="C150" r:id="rId158"/>
+    <hyperlink ref="C151" r:id="rId159"/>
+    <hyperlink ref="D149" r:id="rId160"/>
+    <hyperlink ref="D150" r:id="rId161"/>
+    <hyperlink ref="D151" r:id="rId162"/>
+    <hyperlink ref="C175" r:id="rId163"/>
+    <hyperlink ref="C176" r:id="rId164"/>
+    <hyperlink ref="C177" r:id="rId165"/>
+    <hyperlink ref="C178" r:id="rId166"/>
+    <hyperlink ref="C179" r:id="rId167"/>
+    <hyperlink ref="C180" r:id="rId168"/>
+    <hyperlink ref="D175" r:id="rId169"/>
+    <hyperlink ref="D176" r:id="rId170"/>
+    <hyperlink ref="D177" r:id="rId171"/>
+    <hyperlink ref="D178" r:id="rId172"/>
+    <hyperlink ref="D179" r:id="rId173"/>
+    <hyperlink ref="D180" r:id="rId174"/>
+    <hyperlink ref="C186" r:id="rId175"/>
+    <hyperlink ref="D186" r:id="rId176"/>
+    <hyperlink ref="C117" r:id="rId177"/>
+    <hyperlink ref="D117" r:id="rId178"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId177"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId179"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="69.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="100.0" collapsed="true"/>
+    <col min="1" max="1" width="69.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="100" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -31569,7 +31694,7 @@
       <c r="A22" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="33" t="s">
         <v>319</v>
       </c>
     </row>
@@ -31577,13 +31702,13 @@
       <c r="A23" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="33"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="33"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
@@ -31633,7 +31758,7 @@
         <v>329</v>
       </c>
     </row>
-    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>313</v>
       </c>
@@ -31649,23 +31774,23 @@
   <mergeCells count="1">
     <mergeCell ref="B22:B24"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="1" max="1" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -31677,13 +31802,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
@@ -31691,9 +31816,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="61.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="76.0" collapsed="true"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="76" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31722,7 +31847,7 @@
         <v>455</v>
       </c>
       <c r="D2" t="str">
-        <f ref="D2:D18" si="0" t="shared">A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D18" si="0">A2&amp;B2&amp;C2</f>
         <v>&lt;class name="SS_CheckOut_RegisterAtCheckout_OrderUsingWallets_Jiomoney" /&gt;</v>
       </c>
     </row>
@@ -31737,7 +31862,7 @@
         <v>455</v>
       </c>
       <c r="D3" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_RegisterAtCheckout_OrderUsingWallets_MobikWik" /&gt;</v>
       </c>
     </row>
@@ -31752,7 +31877,7 @@
         <v>455</v>
       </c>
       <c r="D4" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_RegisterAtCheckout_OrderUsingWallets_Oxigen" /&gt;</v>
       </c>
     </row>
@@ -31767,7 +31892,7 @@
         <v>455</v>
       </c>
       <c r="D5" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_RegisterAtCheckout_OrderUsingWallets_Paytm" /&gt;</v>
       </c>
     </row>
@@ -31782,7 +31907,7 @@
         <v>455</v>
       </c>
       <c r="D6" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_RegisterAtCheckout_OrderUsingWallets_Boddy" /&gt;</v>
       </c>
     </row>
@@ -31797,7 +31922,7 @@
         <v>455</v>
       </c>
       <c r="D7" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_AlreadyLoginUser_OrderUsingWallets_freecharge" /&gt;</v>
       </c>
     </row>
@@ -31812,7 +31937,7 @@
         <v>455</v>
       </c>
       <c r="D8" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_AlreadyLoginUser_OrderUsingWallets_Jiomoney" /&gt;</v>
       </c>
     </row>
@@ -31827,7 +31952,7 @@
         <v>455</v>
       </c>
       <c r="D9" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_AlreadyLoginUser_OrderUsingWallets_MobikWik" /&gt;</v>
       </c>
     </row>
@@ -31842,7 +31967,7 @@
         <v>455</v>
       </c>
       <c r="D10" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_AlreadyLoginUser_OrderUsingWallets_Oxigen" /&gt;</v>
       </c>
     </row>
@@ -31857,7 +31982,7 @@
         <v>455</v>
       </c>
       <c r="D11" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_AlreadyLoginUser_OrderUsingWallets_Paytm" /&gt;</v>
       </c>
     </row>
@@ -31872,7 +31997,7 @@
         <v>455</v>
       </c>
       <c r="D12" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_AlreadyLoginUser_OrderUsingWallets_Boddy" /&gt;</v>
       </c>
     </row>
@@ -31887,7 +32012,7 @@
         <v>455</v>
       </c>
       <c r="D13" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_GuestUser_OrderUsingWallets_freecharge" /&gt;</v>
       </c>
     </row>
@@ -31902,7 +32027,7 @@
         <v>455</v>
       </c>
       <c r="D14" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_GuestUser_OrderUsingWallets_Jiomoney" /&gt;</v>
       </c>
     </row>
@@ -31917,7 +32042,7 @@
         <v>455</v>
       </c>
       <c r="D15" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_GuestUser_OrderUsingWallets_MobikWik" /&gt;</v>
       </c>
     </row>
@@ -31932,7 +32057,7 @@
         <v>455</v>
       </c>
       <c r="D16" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_GuestUser_OrderUsingWallets_Oxigen" /&gt;</v>
       </c>
     </row>
@@ -31947,7 +32072,7 @@
         <v>455</v>
       </c>
       <c r="D17" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_GuestUser_OrderUsingWallets_Paytm" /&gt;</v>
       </c>
     </row>
@@ -31962,11 +32087,11 @@
         <v>455</v>
       </c>
       <c r="D18" t="str">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>&lt;class name="SS_CheckOut_GuestUser_OOrderUsingWallets_Boddy" /&gt;</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="511">
   <si>
     <t>Ankit</t>
   </si>
@@ -5491,7 +5491,7 @@
       <c r="CE33" s="1"/>
       <c r="CF33" s="18"/>
       <c r="CG33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.25">
@@ -11888,7 +11888,7 @@
       <c r="CE97" s="30"/>
       <c r="CF97" s="30"/>
       <c r="CG97" s="29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="98" s="29" spans="1:85" x14ac:dyDescent="0.25">
@@ -11991,7 +11991,7 @@
       <c r="CE98" s="30"/>
       <c r="CF98" s="30"/>
       <c r="CG98" s="29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="99" s="29" spans="1:85" x14ac:dyDescent="0.25">

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="6360" windowWidth="14235" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="5415" windowWidth="14175" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="515">
   <si>
     <t>Ankit</t>
   </si>
@@ -1557,6 +1557,12 @@
   </si>
   <si>
     <t>xdezssa@gmail.com</t>
+  </si>
+  <si>
+    <t>SS_Footer_CustomerRelated_Verify_All_L2L3_Links_Are_Clickable</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
   </si>
 </sst>
 </file>
@@ -2186,13 +2192,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH305"/>
+  <dimension ref="A1:CH306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B179" xSplit="1" ySplit="1"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="AC2" xSplit="1" ySplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="A195" pane="bottomRight" sqref="A195"/>
+      <selection activeCell="AC16" pane="bottomRight" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,7 +3694,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -3781,102 +3787,110 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
+      <c r="BH16" s="30"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="30"/>
+      <c r="BK16" s="30"/>
+      <c r="BL16" s="30"/>
+      <c r="BM16" s="30"/>
+      <c r="BN16" s="30"/>
+      <c r="BO16" s="30"/>
+      <c r="BP16" s="30"/>
+      <c r="BQ16" s="30"/>
+      <c r="BR16" s="30"/>
+      <c r="BS16" s="30"/>
+      <c r="BT16" s="30"/>
+      <c r="BU16" s="30"/>
+      <c r="BV16" s="30"/>
+      <c r="BW16" s="30"/>
+      <c r="BX16" s="30"/>
+      <c r="BY16" s="30"/>
+      <c r="BZ16" s="30"/>
+      <c r="CA16" s="30"/>
+      <c r="CB16" s="30"/>
+      <c r="CC16" s="30"/>
+      <c r="CD16" s="30"/>
+      <c r="CE16" s="30"/>
+      <c r="CF16" s="18"/>
+      <c r="CG16" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="17" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="11"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="1"/>
-      <c r="BP16" s="1"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
-      <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
-      <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-      <c r="CF16" s="18"/>
-      <c r="CG16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>364</v>
@@ -3967,9 +3981,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>364</v>
@@ -4060,9 +4074,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>364</v>
@@ -4153,9 +4167,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>364</v>
@@ -4246,9 +4260,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>50</v>
+    <row customFormat="1" r="21" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>364</v>
@@ -4335,11 +4349,13 @@
       <c r="CD21" s="1"/>
       <c r="CE21" s="1"/>
       <c r="CF21" s="18"/>
-      <c r="CG21" s="1"/>
-    </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>49</v>
+      <c r="CG21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="22" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>364</v>
@@ -4426,13 +4442,11 @@
       <c r="CD22" s="1"/>
       <c r="CE22" s="1"/>
       <c r="CF22" s="18"/>
-      <c r="CG22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG22" s="1"/>
+    </row>
+    <row customFormat="1" r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>364</v>
@@ -4523,19 +4537,18 @@
         <v>365</v>
       </c>
     </row>
-    <row ht="60" r="24" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4617,20 +4630,19 @@
         <v>365</v>
       </c>
     </row>
-    <row ht="75" r="25" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>509</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4688,9 +4700,7 @@
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
-      <c r="BM25" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
@@ -4705,29 +4715,25 @@
       <c r="BY25" s="1"/>
       <c r="BZ25" s="1"/>
       <c r="CA25" s="1"/>
-      <c r="CB25" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="CC25" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="CD25" s="15" t="s">
-        <v>510</v>
-      </c>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
       <c r="CE25" s="1"/>
       <c r="CF25" s="18"/>
       <c r="CG25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="75" r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="27" t="s">
+        <v>509</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4789,7 +4795,9 @@
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
-      <c r="BM26" s="1"/>
+      <c r="BM26" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="BN26" s="1"/>
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
@@ -4804,18 +4812,24 @@
       <c r="BY26" s="1"/>
       <c r="BZ26" s="1"/>
       <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
-      <c r="CD26" s="1"/>
+      <c r="CB26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CD26" s="15" t="s">
+        <v>510</v>
+      </c>
       <c r="CE26" s="1"/>
       <c r="CF26" s="18"/>
       <c r="CG26" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>364</v>
@@ -4903,24 +4917,20 @@
       <c r="CE27" s="1"/>
       <c r="CF27" s="18"/>
       <c r="CG27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>57</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="28" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4999,25 +5009,27 @@
       <c r="CD28" s="1"/>
       <c r="CE28" s="1"/>
       <c r="CF28" s="18"/>
-      <c r="CG28" s="1"/>
-    </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>58</v>
+      <c r="CG28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="29" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -5094,13 +5106,11 @@
       <c r="CD29" s="1"/>
       <c r="CE29" s="1"/>
       <c r="CF29" s="18"/>
-      <c r="CG29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row ht="30" r="30" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG29" s="1"/>
+    </row>
+    <row customFormat="1" r="30" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>364</v>
@@ -5115,9 +5125,7 @@
       <c r="H30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="30" t="s">
-        <v>472</v>
-      </c>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5197,9 +5205,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="31" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>364</v>
@@ -5214,7 +5222,9 @@
       <c r="H31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="30" t="s">
+        <v>472</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5294,9 +5304,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>364</v>
@@ -5325,24 +5335,12 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -5403,9 +5401,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>364</v>
@@ -5434,16 +5432,28 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
+      <c r="W33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
@@ -5497,12 +5507,12 @@
       <c r="CE33" s="1"/>
       <c r="CF33" s="18"/>
       <c r="CG33" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="34" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>364</v>
@@ -5537,12 +5547,10 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
@@ -5599,9 +5607,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>364</v>
@@ -5637,11 +5645,9 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
@@ -5697,12 +5703,12 @@
       <c r="CE35" s="1"/>
       <c r="CF35" s="18"/>
       <c r="CG35" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="36" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>364</v>
@@ -5737,13 +5743,13 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AD36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>387</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -5801,9 +5807,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>364</v>
@@ -5839,13 +5845,13 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
+      <c r="AD37" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AE37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>398</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
@@ -5902,9 +5908,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>364</v>
@@ -5940,11 +5946,13 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1" t="s">
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
+      <c r="AF38" t="s">
+        <v>398</v>
+      </c>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
@@ -5987,9 +5995,7 @@
       <c r="BT38" s="1"/>
       <c r="BU38" s="1"/>
       <c r="BV38" s="1"/>
-      <c r="BW38" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
       <c r="BZ38" s="1"/>
@@ -6000,12 +6006,12 @@
       <c r="CE38" s="1"/>
       <c r="CF38" s="18"/>
       <c r="CG38" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="39" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>364</v>
@@ -6041,7 +6047,9 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
+      <c r="AD39" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
@@ -6086,7 +6094,9 @@
       <c r="BT39" s="1"/>
       <c r="BU39" s="1"/>
       <c r="BV39" s="1"/>
-      <c r="BW39" s="1"/>
+      <c r="BW39" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="BX39" s="1"/>
       <c r="BY39" s="1"/>
       <c r="BZ39" s="1"/>
@@ -6100,9 +6110,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>364</v>
@@ -6194,12 +6204,12 @@
       <c r="CE40" s="1"/>
       <c r="CF40" s="18"/>
       <c r="CG40" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="41" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>364</v>
@@ -6291,12 +6301,12 @@
       <c r="CE41" s="1"/>
       <c r="CF41" s="18"/>
       <c r="CG41" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="42" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>364</v>
@@ -6325,24 +6335,12 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB42" s="30" t="s">
-        <v>473</v>
-      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6400,12 +6398,12 @@
       <c r="CE42" s="1"/>
       <c r="CF42" s="18"/>
       <c r="CG42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="43" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>364</v>
@@ -6434,21 +6432,27 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>388</v>
-      </c>
+      <c r="W43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB43" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -6503,113 +6507,115 @@
       <c r="CE43" s="1"/>
       <c r="CF43" s="18"/>
       <c r="CG43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="44" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="11"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="18"/>
+      <c r="CG44" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row customFormat="1" r="44" s="29" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD44" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="30"/>
-      <c r="AI44" s="30"/>
-      <c r="AJ44" s="30"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
-      <c r="AM44" s="30"/>
-      <c r="AN44" s="30"/>
-      <c r="AO44" s="30"/>
-      <c r="AP44" s="30"/>
-      <c r="AQ44" s="30"/>
-      <c r="AR44" s="30"/>
-      <c r="AS44" s="30"/>
-      <c r="AT44" s="30"/>
-      <c r="AU44" s="30"/>
-      <c r="AV44" s="30"/>
-      <c r="AW44" s="30"/>
-      <c r="AX44" s="30"/>
-      <c r="AY44" s="30"/>
-      <c r="AZ44" s="30"/>
-      <c r="BA44" s="30"/>
-      <c r="BB44" s="30"/>
-      <c r="BC44" s="30"/>
-      <c r="BD44" s="30"/>
-      <c r="BE44" s="30"/>
-      <c r="BF44" s="30"/>
-      <c r="BG44" s="30"/>
-      <c r="BH44" s="30"/>
-      <c r="BI44" s="11"/>
-      <c r="BJ44" s="30"/>
-      <c r="BK44" s="30"/>
-      <c r="BL44" s="30"/>
-      <c r="BM44" s="30"/>
-      <c r="BN44" s="30"/>
-      <c r="BO44" s="30"/>
-      <c r="BP44" s="30"/>
-      <c r="BQ44" s="30"/>
-      <c r="BR44" s="30"/>
-      <c r="BS44" s="30"/>
-      <c r="BT44" s="30"/>
-      <c r="BU44" s="30"/>
-      <c r="BV44" s="30"/>
-      <c r="BW44" s="30"/>
-      <c r="BX44" s="30"/>
-      <c r="BY44" s="30"/>
-      <c r="BZ44" s="30"/>
-      <c r="CA44" s="30"/>
-      <c r="CB44" s="30"/>
-      <c r="CC44" s="30"/>
-      <c r="CD44" s="30"/>
-      <c r="CE44" s="30"/>
-      <c r="CF44" s="18"/>
-      <c r="CG44" s="29" t="s">
-        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="45" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>364</v>
@@ -6708,106 +6714,110 @@
         <v>365</v>
       </c>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD46" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="30"/>
+      <c r="AS46" s="30"/>
+      <c r="AT46" s="30"/>
+      <c r="AU46" s="30"/>
+      <c r="AV46" s="30"/>
+      <c r="AW46" s="30"/>
+      <c r="AX46" s="30"/>
+      <c r="AY46" s="30"/>
+      <c r="AZ46" s="30"/>
+      <c r="BA46" s="30"/>
+      <c r="BB46" s="30"/>
+      <c r="BC46" s="30"/>
+      <c r="BD46" s="30"/>
+      <c r="BE46" s="30"/>
+      <c r="BF46" s="30"/>
+      <c r="BG46" s="30"/>
+      <c r="BH46" s="30"/>
+      <c r="BI46" s="11"/>
+      <c r="BJ46" s="30"/>
+      <c r="BK46" s="30"/>
+      <c r="BL46" s="30"/>
+      <c r="BM46" s="30"/>
+      <c r="BN46" s="30"/>
+      <c r="BO46" s="30"/>
+      <c r="BP46" s="30"/>
+      <c r="BQ46" s="30"/>
+      <c r="BR46" s="30"/>
+      <c r="BS46" s="30"/>
+      <c r="BT46" s="30"/>
+      <c r="BU46" s="30"/>
+      <c r="BV46" s="30"/>
+      <c r="BW46" s="30"/>
+      <c r="BX46" s="30"/>
+      <c r="BY46" s="30"/>
+      <c r="BZ46" s="30"/>
+      <c r="CA46" s="30"/>
+      <c r="CB46" s="30"/>
+      <c r="CC46" s="30"/>
+      <c r="CD46" s="30"/>
+      <c r="CE46" s="30"/>
+      <c r="CF46" s="18"/>
+      <c r="CG46" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="47" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
-      <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
-      <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
-      <c r="AU46" s="1"/>
-      <c r="AV46" s="1"/>
-      <c r="AW46" s="1"/>
-      <c r="AX46" s="1"/>
-      <c r="AY46" s="1"/>
-      <c r="AZ46" s="1"/>
-      <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
-      <c r="BC46" s="1"/>
-      <c r="BD46" s="1"/>
-      <c r="BE46" s="1"/>
-      <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
-      <c r="BH46" s="1"/>
-      <c r="BI46" s="11"/>
-      <c r="BJ46" s="1"/>
-      <c r="BK46" s="1"/>
-      <c r="BL46" s="1"/>
-      <c r="BM46" s="1"/>
-      <c r="BN46" s="1"/>
-      <c r="BO46" s="1"/>
-      <c r="BP46" s="1"/>
-      <c r="BQ46" s="1"/>
-      <c r="BR46" s="1"/>
-      <c r="BS46" s="1"/>
-      <c r="BT46" s="1"/>
-      <c r="BU46" s="1"/>
-      <c r="BV46" s="1"/>
-      <c r="BW46" s="1"/>
-      <c r="BX46" s="1"/>
-      <c r="BY46" s="1"/>
-      <c r="BZ46" s="1"/>
-      <c r="CA46" s="1"/>
-      <c r="CB46" s="1"/>
-      <c r="CC46" s="1"/>
-      <c r="CD46" s="1"/>
-      <c r="CE46" s="1"/>
-      <c r="CF46" s="18"/>
-      <c r="CG46" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>364</v>
@@ -6902,19 +6912,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -7003,9 +7009,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>364</v>
@@ -7104,19 +7110,27 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>84</v>
+    <row customFormat="1" r="50" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -7193,11 +7207,13 @@
       <c r="CD50" s="1"/>
       <c r="CE50" s="1"/>
       <c r="CF50" s="18"/>
-      <c r="CG50" s="2"/>
-    </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>85</v>
+      <c r="CG50" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="51" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>364</v>
@@ -7206,12 +7222,8 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -7288,23 +7300,17 @@
       <c r="CD51" s="1"/>
       <c r="CE51" s="1"/>
       <c r="CF51" s="18"/>
-      <c r="CG51" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG51" s="2"/>
+    </row>
+    <row customFormat="1" r="52" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
@@ -7393,9 +7399,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>364</v>
@@ -7494,9 +7500,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>364</v>
@@ -7591,20 +7597,22 @@
       <c r="CD54" s="1"/>
       <c r="CE54" s="1"/>
       <c r="CF54" s="18"/>
-      <c r="CG54" s="2"/>
-    </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG54" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="55" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>6</v>
+      <c r="C55" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7690,22 +7698,20 @@
       <c r="CD55" s="1"/>
       <c r="CE55" s="1"/>
       <c r="CF55" s="18"/>
-      <c r="CG55" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG55" s="2"/>
+    </row>
+    <row customFormat="1" r="56" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>3</v>
+      <c r="C56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7795,15 +7801,19 @@
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -7892,9 +7902,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>364</v>
@@ -7907,7 +7917,7 @@
         <v>53</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>465</v>
+        <v>324</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -7989,26 +7999,22 @@
         <v>363</v>
       </c>
     </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>347</v>
+        <v>464</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C59" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>324</v>
+        <v>465</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -8086,11 +8092,13 @@
       <c r="CD59" s="1"/>
       <c r="CE59" s="1"/>
       <c r="CF59" s="18"/>
-      <c r="CG59" s="2"/>
-    </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG59" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="60" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>91</v>
+        <v>347</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>364</v>
@@ -8164,14 +8172,10 @@
       <c r="BI60" s="11"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
-      <c r="BL60" s="11" t="s">
-        <v>273</v>
-      </c>
+      <c r="BL60" s="1"/>
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
-      <c r="BO60" s="11" t="s">
-        <v>274</v>
-      </c>
+      <c r="BO60" s="1"/>
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
       <c r="BR60" s="1"/>
@@ -8189,13 +8193,11 @@
       <c r="CD60" s="1"/>
       <c r="CE60" s="1"/>
       <c r="CF60" s="18"/>
-      <c r="CG60" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG60" s="2"/>
+    </row>
+    <row customFormat="1" r="61" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>364</v>
@@ -8225,9 +8227,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
@@ -8271,10 +8271,14 @@
       <c r="BI61" s="11"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
-      <c r="BL61" s="1"/>
+      <c r="BL61" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
-      <c r="BO61" s="1"/>
+      <c r="BO61" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="BP61" s="1"/>
       <c r="BQ61" s="1"/>
       <c r="BR61" s="1"/>
@@ -8296,15 +8300,19 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -8314,9 +8322,7 @@
         <v>324</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -8326,7 +8332,9 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
@@ -8339,9 +8347,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
@@ -8379,18 +8385,10 @@
       <c r="BP62" s="1"/>
       <c r="BQ62" s="1"/>
       <c r="BR62" s="1"/>
-      <c r="BS62" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BT62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU62" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BV62" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
@@ -8402,12 +8400,12 @@
       <c r="CE62" s="1"/>
       <c r="CF62" s="18"/>
       <c r="CG62" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="63" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>364</v>
@@ -8449,7 +8447,7 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
@@ -8489,16 +8487,16 @@
       <c r="BQ63" s="1"/>
       <c r="BR63" s="1"/>
       <c r="BS63" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="BT63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BU63" s="1" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="BV63" s="1" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="BW63" s="1"/>
       <c r="BX63" s="1"/>
@@ -8514,19 +8512,15 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
@@ -8536,15 +8530,15 @@
         <v>324</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -8561,10 +8555,10 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-      <c r="AH64" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="AG64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
@@ -8596,17 +8590,23 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
-      <c r="BN64" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="BN64" s="1"/>
       <c r="BO64" s="1"/>
       <c r="BP64" s="1"/>
       <c r="BQ64" s="1"/>
       <c r="BR64" s="1"/>
-      <c r="BS64" s="1"/>
-      <c r="BT64" s="1"/>
-      <c r="BU64" s="1"/>
-      <c r="BV64" s="1"/>
+      <c r="BS64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BT64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV64" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BW64" s="1"/>
       <c r="BX64" s="1"/>
       <c r="BY64" s="1"/>
@@ -8621,9 +8621,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>364</v>
@@ -8649,7 +8649,9 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="P65" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -8667,7 +8669,9 @@
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
+      <c r="AH65" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
@@ -8699,10 +8703,10 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
-      <c r="BO65" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BN65" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BO65" s="1"/>
       <c r="BP65" s="1"/>
       <c r="BQ65" s="1"/>
       <c r="BR65" s="1"/>
@@ -8721,22 +8725,30 @@
       <c r="CE65" s="1"/>
       <c r="CF65" s="18"/>
       <c r="CG65" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>232</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="66" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="C66" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -8789,13 +8801,15 @@
       <c r="BF66" s="1"/>
       <c r="BG66" s="1"/>
       <c r="BH66" s="1"/>
-      <c r="BI66" s="1"/>
+      <c r="BI66" s="11"/>
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
-      <c r="BO66" s="1"/>
+      <c r="BO66" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BP66" s="1"/>
       <c r="BQ66" s="1"/>
       <c r="BR66" s="1"/>
@@ -8812,25 +8826,21 @@
       <c r="CC66" s="1"/>
       <c r="CD66" s="1"/>
       <c r="CE66" s="1"/>
-      <c r="CF66" s="1"/>
-      <c r="CG66" s="1"/>
-    </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>7</v>
+      <c r="CF66" s="18"/>
+      <c r="CG66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="67" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -8910,39 +8920,31 @@
       <c r="CD67" s="1"/>
       <c r="CE67" s="1"/>
       <c r="CF67" s="1"/>
-      <c r="CG67" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG67" s="1"/>
+    </row>
+    <row customFormat="1" r="68" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>361</v>
-      </c>
+      <c r="C68" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -8952,9 +8954,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
@@ -9021,34 +9021,34 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>3</v>
+      <c r="C69" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" t="s">
-        <v>233</v>
+      <c r="F69" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -9060,7 +9060,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
@@ -9114,11 +9114,12 @@
       <c r="BT69" s="1"/>
       <c r="BU69" s="1"/>
       <c r="BV69" s="1"/>
-      <c r="BW69" s="12"/>
-      <c r="BX69" s="12"/>
-      <c r="BY69" s="12"/>
-      <c r="BZ69" s="12"/>
-      <c r="CA69" s="12"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
       <c r="CC69" s="1"/>
       <c r="CD69" s="1"/>
       <c r="CE69" s="1"/>
@@ -9127,27 +9128,35 @@
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" t="s">
+        <v>233</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -9157,7 +9166,9 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
+      <c r="V70" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
@@ -9210,14 +9221,11 @@
       <c r="BT70" s="1"/>
       <c r="BU70" s="1"/>
       <c r="BV70" s="1"/>
-      <c r="BW70" s="1"/>
-      <c r="BX70" s="1"/>
-      <c r="BY70" s="1"/>
-      <c r="BZ70" s="1"/>
-      <c r="CA70" s="1"/>
-      <c r="CB70" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="BW70" s="12"/>
+      <c r="BX70" s="12"/>
+      <c r="BY70" s="12"/>
+      <c r="BZ70" s="12"/>
+      <c r="CA70" s="12"/>
       <c r="CC70" s="1"/>
       <c r="CD70" s="1"/>
       <c r="CE70" s="1"/>
@@ -9226,18 +9234,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>2</v>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -9325,9 +9333,9 @@
         <v>365</v>
       </c>
     </row>
-    <row ht="30" r="72" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>364</v>
@@ -9336,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -9413,8 +9421,8 @@
       <c r="BY72" s="1"/>
       <c r="BZ72" s="1"/>
       <c r="CA72" s="1"/>
-      <c r="CB72" s="1" t="s">
-        <v>298</v>
+      <c r="CB72" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="CC72" s="1"/>
       <c r="CD72" s="1"/>
@@ -9424,9 +9432,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="73" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>364</v>
@@ -9434,8 +9442,8 @@
       <c r="C73" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="27" t="s">
-        <v>3</v>
+      <c r="D73" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -9512,7 +9520,9 @@
       <c r="BY73" s="1"/>
       <c r="BZ73" s="1"/>
       <c r="CA73" s="1"/>
-      <c r="CB73" s="1"/>
+      <c r="CB73" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="CC73" s="1"/>
       <c r="CD73" s="1"/>
       <c r="CE73" s="1"/>
@@ -9521,9 +9531,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>364</v>
@@ -9618,17 +9628,19 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C75" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="1"/>
+      <c r="C75" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -9713,14 +9725,16 @@
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="26" t="s">
+        <v>299</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -9806,9 +9820,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>364</v>
@@ -9899,9 +9913,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>234</v>
+    <row customFormat="1" r="78" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>364</v>
@@ -9988,21 +10002,19 @@
       <c r="CD78" s="1"/>
       <c r="CE78" s="1"/>
       <c r="CF78" s="1"/>
-      <c r="CG78" s="1"/>
-    </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>15</v>
+      <c r="CG78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="79" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C79" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -10083,13 +10095,11 @@
       <c r="CD79" s="1"/>
       <c r="CE79" s="1"/>
       <c r="CF79" s="1"/>
-      <c r="CG79" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG79" s="1"/>
+    </row>
+    <row customFormat="1" r="80" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>364</v>
@@ -10184,18 +10194,18 @@
         <v>365</v>
       </c>
     </row>
-    <row ht="30" r="81" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>361</v>
+      <c r="C81" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -10239,9 +10249,7 @@
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
-      <c r="AU81" s="27" t="s">
-        <v>428</v>
-      </c>
+      <c r="AU81" s="1"/>
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
@@ -10274,33 +10282,29 @@
       <c r="BY81" s="1"/>
       <c r="BZ81" s="1"/>
       <c r="CA81" s="1"/>
-      <c r="CB81" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="CB81" s="1"/>
       <c r="CC81" s="1"/>
       <c r="CD81" s="1"/>
       <c r="CE81" s="1"/>
       <c r="CF81" s="1"/>
       <c r="CG81" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="82" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C82" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -10342,7 +10346,9 @@
       <c r="AR82" s="1"/>
       <c r="AS82" s="1"/>
       <c r="AT82" s="1"/>
-      <c r="AU82" s="1"/>
+      <c r="AU82" s="27" t="s">
+        <v>428</v>
+      </c>
       <c r="AV82" s="1"/>
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
@@ -10375,18 +10381,20 @@
       <c r="BY82" s="1"/>
       <c r="BZ82" s="1"/>
       <c r="CA82" s="1"/>
-      <c r="CB82" s="1"/>
+      <c r="CB82" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="CC82" s="1"/>
       <c r="CD82" s="1"/>
       <c r="CE82" s="1"/>
       <c r="CF82" s="1"/>
       <c r="CG82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row customFormat="1" r="83" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>364</v>
@@ -10483,9 +10491,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>364</v>
@@ -10582,9 +10590,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>364</v>
@@ -10599,12 +10607,8 @@
         <v>0</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -10685,25 +10689,29 @@
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C86" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -10784,17 +10792,17 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="27" t="s">
+      <c r="C87" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -10883,9 +10891,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>364</v>
@@ -10900,12 +10908,8 @@
         <v>0</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>319</v>
-      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -10983,12 +10987,12 @@
       <c r="CE88" s="1"/>
       <c r="CF88" s="1"/>
       <c r="CG88" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="89" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>364</v>
@@ -11007,7 +11011,7 @@
         <v>53</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -11089,9 +11093,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>364</v>
@@ -11110,7 +11114,7 @@
         <v>53</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -11192,9 +11196,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>364</v>
@@ -11209,8 +11213,12 @@
         <v>0</v>
       </c>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="G91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -11291,9 +11299,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>364</v>
@@ -11390,108 +11398,108 @@
         <v>363</v>
       </c>
     </row>
-    <row customFormat="1" r="93" s="29" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="B93" s="30" t="s">
+    <row customFormat="1" r="93" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="30"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="30"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="30"/>
-      <c r="AC93" s="30"/>
-      <c r="AD93" s="30"/>
-      <c r="AE93" s="30"/>
-      <c r="AF93" s="30"/>
-      <c r="AG93" s="30"/>
-      <c r="AH93" s="30"/>
-      <c r="AI93" s="30"/>
-      <c r="AJ93" s="30"/>
-      <c r="AK93" s="30"/>
-      <c r="AL93" s="30"/>
-      <c r="AM93" s="30"/>
-      <c r="AN93" s="30"/>
-      <c r="AO93" s="30"/>
-      <c r="AP93" s="30"/>
-      <c r="AQ93" s="30"/>
-      <c r="AR93" s="30"/>
-      <c r="AS93" s="30"/>
-      <c r="AT93" s="30"/>
-      <c r="AU93" s="30"/>
-      <c r="AV93" s="30"/>
-      <c r="AW93" s="30"/>
-      <c r="AX93" s="30"/>
-      <c r="AY93" s="30"/>
-      <c r="AZ93" s="30"/>
-      <c r="BA93" s="30"/>
-      <c r="BB93" s="30"/>
-      <c r="BC93" s="30"/>
-      <c r="BD93" s="30"/>
-      <c r="BE93" s="30"/>
-      <c r="BF93" s="30"/>
-      <c r="BG93" s="30"/>
-      <c r="BH93" s="30"/>
-      <c r="BI93" s="30"/>
-      <c r="BJ93" s="30"/>
-      <c r="BK93" s="30"/>
-      <c r="BL93" s="30"/>
-      <c r="BM93" s="30"/>
-      <c r="BN93" s="30"/>
-      <c r="BO93" s="30"/>
-      <c r="BP93" s="30"/>
-      <c r="BQ93" s="30"/>
-      <c r="BR93" s="30"/>
-      <c r="BS93" s="30"/>
-      <c r="BT93" s="30"/>
-      <c r="BU93" s="30"/>
-      <c r="BV93" s="30"/>
-      <c r="BW93" s="30"/>
-      <c r="BX93" s="30"/>
-      <c r="BY93" s="30"/>
-      <c r="BZ93" s="30"/>
-      <c r="CA93" s="30"/>
-      <c r="CB93" s="30"/>
-      <c r="CC93" s="30"/>
-      <c r="CD93" s="30"/>
-      <c r="CE93" s="30"/>
-      <c r="CF93" s="30"/>
-      <c r="CG93" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="1"/>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" t="s">
         <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="94" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>364</v>
@@ -11588,9 +11596,9 @@
         <v>365</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="95" s="29" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>364</v>
@@ -11607,9 +11615,7 @@
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
       <c r="H95" s="30"/>
-      <c r="I95" s="30" t="s">
-        <v>485</v>
-      </c>
+      <c r="I95" s="30"/>
       <c r="J95" s="30"/>
       <c r="K95" s="30"/>
       <c r="L95" s="30"/>
@@ -11671,9 +11677,7 @@
       <c r="BP95" s="30"/>
       <c r="BQ95" s="30"/>
       <c r="BR95" s="30"/>
-      <c r="BS95" s="30" t="s">
-        <v>484</v>
-      </c>
+      <c r="BS95" s="30"/>
       <c r="BT95" s="30"/>
       <c r="BU95" s="30"/>
       <c r="BV95" s="30"/>
@@ -11688,12 +11692,12 @@
       <c r="CE95" s="30"/>
       <c r="CF95" s="30"/>
       <c r="CG95" s="29" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="96" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>364</v>
@@ -11796,7 +11800,7 @@
     </row>
     <row customFormat="1" ht="30" r="97" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>364</v>
@@ -11899,7 +11903,7 @@
     </row>
     <row customFormat="1" ht="30" r="98" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>364</v>
@@ -12002,7 +12006,7 @@
     </row>
     <row customFormat="1" ht="30" r="99" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>364</v>
@@ -12105,13 +12109,13 @@
     </row>
     <row customFormat="1" ht="30" r="100" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>364</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>361</v>
@@ -12208,7 +12212,7 @@
     </row>
     <row customFormat="1" ht="30" r="101" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>364</v>
@@ -12306,18 +12310,18 @@
       <c r="CE101" s="30"/>
       <c r="CF101" s="30"/>
       <c r="CG101" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="102" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>364</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>361</v>
@@ -12331,9 +12335,7 @@
       <c r="I102" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="J102" s="30" t="s">
-        <v>375</v>
-      </c>
+      <c r="J102" s="30"/>
       <c r="K102" s="30"/>
       <c r="L102" s="30"/>
       <c r="M102" s="30"/>
@@ -12364,18 +12366,12 @@
       <c r="AL102" s="30"/>
       <c r="AM102" s="30"/>
       <c r="AN102" s="30"/>
-      <c r="AO102" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="AP102" s="30" t="s">
-        <v>488</v>
-      </c>
+      <c r="AO102" s="30"/>
+      <c r="AP102" s="30"/>
       <c r="AQ102" s="30"/>
       <c r="AR102" s="30"/>
       <c r="AS102" s="30"/>
-      <c r="AT102" s="30" t="s">
-        <v>489</v>
-      </c>
+      <c r="AT102" s="30"/>
       <c r="AU102" s="30"/>
       <c r="AV102" s="30"/>
       <c r="AW102" s="30"/>
@@ -12383,17 +12379,11 @@
       <c r="AY102" s="30"/>
       <c r="AZ102" s="30"/>
       <c r="BA102" s="30"/>
-      <c r="BB102" s="30" t="s">
-        <v>492</v>
-      </c>
+      <c r="BB102" s="30"/>
       <c r="BC102" s="30"/>
-      <c r="BD102" s="30" t="s">
-        <v>490</v>
-      </c>
+      <c r="BD102" s="30"/>
       <c r="BE102" s="30"/>
-      <c r="BF102" s="30" t="s">
-        <v>491</v>
-      </c>
+      <c r="BF102" s="30"/>
       <c r="BG102" s="30"/>
       <c r="BH102" s="30"/>
       <c r="BI102" s="30"/>
@@ -12428,7 +12418,7 @@
     </row>
     <row customFormat="1" ht="30" r="103" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>364</v>
@@ -12448,7 +12438,9 @@
       <c r="I103" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="J103" s="30"/>
+      <c r="J103" s="30" t="s">
+        <v>375</v>
+      </c>
       <c r="K103" s="30"/>
       <c r="L103" s="30"/>
       <c r="M103" s="30"/>
@@ -12479,12 +12471,18 @@
       <c r="AL103" s="30"/>
       <c r="AM103" s="30"/>
       <c r="AN103" s="30"/>
-      <c r="AO103" s="30"/>
-      <c r="AP103" s="30"/>
+      <c r="AO103" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="AP103" s="30" t="s">
+        <v>488</v>
+      </c>
       <c r="AQ103" s="30"/>
       <c r="AR103" s="30"/>
       <c r="AS103" s="30"/>
-      <c r="AT103" s="30"/>
+      <c r="AT103" s="30" t="s">
+        <v>489</v>
+      </c>
       <c r="AU103" s="30"/>
       <c r="AV103" s="30"/>
       <c r="AW103" s="30"/>
@@ -12492,11 +12490,17 @@
       <c r="AY103" s="30"/>
       <c r="AZ103" s="30"/>
       <c r="BA103" s="30"/>
-      <c r="BB103" s="30"/>
+      <c r="BB103" s="30" t="s">
+        <v>492</v>
+      </c>
       <c r="BC103" s="30"/>
-      <c r="BD103" s="30"/>
+      <c r="BD103" s="30" t="s">
+        <v>490</v>
+      </c>
       <c r="BE103" s="30"/>
-      <c r="BF103" s="30"/>
+      <c r="BF103" s="30" t="s">
+        <v>491</v>
+      </c>
       <c r="BG103" s="30"/>
       <c r="BH103" s="30"/>
       <c r="BI103" s="30"/>
@@ -12526,12 +12530,12 @@
       <c r="CE103" s="30"/>
       <c r="CF103" s="30"/>
       <c r="CG103" s="29" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="104" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>364</v>
@@ -12634,7 +12638,7 @@
     </row>
     <row customFormat="1" ht="30" r="105" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>364</v>
@@ -12735,9 +12739,9 @@
         <v>365</v>
       </c>
     </row>
-    <row customFormat="1" r="106" s="29" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="106" s="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>364</v>
@@ -12754,7 +12758,9 @@
       <c r="F106" s="30"/>
       <c r="G106" s="30"/>
       <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
+      <c r="I106" s="30" t="s">
+        <v>485</v>
+      </c>
       <c r="J106" s="30"/>
       <c r="K106" s="30"/>
       <c r="L106" s="30"/>
@@ -12816,7 +12822,9 @@
       <c r="BP106" s="30"/>
       <c r="BQ106" s="30"/>
       <c r="BR106" s="30"/>
-      <c r="BS106" s="30"/>
+      <c r="BS106" s="30" t="s">
+        <v>484</v>
+      </c>
       <c r="BT106" s="30"/>
       <c r="BU106" s="30"/>
       <c r="BV106" s="30"/>
@@ -12831,107 +12839,111 @@
       <c r="CE106" s="30"/>
       <c r="CF106" s="30"/>
       <c r="CG106" s="29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row customFormat="1" r="107" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="107" s="29" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="30"/>
+      <c r="R107" s="30"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="30"/>
+      <c r="U107" s="30"/>
+      <c r="V107" s="30"/>
+      <c r="W107" s="30"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
+      <c r="AE107" s="30"/>
+      <c r="AF107" s="30"/>
+      <c r="AG107" s="30"/>
+      <c r="AH107" s="30"/>
+      <c r="AI107" s="30"/>
+      <c r="AJ107" s="30"/>
+      <c r="AK107" s="30"/>
+      <c r="AL107" s="30"/>
+      <c r="AM107" s="30"/>
+      <c r="AN107" s="30"/>
+      <c r="AO107" s="30"/>
+      <c r="AP107" s="30"/>
+      <c r="AQ107" s="30"/>
+      <c r="AR107" s="30"/>
+      <c r="AS107" s="30"/>
+      <c r="AT107" s="30"/>
+      <c r="AU107" s="30"/>
+      <c r="AV107" s="30"/>
+      <c r="AW107" s="30"/>
+      <c r="AX107" s="30"/>
+      <c r="AY107" s="30"/>
+      <c r="AZ107" s="30"/>
+      <c r="BA107" s="30"/>
+      <c r="BB107" s="30"/>
+      <c r="BC107" s="30"/>
+      <c r="BD107" s="30"/>
+      <c r="BE107" s="30"/>
+      <c r="BF107" s="30"/>
+      <c r="BG107" s="30"/>
+      <c r="BH107" s="30"/>
+      <c r="BI107" s="30"/>
+      <c r="BJ107" s="30"/>
+      <c r="BK107" s="30"/>
+      <c r="BL107" s="30"/>
+      <c r="BM107" s="30"/>
+      <c r="BN107" s="30"/>
+      <c r="BO107" s="30"/>
+      <c r="BP107" s="30"/>
+      <c r="BQ107" s="30"/>
+      <c r="BR107" s="30"/>
+      <c r="BS107" s="30"/>
+      <c r="BT107" s="30"/>
+      <c r="BU107" s="30"/>
+      <c r="BV107" s="30"/>
+      <c r="BW107" s="30"/>
+      <c r="BX107" s="30"/>
+      <c r="BY107" s="30"/>
+      <c r="BZ107" s="30"/>
+      <c r="CA107" s="30"/>
+      <c r="CB107" s="30"/>
+      <c r="CC107" s="30"/>
+      <c r="CD107" s="30"/>
+      <c r="CE107" s="30"/>
+      <c r="CF107" s="30"/>
+      <c r="CG107" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="108" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-      <c r="Y107" s="1"/>
-      <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
-      <c r="AD107" s="1"/>
-      <c r="AE107" s="1"/>
-      <c r="AF107" s="1"/>
-      <c r="AG107" s="1"/>
-      <c r="AH107" s="1"/>
-      <c r="AI107" s="1"/>
-      <c r="AJ107" s="1"/>
-      <c r="AK107" s="1"/>
-      <c r="AL107" s="1"/>
-      <c r="AM107" s="1"/>
-      <c r="AO107" s="1"/>
-      <c r="AP107" s="1"/>
-      <c r="AQ107" s="1"/>
-      <c r="AR107" s="1"/>
-      <c r="AS107" s="1"/>
-      <c r="AT107" s="1"/>
-      <c r="AU107" s="1"/>
-      <c r="AV107" s="1"/>
-      <c r="AW107" s="1"/>
-      <c r="BA107" s="1"/>
-      <c r="BB107" s="1"/>
-      <c r="BC107" s="1"/>
-      <c r="BD107" s="1"/>
-      <c r="BE107" s="1"/>
-      <c r="BF107" s="1"/>
-      <c r="BG107" s="1"/>
-      <c r="BH107" s="1"/>
-      <c r="BI107" s="1"/>
-      <c r="BJ107" s="1"/>
-      <c r="BK107" s="1"/>
-      <c r="BL107" s="1"/>
-      <c r="BM107" s="1"/>
-      <c r="BN107" s="1"/>
-      <c r="BO107" s="1"/>
-      <c r="BP107" s="1"/>
-      <c r="BQ107" s="1"/>
-      <c r="BR107" s="1"/>
-      <c r="BS107" s="1"/>
-      <c r="BT107" s="1"/>
-      <c r="BU107" s="1"/>
-      <c r="BV107" s="1"/>
-      <c r="BW107" s="1"/>
-      <c r="BX107" s="1"/>
-      <c r="BY107" s="1"/>
-      <c r="BZ107" s="1"/>
-      <c r="CA107" s="1"/>
-      <c r="CB107" s="1"/>
-      <c r="CC107" s="1"/>
-      <c r="CD107" s="1"/>
-      <c r="CE107" s="1"/>
-      <c r="CF107" s="1"/>
-      <c r="CG107" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="30" r="108" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>364</v>
@@ -12979,13 +12991,8 @@
       <c r="AK108" s="1"/>
       <c r="AL108" s="1"/>
       <c r="AM108" s="1"/>
-      <c r="AN108" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="AO108" s="1"/>
-      <c r="AP108" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP108" s="1"/>
       <c r="AQ108" s="1"/>
       <c r="AR108" s="1"/>
       <c r="AS108" s="1"/>
@@ -12993,9 +13000,6 @@
       <c r="AU108" s="1"/>
       <c r="AV108" s="1"/>
       <c r="AW108" s="1"/>
-      <c r="AX108" s="1"/>
-      <c r="AY108" s="1"/>
-      <c r="AZ108" s="1"/>
       <c r="BA108" s="1"/>
       <c r="BB108" s="1"/>
       <c r="BC108" s="1"/>
@@ -13023,9 +13027,7 @@
       <c r="BY108" s="1"/>
       <c r="BZ108" s="1"/>
       <c r="CA108" s="1"/>
-      <c r="CB108" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="CB108" s="1"/>
       <c r="CC108" s="1"/>
       <c r="CD108" s="1"/>
       <c r="CE108" s="1"/>
@@ -13034,9 +13036,9 @@
         <v>365</v>
       </c>
     </row>
-    <row customFormat="1" r="109" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="109" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>364</v>
@@ -13054,27 +13056,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K109" t="s">
-        <v>377</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -13098,9 +13086,13 @@
       <c r="AK109" s="1"/>
       <c r="AL109" s="1"/>
       <c r="AM109" s="1"/>
-      <c r="AN109" s="1"/>
+      <c r="AN109" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="AO109" s="1"/>
-      <c r="AP109" s="1"/>
+      <c r="AP109" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ109" s="1"/>
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
@@ -13138,7 +13130,9 @@
       <c r="BY109" s="1"/>
       <c r="BZ109" s="1"/>
       <c r="CA109" s="1"/>
-      <c r="CB109" s="1"/>
+      <c r="CB109" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="CC109" s="1"/>
       <c r="CD109" s="1"/>
       <c r="CE109" s="1"/>
@@ -13148,8 +13142,8 @@
       </c>
     </row>
     <row customFormat="1" r="110" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>98</v>
+      <c r="A110" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>364</v>
@@ -13167,7 +13161,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="2" t="s">
+      <c r="J110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K110" t="s">
@@ -13176,7 +13170,7 @@
       <c r="L110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="N110" s="1" t="s">
@@ -13211,15 +13205,11 @@
       <c r="AK110" s="1"/>
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
-      <c r="AN110" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="AN110" s="1"/>
       <c r="AO110" s="1"/>
       <c r="AP110" s="1"/>
       <c r="AQ110" s="1"/>
-      <c r="AR110" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="AR110" s="1"/>
       <c r="AS110" s="1"/>
       <c r="AT110" s="1"/>
       <c r="AU110" s="1"/>
@@ -13264,9 +13254,9 @@
         <v>365</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="111" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>364</v>
@@ -13321,32 +13311,22 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
-      <c r="AG111" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH111" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI111" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK111" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL111" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AO111" s="1"/>
       <c r="AP111" s="1"/>
       <c r="AQ111" s="1"/>
-      <c r="AR111" s="1"/>
+      <c r="AR111" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="AS111" s="1"/>
       <c r="AT111" s="1"/>
       <c r="AU111" s="1"/>
@@ -13382,9 +13362,7 @@
       <c r="BY111" s="1"/>
       <c r="BZ111" s="1"/>
       <c r="CA111" s="1"/>
-      <c r="CB111" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="CB111" s="1"/>
       <c r="CC111" s="1"/>
       <c r="CD111" s="1"/>
       <c r="CE111" s="1"/>
@@ -13395,7 +13373,7 @@
     </row>
     <row customFormat="1" ht="30" r="112" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>364</v>
@@ -13450,13 +13428,27 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
-      <c r="AG112" s="1"/>
-      <c r="AH112" s="1"/>
-      <c r="AI112" s="1"/>
-      <c r="AJ112" s="1"/>
-      <c r="AK112" s="1"/>
-      <c r="AL112" s="1"/>
-      <c r="AM112" s="1"/>
+      <c r="AG112" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH112" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI112" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL112" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM112" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN112" s="1"/>
       <c r="AO112" s="1"/>
       <c r="AP112" s="1"/>
@@ -13498,7 +13490,7 @@
       <c r="BZ112" s="1"/>
       <c r="CA112" s="1"/>
       <c r="CB112" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CC112" s="1"/>
       <c r="CD112" s="1"/>
@@ -13508,9 +13500,9 @@
         <v>365</v>
       </c>
     </row>
-    <row customFormat="1" r="113" spans="1:85" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="113" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>364</v>
@@ -13565,27 +13557,13 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
-      <c r="AG113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH113" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK113" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL113" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM113" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
       <c r="AN113" s="1"/>
       <c r="AO113" s="1"/>
       <c r="AP113" s="1"/>
@@ -13626,7 +13604,9 @@
       <c r="BY113" s="1"/>
       <c r="BZ113" s="1"/>
       <c r="CA113" s="1"/>
-      <c r="CB113" s="1"/>
+      <c r="CB113" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="CC113" s="1"/>
       <c r="CD113" s="1"/>
       <c r="CE113" s="1"/>
@@ -13637,7 +13617,7 @@
     </row>
     <row customFormat="1" r="114" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>364</v>
@@ -13763,26 +13743,46 @@
       </c>
     </row>
     <row customFormat="1" r="115" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>238</v>
+      <c r="A115" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="C115" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="J115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" t="s">
+        <v>377</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -13799,13 +13799,27 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
-      <c r="AG115" s="1"/>
-      <c r="AH115" s="1"/>
-      <c r="AI115" s="1"/>
-      <c r="AJ115" s="1"/>
-      <c r="AK115" s="1"/>
-      <c r="AL115" s="1"/>
-      <c r="AM115" s="1"/>
+      <c r="AG115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL115" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM115" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
       <c r="AP115" s="1"/>
@@ -13851,27 +13865,23 @@
       <c r="CD115" s="1"/>
       <c r="CE115" s="1"/>
       <c r="CF115" s="1"/>
-      <c r="CG115" s="1"/>
+      <c r="CG115" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row customFormat="1" r="116" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>105</v>
+      <c r="A116" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>324</v>
-      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -13948,18 +13958,18 @@
       <c r="CD116" s="1"/>
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
-      <c r="CG116" t="s">
-        <v>365</v>
-      </c>
+      <c r="CG116" s="1"/>
     </row>
     <row customFormat="1" r="117" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -14049,205 +14059,205 @@
         <v>365</v>
       </c>
     </row>
-    <row customFormat="1" r="118" s="29" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
+    <row customFormat="1" r="118" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
+      <c r="AN118" s="1"/>
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+      <c r="AS118" s="1"/>
+      <c r="AT118" s="1"/>
+      <c r="AU118" s="1"/>
+      <c r="AV118" s="1"/>
+      <c r="AW118" s="1"/>
+      <c r="AX118" s="1"/>
+      <c r="AY118" s="1"/>
+      <c r="AZ118" s="1"/>
+      <c r="BA118" s="1"/>
+      <c r="BB118" s="1"/>
+      <c r="BC118" s="1"/>
+      <c r="BD118" s="1"/>
+      <c r="BE118" s="1"/>
+      <c r="BF118" s="1"/>
+      <c r="BG118" s="1"/>
+      <c r="BH118" s="1"/>
+      <c r="BI118" s="1"/>
+      <c r="BJ118" s="1"/>
+      <c r="BK118" s="1"/>
+      <c r="BL118" s="1"/>
+      <c r="BM118" s="1"/>
+      <c r="BN118" s="1"/>
+      <c r="BO118" s="1"/>
+      <c r="BP118" s="1"/>
+      <c r="BQ118" s="1"/>
+      <c r="BR118" s="1"/>
+      <c r="BS118" s="1"/>
+      <c r="BT118" s="1"/>
+      <c r="BU118" s="1"/>
+      <c r="BV118" s="1"/>
+      <c r="BW118" s="1"/>
+      <c r="BX118" s="1"/>
+      <c r="BY118" s="1"/>
+      <c r="BZ118" s="1"/>
+      <c r="CA118" s="1"/>
+      <c r="CB118" s="1"/>
+      <c r="CC118" s="1"/>
+      <c r="CD118" s="1"/>
+      <c r="CE118" s="1"/>
+      <c r="CF118" s="1"/>
+      <c r="CG118" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" r="119" s="29" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A119" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B119" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="31" t="s">
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="H118" s="32" t="s">
+      <c r="H119" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="I118" s="30"/>
-      <c r="J118" s="30"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="30"/>
-      <c r="M118" s="30"/>
-      <c r="N118" s="30"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="30"/>
-      <c r="Q118" s="30"/>
-      <c r="R118" s="30"/>
-      <c r="S118" s="30"/>
-      <c r="T118" s="30"/>
-      <c r="U118" s="30"/>
-      <c r="V118" s="30"/>
-      <c r="W118" s="30"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
-      <c r="AA118" s="30"/>
-      <c r="AB118" s="30"/>
-      <c r="AC118" s="30"/>
-      <c r="AD118" s="30"/>
-      <c r="AE118" s="30" t="s">
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
+      <c r="M119" s="30"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="30"/>
+      <c r="P119" s="30"/>
+      <c r="Q119" s="30"/>
+      <c r="R119" s="30"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="30"/>
+      <c r="U119" s="30"/>
+      <c r="V119" s="30"/>
+      <c r="W119" s="30"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="30"/>
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="30"/>
+      <c r="AC119" s="30"/>
+      <c r="AD119" s="30"/>
+      <c r="AE119" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="AF118" s="30"/>
-      <c r="AG118" s="30"/>
-      <c r="AH118" s="30"/>
-      <c r="AI118" s="30"/>
-      <c r="AJ118" s="30"/>
-      <c r="AK118" s="30"/>
-      <c r="AL118" s="30"/>
-      <c r="AM118" s="30"/>
-      <c r="AN118" s="30"/>
-      <c r="AO118" s="30"/>
-      <c r="AP118" s="30"/>
-      <c r="AQ118" s="30"/>
-      <c r="AR118" s="30"/>
-      <c r="AS118" s="30"/>
-      <c r="AT118" s="30"/>
-      <c r="AU118" s="30"/>
-      <c r="AV118" s="30"/>
-      <c r="AW118" s="30"/>
-      <c r="AX118" s="30"/>
-      <c r="AY118" s="30"/>
-      <c r="AZ118" s="30"/>
-      <c r="BA118" s="30"/>
-      <c r="BB118" s="30"/>
-      <c r="BC118" s="30"/>
-      <c r="BD118" s="30"/>
-      <c r="BE118" s="30"/>
-      <c r="BF118" s="30"/>
-      <c r="BG118" s="30"/>
-      <c r="BH118" s="30"/>
-      <c r="BI118" s="30"/>
-      <c r="BJ118" s="30"/>
-      <c r="BK118" s="30"/>
-      <c r="BL118" s="30"/>
-      <c r="BM118" s="30"/>
-      <c r="BN118" s="30"/>
-      <c r="BO118" s="30"/>
-      <c r="BP118" s="30"/>
-      <c r="BQ118" s="30"/>
-      <c r="BR118" s="30"/>
-      <c r="BS118" s="30"/>
-      <c r="BT118" s="30"/>
-      <c r="BU118" s="30"/>
-      <c r="BV118" s="30"/>
-      <c r="BW118" s="30"/>
-      <c r="BX118" s="30"/>
-      <c r="BY118" s="30"/>
-      <c r="BZ118" s="30"/>
-      <c r="CA118" s="30"/>
-      <c r="CB118" s="30"/>
-      <c r="CC118" s="30"/>
-      <c r="CD118" s="30"/>
-      <c r="CE118" s="30"/>
-      <c r="CF118" s="30"/>
-      <c r="CG118" s="29" t="s">
+      <c r="AF119" s="30"/>
+      <c r="AG119" s="30"/>
+      <c r="AH119" s="30"/>
+      <c r="AI119" s="30"/>
+      <c r="AJ119" s="30"/>
+      <c r="AK119" s="30"/>
+      <c r="AL119" s="30"/>
+      <c r="AM119" s="30"/>
+      <c r="AN119" s="30"/>
+      <c r="AO119" s="30"/>
+      <c r="AP119" s="30"/>
+      <c r="AQ119" s="30"/>
+      <c r="AR119" s="30"/>
+      <c r="AS119" s="30"/>
+      <c r="AT119" s="30"/>
+      <c r="AU119" s="30"/>
+      <c r="AV119" s="30"/>
+      <c r="AW119" s="30"/>
+      <c r="AX119" s="30"/>
+      <c r="AY119" s="30"/>
+      <c r="AZ119" s="30"/>
+      <c r="BA119" s="30"/>
+      <c r="BB119" s="30"/>
+      <c r="BC119" s="30"/>
+      <c r="BD119" s="30"/>
+      <c r="BE119" s="30"/>
+      <c r="BF119" s="30"/>
+      <c r="BG119" s="30"/>
+      <c r="BH119" s="30"/>
+      <c r="BI119" s="30"/>
+      <c r="BJ119" s="30"/>
+      <c r="BK119" s="30"/>
+      <c r="BL119" s="30"/>
+      <c r="BM119" s="30"/>
+      <c r="BN119" s="30"/>
+      <c r="BO119" s="30"/>
+      <c r="BP119" s="30"/>
+      <c r="BQ119" s="30"/>
+      <c r="BR119" s="30"/>
+      <c r="BS119" s="30"/>
+      <c r="BT119" s="30"/>
+      <c r="BU119" s="30"/>
+      <c r="BV119" s="30"/>
+      <c r="BW119" s="30"/>
+      <c r="BX119" s="30"/>
+      <c r="BY119" s="30"/>
+      <c r="BZ119" s="30"/>
+      <c r="CA119" s="30"/>
+      <c r="CB119" s="30"/>
+      <c r="CC119" s="30"/>
+      <c r="CD119" s="30"/>
+      <c r="CE119" s="30"/>
+      <c r="CF119" s="30"/>
+      <c r="CG119" s="29" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row customFormat="1" r="119" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
-      <c r="Y119" s="1"/>
-      <c r="Z119" s="1"/>
-      <c r="AA119" s="1"/>
-      <c r="AB119" s="1"/>
-      <c r="AC119" s="1"/>
-      <c r="AD119" s="1"/>
-      <c r="AE119" s="1"/>
-      <c r="AF119" s="1"/>
-      <c r="AG119" s="1"/>
-      <c r="AH119" s="1"/>
-      <c r="AI119" s="1"/>
-      <c r="AJ119" s="1"/>
-      <c r="AK119" s="1"/>
-      <c r="AL119" s="1"/>
-      <c r="AM119" s="1"/>
-      <c r="AN119" s="1"/>
-      <c r="AO119" s="1"/>
-      <c r="AP119" s="1"/>
-      <c r="AQ119" s="1"/>
-      <c r="AR119" s="1"/>
-      <c r="AS119" s="1"/>
-      <c r="AT119" s="1"/>
-      <c r="AU119" s="1"/>
-      <c r="AV119" s="1"/>
-      <c r="AW119" s="1"/>
-      <c r="AX119" s="1"/>
-      <c r="AY119" s="1"/>
-      <c r="AZ119" s="1"/>
-      <c r="BA119" s="1"/>
-      <c r="BB119" s="1"/>
-      <c r="BC119" s="1"/>
-      <c r="BD119" s="1"/>
-      <c r="BE119" s="1"/>
-      <c r="BF119" s="1"/>
-      <c r="BG119" s="1"/>
-      <c r="BH119" s="1"/>
-      <c r="BI119" s="1"/>
-      <c r="BJ119" s="1"/>
-      <c r="BK119" s="1"/>
-      <c r="BL119" s="1"/>
-      <c r="BM119" s="1"/>
-      <c r="BN119" s="1"/>
-      <c r="BO119" s="1"/>
-      <c r="BP119" s="1"/>
-      <c r="BQ119" s="1"/>
-      <c r="BR119" s="1"/>
-      <c r="BS119" s="1"/>
-      <c r="BT119" s="1"/>
-      <c r="BU119" s="1"/>
-      <c r="BV119" s="1"/>
-      <c r="BW119" s="1"/>
-      <c r="BX119" s="1"/>
-      <c r="BY119" s="1"/>
-      <c r="BZ119" s="1"/>
-      <c r="CA119" s="1"/>
-      <c r="CB119" s="1"/>
-      <c r="CC119" s="1"/>
-      <c r="CD119" s="1"/>
-      <c r="CE119" s="1"/>
-      <c r="CF119" s="1"/>
-      <c r="CG119" t="s">
-        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>364</v>
@@ -14344,7 +14354,7 @@
     </row>
     <row customFormat="1" r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>364</v>
@@ -14366,9 +14376,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
-      <c r="P121" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -14438,12 +14446,12 @@
       <c r="CE121" s="1"/>
       <c r="CF121" s="1"/>
       <c r="CG121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>364</v>
@@ -14453,10 +14461,10 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="2" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -14465,7 +14473,9 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
+      <c r="P122" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -14540,7 +14550,7 @@
     </row>
     <row customFormat="1" r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>364</v>
@@ -14550,10 +14560,10 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="2" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -14562,9 +14572,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="P123" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -14582,9 +14590,7 @@
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
-      <c r="AH123" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="AH123" s="1"/>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
       <c r="AK123" s="1"/>
@@ -14636,22 +14642,18 @@
       <c r="CE123" s="1"/>
       <c r="CF123" s="1"/>
       <c r="CG123" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C124" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D124" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="2" t="s">
@@ -14667,7 +14669,9 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
+      <c r="P124" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
@@ -14685,7 +14689,9 @@
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
-      <c r="AH124" s="1"/>
+      <c r="AH124" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
       <c r="AK124" s="1"/>
@@ -14742,20 +14748,24 @@
     </row>
     <row customFormat="1" r="125" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="C125" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="2" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -14839,7 +14849,7 @@
     </row>
     <row customFormat="1" r="126" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>364</v>
@@ -14849,10 +14859,10 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="2" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -14936,7 +14946,7 @@
     </row>
     <row customFormat="1" r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>364</v>
@@ -15028,22 +15038,18 @@
       <c r="CE127" s="1"/>
       <c r="CF127" s="1"/>
       <c r="CG127" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C128" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="2" t="s">
@@ -15134,7 +15140,7 @@
     </row>
     <row customFormat="1" r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>364</v>
@@ -15235,7 +15241,7 @@
     </row>
     <row customFormat="1" r="130" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>364</v>
@@ -15315,34 +15321,28 @@
       <c r="BO130" s="1"/>
       <c r="BP130" s="1"/>
       <c r="BQ130" s="1"/>
-      <c r="BR130" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS130" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="BR130" s="1"/>
+      <c r="BS130" s="1"/>
       <c r="BT130" s="1"/>
       <c r="BU130" s="1"/>
       <c r="BV130" s="1"/>
-      <c r="BW130" s="12"/>
-      <c r="BX130" s="12"/>
-      <c r="BY130" s="12"/>
-      <c r="BZ130" s="12"/>
-      <c r="CA130" s="12"/>
-      <c r="CB130" t="s">
-        <v>310</v>
-      </c>
+      <c r="BW130" s="1"/>
+      <c r="BX130" s="1"/>
+      <c r="BY130" s="1"/>
+      <c r="BZ130" s="1"/>
+      <c r="CA130" s="1"/>
+      <c r="CB130" s="1"/>
       <c r="CC130" s="1"/>
       <c r="CD130" s="1"/>
       <c r="CE130" s="1"/>
       <c r="CF130" s="1"/>
       <c r="CG130" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="131" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>239</v>
+      <c r="A131" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>364</v>
@@ -15355,8 +15355,12 @@
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
+      <c r="G131" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -15418,26 +15422,34 @@
       <c r="BO131" s="1"/>
       <c r="BP131" s="1"/>
       <c r="BQ131" s="1"/>
-      <c r="BR131" s="1"/>
-      <c r="BS131" s="1"/>
+      <c r="BR131" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS131" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="BT131" s="1"/>
       <c r="BU131" s="1"/>
       <c r="BV131" s="1"/>
-      <c r="BW131" s="1"/>
-      <c r="BX131" s="1"/>
-      <c r="BY131" s="1"/>
-      <c r="BZ131" s="1"/>
-      <c r="CA131" s="1"/>
-      <c r="CB131" s="1"/>
+      <c r="BW131" s="12"/>
+      <c r="BX131" s="12"/>
+      <c r="BY131" s="12"/>
+      <c r="BZ131" s="12"/>
+      <c r="CA131" s="12"/>
+      <c r="CB131" t="s">
+        <v>310</v>
+      </c>
       <c r="CC131" s="1"/>
       <c r="CD131" s="1"/>
       <c r="CE131" s="1"/>
       <c r="CF131" s="1"/>
-      <c r="CG131" s="1"/>
+      <c r="CG131" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row customFormat="1" r="132" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>121</v>
+      <c r="A132" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>364</v>
@@ -15450,12 +15462,8 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>324</v>
-      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -15532,13 +15540,11 @@
       <c r="CD132" s="1"/>
       <c r="CE132" s="1"/>
       <c r="CF132" s="1"/>
-      <c r="CG132" t="s">
-        <v>365</v>
-      </c>
+      <c r="CG132" s="1"/>
     </row>
     <row customFormat="1" r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>364</v>
@@ -15558,25 +15564,13 @@
         <v>324</v>
       </c>
       <c r="I133" s="1"/>
-      <c r="J133" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K133" t="s">
-        <v>1</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
       <c r="O133" s="1"/>
-      <c r="P133" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
@@ -15650,10 +15644,10 @@
       </c>
     </row>
     <row customFormat="1" r="134" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A134" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="B134" s="30" t="s">
+      <c r="A134" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -15662,111 +15656,111 @@
       <c r="D134" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="H134" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I134" s="30"/>
-      <c r="J134" s="31" t="s">
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K134" s="29" t="s">
+      <c r="K134" t="s">
         <v>1</v>
       </c>
-      <c r="L134" s="30" t="s">
+      <c r="L134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M134" s="31" t="s">
+      <c r="M134" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N134" s="30" t="s">
+      <c r="N134" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="O134" s="30"/>
-      <c r="P134" s="30" t="s">
+      <c r="O134" s="1"/>
+      <c r="P134" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q134" s="30"/>
-      <c r="R134" s="30"/>
-      <c r="S134" s="30"/>
-      <c r="T134" s="30"/>
-      <c r="U134" s="30"/>
-      <c r="V134" s="30"/>
-      <c r="W134" s="30"/>
-      <c r="X134" s="30"/>
-      <c r="Y134" s="30"/>
-      <c r="Z134" s="30"/>
-      <c r="AA134" s="30"/>
-      <c r="AB134" s="30"/>
-      <c r="AC134" s="30"/>
-      <c r="AD134" s="30"/>
-      <c r="AE134" s="30"/>
-      <c r="AF134" s="30"/>
-      <c r="AG134" s="30"/>
-      <c r="AH134" s="30"/>
-      <c r="AI134" s="30"/>
-      <c r="AJ134" s="30"/>
-      <c r="AK134" s="30"/>
-      <c r="AL134" s="30"/>
-      <c r="AM134" s="30"/>
-      <c r="AN134" s="30"/>
-      <c r="AO134" s="30"/>
-      <c r="AP134" s="30"/>
-      <c r="AQ134" s="30"/>
-      <c r="AR134" s="30"/>
-      <c r="AS134" s="30"/>
-      <c r="AT134" s="30"/>
-      <c r="AU134" s="30"/>
-      <c r="AV134" s="30"/>
-      <c r="AW134" s="30"/>
-      <c r="AX134" s="30"/>
-      <c r="AY134" s="30"/>
-      <c r="AZ134" s="30"/>
-      <c r="BA134" s="30"/>
-      <c r="BB134" s="30"/>
-      <c r="BC134" s="30"/>
-      <c r="BD134" s="30"/>
-      <c r="BE134" s="30"/>
-      <c r="BF134" s="30"/>
-      <c r="BG134" s="30"/>
-      <c r="BH134" s="30"/>
-      <c r="BI134" s="30"/>
-      <c r="BJ134" s="30"/>
-      <c r="BK134" s="30"/>
-      <c r="BL134" s="30"/>
-      <c r="BM134" s="30"/>
-      <c r="BN134" s="30"/>
-      <c r="BO134" s="30"/>
-      <c r="BP134" s="30"/>
-      <c r="BQ134" s="30"/>
-      <c r="BR134" s="30"/>
-      <c r="BS134" s="30"/>
-      <c r="BT134" s="30"/>
-      <c r="BU134" s="30"/>
-      <c r="BV134" s="30"/>
-      <c r="BW134" s="30"/>
-      <c r="BX134" s="30"/>
-      <c r="BY134" s="30"/>
-      <c r="BZ134" s="30"/>
-      <c r="CA134" s="30"/>
-      <c r="CB134" s="30"/>
-      <c r="CC134" s="30"/>
-      <c r="CD134" s="30"/>
-      <c r="CE134" s="30"/>
-      <c r="CF134" s="30"/>
-      <c r="CG134" s="29" t="s">
-        <v>363</v>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="1"/>
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
+      <c r="AN134" s="1"/>
+      <c r="AO134" s="1"/>
+      <c r="AP134" s="1"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="1"/>
+      <c r="AT134" s="1"/>
+      <c r="AU134" s="1"/>
+      <c r="AV134" s="1"/>
+      <c r="AW134" s="1"/>
+      <c r="AX134" s="1"/>
+      <c r="AY134" s="1"/>
+      <c r="AZ134" s="1"/>
+      <c r="BA134" s="1"/>
+      <c r="BB134" s="1"/>
+      <c r="BC134" s="1"/>
+      <c r="BD134" s="1"/>
+      <c r="BE134" s="1"/>
+      <c r="BF134" s="1"/>
+      <c r="BG134" s="1"/>
+      <c r="BH134" s="1"/>
+      <c r="BI134" s="1"/>
+      <c r="BJ134" s="1"/>
+      <c r="BK134" s="1"/>
+      <c r="BL134" s="1"/>
+      <c r="BM134" s="1"/>
+      <c r="BN134" s="1"/>
+      <c r="BO134" s="1"/>
+      <c r="BP134" s="1"/>
+      <c r="BQ134" s="1"/>
+      <c r="BR134" s="1"/>
+      <c r="BS134" s="1"/>
+      <c r="BT134" s="1"/>
+      <c r="BU134" s="1"/>
+      <c r="BV134" s="1"/>
+      <c r="BW134" s="1"/>
+      <c r="BX134" s="1"/>
+      <c r="BY134" s="1"/>
+      <c r="BZ134" s="1"/>
+      <c r="CA134" s="1"/>
+      <c r="CB134" s="1"/>
+      <c r="CC134" s="1"/>
+      <c r="CD134" s="1"/>
+      <c r="CE134" s="1"/>
+      <c r="CF134" s="1"/>
+      <c r="CG134" t="s">
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="135" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="A135" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="B135" s="30" t="s">
         <v>364</v>
       </c>
       <c r="C135" s="28" t="s">
@@ -15775,118 +15769,109 @@
       <c r="D135" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I135" s="1"/>
-      <c r="J135" s="2" t="s">
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="H135" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I135" s="30"/>
+      <c r="J135" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L135" s="1" t="s">
+      <c r="L135" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N135" s="1" t="s">
+      <c r="N135" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1" t="s">
+      <c r="O135" s="30"/>
+      <c r="P135" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="V135" s="1"/>
-      <c r="W135" s="1"/>
-      <c r="X135" s="1"/>
-      <c r="Y135" s="1"/>
-      <c r="Z135" s="1"/>
-      <c r="AA135" s="1"/>
-      <c r="AB135" s="1"/>
-      <c r="AC135" s="1"/>
-      <c r="AD135" s="1"/>
-      <c r="AE135" s="1"/>
-      <c r="AF135" s="1"/>
-      <c r="AG135" s="1"/>
-      <c r="AH135" s="1"/>
-      <c r="AI135" s="1"/>
-      <c r="AJ135" s="1"/>
-      <c r="AK135" s="1"/>
-      <c r="AL135" s="1"/>
-      <c r="AM135" s="1"/>
-      <c r="AN135" s="1"/>
-      <c r="AO135" s="1"/>
-      <c r="AP135" s="1"/>
-      <c r="AQ135" s="1"/>
-      <c r="AR135" s="1"/>
-      <c r="AS135" s="1"/>
-      <c r="AT135" s="1"/>
-      <c r="AU135" s="1"/>
-      <c r="AV135" s="1"/>
-      <c r="AW135" s="1"/>
-      <c r="AX135" s="1"/>
-      <c r="AY135" s="1"/>
-      <c r="AZ135" s="1"/>
-      <c r="BA135" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB135" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD135" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE135" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF135" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG135" s="1"/>
-      <c r="BH135" s="1"/>
-      <c r="BI135" s="1"/>
-      <c r="BJ135" s="1"/>
-      <c r="BK135" s="1"/>
-      <c r="BL135" s="1"/>
-      <c r="BM135" s="1"/>
-      <c r="BN135" s="1"/>
-      <c r="BO135" s="1"/>
-      <c r="BP135" s="1"/>
-      <c r="BQ135" s="1"/>
-      <c r="BR135" s="1"/>
-      <c r="BS135" s="1"/>
-      <c r="BT135" s="1"/>
-      <c r="BU135" s="1"/>
-      <c r="BV135" s="1"/>
-      <c r="BW135" s="1"/>
-      <c r="BX135" s="1"/>
-      <c r="BY135" s="1"/>
-      <c r="BZ135" s="1"/>
-      <c r="CA135" s="1"/>
-      <c r="CB135" s="1"/>
-      <c r="CC135" s="1"/>
-      <c r="CD135" s="1"/>
-      <c r="CE135" s="1"/>
-      <c r="CF135" s="1"/>
-      <c r="CG135" t="s">
+      <c r="Q135" s="30"/>
+      <c r="R135" s="30"/>
+      <c r="S135" s="30"/>
+      <c r="T135" s="30"/>
+      <c r="U135" s="30"/>
+      <c r="V135" s="30"/>
+      <c r="W135" s="30"/>
+      <c r="X135" s="30"/>
+      <c r="Y135" s="30"/>
+      <c r="Z135" s="30"/>
+      <c r="AA135" s="30"/>
+      <c r="AB135" s="30"/>
+      <c r="AC135" s="30"/>
+      <c r="AD135" s="30"/>
+      <c r="AE135" s="30"/>
+      <c r="AF135" s="30"/>
+      <c r="AG135" s="30"/>
+      <c r="AH135" s="30"/>
+      <c r="AI135" s="30"/>
+      <c r="AJ135" s="30"/>
+      <c r="AK135" s="30"/>
+      <c r="AL135" s="30"/>
+      <c r="AM135" s="30"/>
+      <c r="AN135" s="30"/>
+      <c r="AO135" s="30"/>
+      <c r="AP135" s="30"/>
+      <c r="AQ135" s="30"/>
+      <c r="AR135" s="30"/>
+      <c r="AS135" s="30"/>
+      <c r="AT135" s="30"/>
+      <c r="AU135" s="30"/>
+      <c r="AV135" s="30"/>
+      <c r="AW135" s="30"/>
+      <c r="AX135" s="30"/>
+      <c r="AY135" s="30"/>
+      <c r="AZ135" s="30"/>
+      <c r="BA135" s="30"/>
+      <c r="BB135" s="30"/>
+      <c r="BC135" s="30"/>
+      <c r="BD135" s="30"/>
+      <c r="BE135" s="30"/>
+      <c r="BF135" s="30"/>
+      <c r="BG135" s="30"/>
+      <c r="BH135" s="30"/>
+      <c r="BI135" s="30"/>
+      <c r="BJ135" s="30"/>
+      <c r="BK135" s="30"/>
+      <c r="BL135" s="30"/>
+      <c r="BM135" s="30"/>
+      <c r="BN135" s="30"/>
+      <c r="BO135" s="30"/>
+      <c r="BP135" s="30"/>
+      <c r="BQ135" s="30"/>
+      <c r="BR135" s="30"/>
+      <c r="BS135" s="30"/>
+      <c r="BT135" s="30"/>
+      <c r="BU135" s="30"/>
+      <c r="BV135" s="30"/>
+      <c r="BW135" s="30"/>
+      <c r="BX135" s="30"/>
+      <c r="BY135" s="30"/>
+      <c r="BZ135" s="30"/>
+      <c r="CA135" s="30"/>
+      <c r="CB135" s="30"/>
+      <c r="CC135" s="30"/>
+      <c r="CD135" s="30"/>
+      <c r="CE135" s="30"/>
+      <c r="CF135" s="30"/>
+      <c r="CG135" s="29" t="s">
         <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>364</v>
@@ -15962,18 +15947,21 @@
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
       <c r="BA136" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB136" s="1"/>
-      <c r="BC136" s="1"/>
-      <c r="BD136" s="1"/>
-      <c r="BE136" s="1"/>
-      <c r="BF136" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG136" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="BB136" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE136" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
       <c r="BI136" s="1"/>
       <c r="BJ136" s="1"/>
@@ -16000,12 +15988,12 @@
       <c r="CE136" s="1"/>
       <c r="CF136" s="1"/>
       <c r="CG136" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>391</v>
+        <v>130</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>364</v>
@@ -16124,7 +16112,7 @@
     </row>
     <row customFormat="1" r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>364</v>
@@ -16186,12 +16174,8 @@
       <c r="AK138" s="1"/>
       <c r="AL138" s="1"/>
       <c r="AM138" s="1"/>
-      <c r="AN138" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AO138" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="AN138" s="1"/>
+      <c r="AO138" s="1"/>
       <c r="AP138" s="1"/>
       <c r="AQ138" s="1"/>
       <c r="AR138" s="1"/>
@@ -16220,14 +16204,10 @@
       <c r="BI138" s="1"/>
       <c r="BJ138" s="1"/>
       <c r="BK138" s="1"/>
-      <c r="BL138" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="BL138" s="1"/>
       <c r="BM138" s="1"/>
       <c r="BN138" s="1"/>
-      <c r="BO138" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="BO138" s="1"/>
       <c r="BP138" s="1"/>
       <c r="BQ138" s="1"/>
       <c r="BR138" s="1"/>
@@ -16251,7 +16231,7 @@
     </row>
     <row customFormat="1" r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>364</v>
@@ -16378,16 +16358,16 @@
     </row>
     <row customFormat="1" r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>361</v>
+      <c r="C140" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -16505,7 +16485,7 @@
     </row>
     <row customFormat="1" r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>364</v>
@@ -16522,7 +16502,7 @@
         <v>53</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="2" t="s">
@@ -16627,12 +16607,12 @@
       <c r="CE141" s="1"/>
       <c r="CF141" s="1"/>
       <c r="CG141" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>364</v>
@@ -16649,7 +16629,7 @@
         <v>53</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -16754,12 +16734,12 @@
       <c r="CE142" s="1"/>
       <c r="CF142" s="1"/>
       <c r="CG142" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>364</v>
@@ -16886,7 +16866,7 @@
     </row>
     <row customFormat="1" r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>364</v>
@@ -17013,16 +16993,16 @@
     </row>
     <row customFormat="1" r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C145" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="27" t="s">
-        <v>3</v>
+      <c r="C145" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -17140,7 +17120,7 @@
     </row>
     <row customFormat="1" r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>364</v>
@@ -17267,7 +17247,7 @@
     </row>
     <row customFormat="1" r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>364</v>
@@ -17322,10 +17302,9 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
-      <c r="AG147" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
+      <c r="AI147" s="1"/>
       <c r="AJ147" s="1"/>
       <c r="AK147" s="1"/>
       <c r="AL147" s="1"/>
@@ -17390,12 +17369,12 @@
       <c r="CE147" s="1"/>
       <c r="CF147" s="1"/>
       <c r="CG147" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>364</v>
@@ -17450,11 +17429,10 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
-      <c r="AG148" s="1"/>
+      <c r="AG148" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH148" s="1"/>
-      <c r="AI148" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="AJ148" s="1"/>
       <c r="AK148" s="1"/>
       <c r="AL148" s="1"/>
@@ -17524,7 +17502,7 @@
     </row>
     <row customFormat="1" r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>364</v>
@@ -17581,13 +17559,13 @@
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
       <c r="AH149" s="1"/>
-      <c r="AI149" s="1"/>
+      <c r="AI149" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="AJ149" s="1"/>
       <c r="AK149" s="1"/>
       <c r="AL149" s="1"/>
-      <c r="AM149" s="26" t="s">
-        <v>423</v>
-      </c>
+      <c r="AM149" s="1"/>
       <c r="AN149" s="1" t="s">
         <v>393</v>
       </c>
@@ -17648,12 +17626,12 @@
       <c r="CE149" s="1"/>
       <c r="CF149" s="1"/>
       <c r="CG149" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>364</v>
@@ -17712,11 +17690,11 @@
       <c r="AH150" s="1"/>
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
-      <c r="AK150" s="1" t="s">
-        <v>422</v>
-      </c>
+      <c r="AK150" s="1"/>
       <c r="AL150" s="1"/>
-      <c r="AM150" s="1"/>
+      <c r="AM150" s="26" t="s">
+        <v>423</v>
+      </c>
       <c r="AN150" s="1" t="s">
         <v>393</v>
       </c>
@@ -17782,7 +17760,7 @@
     </row>
     <row customFormat="1" r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>364</v>
@@ -17841,7 +17819,9 @@
       <c r="AH151" s="1"/>
       <c r="AI151" s="1"/>
       <c r="AJ151" s="1"/>
-      <c r="AK151" s="1"/>
+      <c r="AK151" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
       <c r="AN151" s="1" t="s">
@@ -17909,7 +17889,7 @@
     </row>
     <row customFormat="1" r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>364</v>
@@ -18031,12 +18011,12 @@
       <c r="CE152" s="1"/>
       <c r="CF152" s="1"/>
       <c r="CG152" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>364</v>
@@ -18163,7 +18143,7 @@
     </row>
     <row customFormat="1" r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>364</v>
@@ -18218,9 +18198,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
       <c r="AF154" s="1"/>
-      <c r="AG154" s="1" t="s">
-        <v>463</v>
-      </c>
+      <c r="AG154" s="1"/>
       <c r="AH154" s="1"/>
       <c r="AI154" s="1"/>
       <c r="AJ154" s="1"/>
@@ -18292,16 +18270,16 @@
     </row>
     <row customFormat="1" r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>361</v>
+      <c r="C155" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -18347,7 +18325,9 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
-      <c r="AG155" s="1"/>
+      <c r="AG155" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="AH155" s="1"/>
       <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
@@ -18419,7 +18399,7 @@
     </row>
     <row customFormat="1" r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>364</v>
@@ -18541,12 +18521,12 @@
       <c r="CE156" s="1"/>
       <c r="CF156" s="1"/>
       <c r="CG156" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>364</v>
@@ -18668,12 +18648,12 @@
       <c r="CE157" s="1"/>
       <c r="CF157" s="1"/>
       <c r="CG157" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>364</v>
@@ -18795,21 +18775,21 @@
       <c r="CE158" s="1"/>
       <c r="CF158" s="1"/>
       <c r="CG158" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C159" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>3</v>
+      <c r="C159" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -18927,15 +18907,15 @@
     </row>
     <row customFormat="1" r="160" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="C160" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="1"/>
@@ -19054,7 +19034,7 @@
     </row>
     <row customFormat="1" r="161" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>364</v>
@@ -19071,7 +19051,7 @@
         <v>53</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="2" t="s">
@@ -19176,20 +19156,20 @@
       <c r="CE161" s="1"/>
       <c r="CF161" s="1"/>
       <c r="CG161" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C162" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D162" s="27" t="s">
+      <c r="C162" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E162" s="1"/>
@@ -19198,7 +19178,7 @@
         <v>53</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="2" t="s">
@@ -19303,12 +19283,12 @@
       <c r="CE162" s="1"/>
       <c r="CF162" s="1"/>
       <c r="CG162" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>364</v>
@@ -19435,7 +19415,7 @@
     </row>
     <row customFormat="1" r="164" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>364</v>
@@ -19497,8 +19477,12 @@
       <c r="AK164" s="1"/>
       <c r="AL164" s="1"/>
       <c r="AM164" s="1"/>
-      <c r="AN164" s="1"/>
-      <c r="AO164" s="1"/>
+      <c r="AN164" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO164" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="AP164" s="1"/>
       <c r="AQ164" s="1"/>
       <c r="AR164" s="1"/>
@@ -19511,30 +19495,30 @@
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
       <c r="BA164" s="1" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="BB164" s="1"/>
       <c r="BC164" s="1"/>
       <c r="BD164" s="1"/>
       <c r="BE164" s="1"/>
-      <c r="BF164" s="1"/>
-      <c r="BG164" s="1"/>
-      <c r="BH164" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI164" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ164" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK164" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BL164" s="1"/>
+      <c r="BF164" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG164" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH164" s="1"/>
+      <c r="BI164" s="1"/>
+      <c r="BJ164" s="1"/>
+      <c r="BK164" s="1"/>
+      <c r="BL164" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="BM164" s="1"/>
       <c r="BN164" s="1"/>
-      <c r="BO164" s="1"/>
+      <c r="BO164" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="BP164" s="1"/>
       <c r="BQ164" s="1"/>
       <c r="BR164" s="1"/>
@@ -19558,16 +19542,16 @@
     </row>
     <row customFormat="1" r="165" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C165" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>361</v>
+      <c r="C165" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -19643,16 +19627,16 @@
       <c r="BF165" s="1"/>
       <c r="BG165" s="1"/>
       <c r="BH165" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI165" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="BJ165" t="s">
-        <v>340</v>
+        <v>135</v>
+      </c>
+      <c r="BI165" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ165" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="BK165" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="BL165" s="1"/>
       <c r="BM165" s="1"/>
@@ -19666,39 +19650,31 @@
       <c r="BU165" s="1"/>
       <c r="BV165" s="1"/>
       <c r="BW165" s="1"/>
-      <c r="BX165" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BY165" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="BZ165" t="s">
-        <v>342</v>
-      </c>
-      <c r="CA165" s="1" t="s">
-        <v>343</v>
-      </c>
+      <c r="BX165" s="1"/>
+      <c r="BY165" s="1"/>
+      <c r="BZ165" s="1"/>
+      <c r="CA165" s="1"/>
       <c r="CB165" s="1"/>
       <c r="CC165" s="1"/>
       <c r="CD165" s="1"/>
       <c r="CE165" s="1"/>
       <c r="CF165" s="1"/>
       <c r="CG165" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="166" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>136</v>
+        <v>336</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C166" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>3</v>
+      <c r="C166" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>361</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -19765,25 +19741,26 @@
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
       <c r="BA166" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB166" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD166" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE166" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF166" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="BB166" s="1"/>
+      <c r="BC166" s="1"/>
+      <c r="BD166" s="1"/>
+      <c r="BE166" s="1"/>
+      <c r="BF166" s="1"/>
       <c r="BG166" s="1"/>
-      <c r="BH166" s="1"/>
-      <c r="BI166" s="1"/>
-      <c r="BJ166" s="1"/>
-      <c r="BK166" s="1"/>
+      <c r="BH166" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI166" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ166" t="s">
+        <v>340</v>
+      </c>
+      <c r="BK166" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="BL166" s="1"/>
       <c r="BM166" s="1"/>
       <c r="BN166" s="1"/>
@@ -19796,22 +19773,30 @@
       <c r="BU166" s="1"/>
       <c r="BV166" s="1"/>
       <c r="BW166" s="1"/>
-      <c r="BX166" s="1"/>
-      <c r="BY166" s="1"/>
-      <c r="BZ166" s="1"/>
-      <c r="CA166" s="1"/>
+      <c r="BX166" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY166" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="BZ166" t="s">
+        <v>342</v>
+      </c>
+      <c r="CA166" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="CB166" s="1"/>
       <c r="CC166" s="1"/>
       <c r="CD166" s="1"/>
       <c r="CE166" s="1"/>
       <c r="CF166" s="1"/>
       <c r="CG166" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="167" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>364</v>
@@ -19887,18 +19872,21 @@
       <c r="AY167" s="1"/>
       <c r="AZ167" s="1"/>
       <c r="BA167" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB167" s="1"/>
-      <c r="BC167" s="1"/>
-      <c r="BD167" s="1"/>
-      <c r="BE167" s="1"/>
-      <c r="BF167" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG167" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BB167" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD167" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE167" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF167" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG167" s="1"/>
       <c r="BH167" s="1"/>
       <c r="BI167" s="1"/>
       <c r="BJ167" s="1"/>
@@ -19930,7 +19918,7 @@
     </row>
     <row customFormat="1" r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>364</v>
@@ -20005,25 +19993,23 @@
       <c r="AX168" s="1"/>
       <c r="AY168" s="1"/>
       <c r="AZ168" s="1"/>
-      <c r="BA168" s="1"/>
+      <c r="BA168" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB168" s="1"/>
       <c r="BC168" s="1"/>
       <c r="BD168" s="1"/>
       <c r="BE168" s="1"/>
-      <c r="BF168" s="1"/>
-      <c r="BG168" s="1"/>
-      <c r="BH168" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI168" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ168" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK168" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="BF168" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG168" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH168" s="1"/>
+      <c r="BI168" s="1"/>
+      <c r="BJ168" s="1"/>
+      <c r="BK168" s="1"/>
       <c r="BL168" s="1"/>
       <c r="BM168" s="1"/>
       <c r="BN168" s="1"/>
@@ -20051,15 +20037,17 @@
     </row>
     <row customFormat="1" r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D169" s="1"/>
+      <c r="C169" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="2" t="s">
@@ -20124,26 +20112,25 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
-      <c r="BA169" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB169" s="4" t="s">
+      <c r="BA169" s="1"/>
+      <c r="BB169" s="1"/>
+      <c r="BC169" s="1"/>
+      <c r="BD169" s="1"/>
+      <c r="BE169" s="1"/>
+      <c r="BF169" s="1"/>
+      <c r="BG169" s="1"/>
+      <c r="BH169" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI169" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BD169" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE169" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF169" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG169" s="1"/>
-      <c r="BH169" s="1"/>
-      <c r="BI169" s="1"/>
-      <c r="BJ169" s="1"/>
-      <c r="BK169" s="1"/>
+      <c r="BJ169" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK169" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="BL169" s="1"/>
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
@@ -20171,7 +20158,7 @@
     </row>
     <row customFormat="1" r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>364</v>
@@ -20245,18 +20232,21 @@
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
       <c r="BA170" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB170" s="1"/>
-      <c r="BC170" s="1"/>
-      <c r="BD170" s="1"/>
-      <c r="BE170" s="1"/>
-      <c r="BF170" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG170" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="BB170" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD170" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE170" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF170" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG170" s="1"/>
       <c r="BH170" s="1"/>
       <c r="BI170" s="1"/>
       <c r="BJ170" s="1"/>
@@ -20288,7 +20278,7 @@
     </row>
     <row customFormat="1" r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>466</v>
+        <v>143</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>364</v>
@@ -20405,7 +20395,7 @@
     </row>
     <row customFormat="1" r="172" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>364</v>
@@ -20420,7 +20410,7 @@
         <v>53</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>465</v>
+        <v>324</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="2" t="s">
@@ -20478,13 +20468,19 @@
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
-      <c r="BA172" s="1"/>
+      <c r="BA172" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB172" s="1"/>
       <c r="BC172" s="1"/>
       <c r="BD172" s="1"/>
       <c r="BE172" s="1"/>
-      <c r="BF172" s="1"/>
-      <c r="BG172" s="4"/>
+      <c r="BF172" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG172" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="BH172" s="1"/>
       <c r="BI172" s="1"/>
       <c r="BJ172" s="1"/>
@@ -20511,29 +20507,27 @@
       <c r="CE172" s="1"/>
       <c r="CF172" s="1"/>
       <c r="CG172" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="173" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C173" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C173" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>324</v>
+        <v>465</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="2" t="s">
@@ -20591,19 +20585,13 @@
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
-      <c r="BA173" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="BA173" s="1"/>
       <c r="BB173" s="1"/>
       <c r="BC173" s="1"/>
       <c r="BD173" s="1"/>
       <c r="BE173" s="1"/>
-      <c r="BF173" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG173" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="BF173" s="1"/>
+      <c r="BG173" s="4"/>
       <c r="BH173" s="1"/>
       <c r="BI173" s="1"/>
       <c r="BJ173" s="1"/>
@@ -20611,9 +20599,7 @@
       <c r="BL173" s="1"/>
       <c r="BM173" s="1"/>
       <c r="BN173" s="1"/>
-      <c r="BO173" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="BO173" s="1"/>
       <c r="BP173" s="1"/>
       <c r="BQ173" s="1"/>
       <c r="BR173" s="1"/>
@@ -20637,7 +20623,7 @@
     </row>
     <row customFormat="1" r="174" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>364</v>
@@ -20729,9 +20715,7 @@
       <c r="BI174" s="1"/>
       <c r="BJ174" s="1"/>
       <c r="BK174" s="1"/>
-      <c r="BL174" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="BL174" s="1"/>
       <c r="BM174" s="1"/>
       <c r="BN174" s="1"/>
       <c r="BO174" s="1" t="s">
@@ -20755,12 +20739,12 @@
       <c r="CE174" s="1"/>
       <c r="CF174" s="1"/>
       <c r="CG174" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>364</v>
@@ -20857,7 +20841,9 @@
       </c>
       <c r="BM175" s="1"/>
       <c r="BN175" s="1"/>
-      <c r="BO175" s="1"/>
+      <c r="BO175" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="BP175" s="1"/>
       <c r="BQ175" s="1"/>
       <c r="BR175" s="1"/>
@@ -20876,20 +20862,22 @@
       <c r="CE175" s="1"/>
       <c r="CF175" s="1"/>
       <c r="CG175" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D176" s="1"/>
+      <c r="C176" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="2" t="s">
@@ -20954,26 +20942,26 @@
       <c r="AX176" s="1"/>
       <c r="AY176" s="1"/>
       <c r="AZ176" s="1"/>
-      <c r="BA176" s="1"/>
+      <c r="BA176" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB176" s="1"/>
       <c r="BC176" s="1"/>
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
-      <c r="BF176" s="1"/>
-      <c r="BG176" s="1"/>
-      <c r="BH176" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI176" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ176" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK176" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BL176" s="1"/>
+      <c r="BF176" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG176" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH176" s="1"/>
+      <c r="BI176" s="1"/>
+      <c r="BJ176" s="1"/>
+      <c r="BK176" s="1"/>
+      <c r="BL176" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="BM176" s="1"/>
       <c r="BN176" s="1"/>
       <c r="BO176" s="1"/>
@@ -20995,26 +20983,22 @@
       <c r="CE176" s="1"/>
       <c r="CF176" s="1"/>
       <c r="CG176" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="177" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C177" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C177" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" t="s">
-        <v>3</v>
-      </c>
+      <c r="F177" s="1"/>
       <c r="G177" s="2" t="s">
         <v>53</v>
       </c>
@@ -21046,9 +21030,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
-      <c r="V177" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V177" s="1"/>
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
@@ -21059,19 +21041,13 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
-      <c r="AG177" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG177" s="1"/>
       <c r="AH177" s="1"/>
-      <c r="AI177" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI177" s="1"/>
       <c r="AJ177" s="1"/>
       <c r="AK177" s="1"/>
       <c r="AL177" s="1"/>
-      <c r="AM177" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM177" s="1"/>
       <c r="AN177" s="1"/>
       <c r="AO177" s="1"/>
       <c r="AP177" s="1"/>
@@ -21085,26 +21061,25 @@
       <c r="AX177" s="1"/>
       <c r="AY177" s="1"/>
       <c r="AZ177" s="1"/>
-      <c r="BA177" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB177" s="4" t="s">
+      <c r="BA177" s="1"/>
+      <c r="BB177" s="1"/>
+      <c r="BC177" s="1"/>
+      <c r="BD177" s="1"/>
+      <c r="BE177" s="1"/>
+      <c r="BF177" s="1"/>
+      <c r="BG177" s="1"/>
+      <c r="BH177" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI177" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BD177" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE177" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF177" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG177" s="1"/>
-      <c r="BH177" s="1"/>
-      <c r="BI177" s="1"/>
-      <c r="BJ177" s="1"/>
-      <c r="BK177" s="1"/>
+      <c r="BJ177" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK177" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="BL177" s="1"/>
       <c r="BM177" s="1"/>
       <c r="BN177" s="1"/>
@@ -21132,13 +21107,13 @@
     </row>
     <row customFormat="1" r="178" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>3</v>
@@ -21218,18 +21193,21 @@
       <c r="AY178" s="1"/>
       <c r="AZ178" s="1"/>
       <c r="BA178" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB178" s="1"/>
-      <c r="BC178" s="1"/>
-      <c r="BD178" s="1"/>
-      <c r="BE178" s="1"/>
-      <c r="BF178" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG178" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="BB178" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD178" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE178" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF178" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG178" s="1"/>
       <c r="BH178" s="1"/>
       <c r="BI178" s="1"/>
       <c r="BJ178" s="1"/>
@@ -21261,13 +21239,13 @@
     </row>
     <row customFormat="1" r="179" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>3</v>
@@ -21346,25 +21324,23 @@
       <c r="AX179" s="1"/>
       <c r="AY179" s="1"/>
       <c r="AZ179" s="1"/>
-      <c r="BA179" s="1"/>
+      <c r="BA179" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="BB179" s="1"/>
       <c r="BC179" s="1"/>
       <c r="BD179" s="1"/>
       <c r="BE179" s="1"/>
-      <c r="BF179" s="1"/>
-      <c r="BG179" s="1"/>
-      <c r="BH179" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI179" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ179" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BK179" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="BF179" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG179" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH179" s="1"/>
+      <c r="BI179" s="1"/>
+      <c r="BJ179" s="1"/>
+      <c r="BK179" s="1"/>
       <c r="BL179" s="1"/>
       <c r="BM179" s="1"/>
       <c r="BN179" s="1"/>
@@ -21392,13 +21368,13 @@
     </row>
     <row customFormat="1" r="180" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>3</v>
@@ -21478,15 +21454,24 @@
       <c r="AY180" s="1"/>
       <c r="AZ180" s="1"/>
       <c r="BA180" s="1"/>
-      <c r="BB180" s="4"/>
-      <c r="BD180" s="2"/>
-      <c r="BE180" s="3"/>
-      <c r="BF180" s="2"/>
+      <c r="BB180" s="1"/>
+      <c r="BC180" s="1"/>
+      <c r="BD180" s="1"/>
+      <c r="BE180" s="1"/>
+      <c r="BF180" s="1"/>
       <c r="BG180" s="1"/>
-      <c r="BH180" s="1"/>
-      <c r="BI180" s="1"/>
-      <c r="BJ180" s="1"/>
-      <c r="BK180" s="1"/>
+      <c r="BH180" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI180" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ180" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK180" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="BL180" s="1"/>
       <c r="BM180" s="1"/>
       <c r="BN180" s="1"/>
@@ -21509,36 +21494,60 @@
       <c r="CE180" s="1"/>
       <c r="CF180" s="1"/>
       <c r="CG180" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="181" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
-        <v>240</v>
+      <c r="A181" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="C181" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
+      <c r="F181" t="s">
+        <v>3</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>324</v>
+      </c>
       <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
+      <c r="J181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>1</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
+      <c r="P181" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
+      <c r="V181" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
@@ -21549,13 +21558,19 @@
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
       <c r="AF181" s="1"/>
-      <c r="AG181" s="1"/>
+      <c r="AG181" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH181" s="1"/>
-      <c r="AI181" s="1"/>
+      <c r="AI181" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ181" s="1"/>
       <c r="AK181" s="1"/>
       <c r="AL181" s="1"/>
-      <c r="AM181" s="1"/>
+      <c r="AM181" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN181" s="1"/>
       <c r="AO181" s="1"/>
       <c r="AP181" s="1"/>
@@ -21570,14 +21585,13 @@
       <c r="AY181" s="1"/>
       <c r="AZ181" s="1"/>
       <c r="BA181" s="1"/>
-      <c r="BB181" s="1"/>
-      <c r="BC181" s="1"/>
-      <c r="BD181" s="1"/>
-      <c r="BE181" s="1"/>
-      <c r="BF181" s="1"/>
+      <c r="BB181" s="4"/>
+      <c r="BD181" s="2"/>
+      <c r="BE181" s="3"/>
+      <c r="BF181" s="2"/>
       <c r="BG181" s="1"/>
       <c r="BH181" s="1"/>
-      <c r="BI181" s="11"/>
+      <c r="BI181" s="1"/>
       <c r="BJ181" s="1"/>
       <c r="BK181" s="1"/>
       <c r="BL181" s="1"/>
@@ -21601,66 +21615,36 @@
       <c r="CD181" s="1"/>
       <c r="CE181" s="1"/>
       <c r="CF181" s="1"/>
-      <c r="CG181" s="1"/>
+      <c r="CG181" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row customFormat="1" r="182" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>248</v>
+      <c r="A182" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C182" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J182" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M182" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
       <c r="O182" s="1"/>
-      <c r="P182" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q182" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R182" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="S182" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T182" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U182" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
@@ -21672,9 +21656,7 @@
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
       <c r="AF182" s="1"/>
-      <c r="AG182" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="AG182" s="1"/>
       <c r="AH182" s="1"/>
       <c r="AI182" s="1"/>
       <c r="AJ182" s="1"/>
@@ -21694,21 +21676,12 @@
       <c r="AX182" s="1"/>
       <c r="AY182" s="1"/>
       <c r="AZ182" s="1"/>
-      <c r="BA182" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB182" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD182" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE182" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF182" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA182" s="1"/>
+      <c r="BB182" s="1"/>
+      <c r="BC182" s="1"/>
+      <c r="BD182" s="1"/>
+      <c r="BE182" s="1"/>
+      <c r="BF182" s="1"/>
       <c r="BG182" s="1"/>
       <c r="BH182" s="1"/>
       <c r="BI182" s="11"/>
@@ -21734,14 +21707,12 @@
       <c r="CC182" s="1"/>
       <c r="CD182" s="1"/>
       <c r="CE182" s="1"/>
-      <c r="CF182" s="18"/>
-      <c r="CG182" t="s">
-        <v>365</v>
-      </c>
+      <c r="CF182" s="1"/>
+      <c r="CG182" s="1"/>
     </row>
     <row customFormat="1" r="183" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>364</v>
@@ -21755,22 +21726,22 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>427</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M183" s="2" t="s">
         <v>28</v>
@@ -21809,7 +21780,7 @@
       <c r="AE183" s="1"/>
       <c r="AF183" s="1"/>
       <c r="AG183" s="1" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="AH183" s="1"/>
       <c r="AI183" s="1"/>
@@ -21877,7 +21848,7 @@
     </row>
     <row customFormat="1" r="184" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>364</v>
@@ -21890,19 +21861,23 @@
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="1"/>
+      <c r="G184" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I184" s="1" t="s">
         <v>427</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>314</v>
+        <v>379</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="M184" s="2" t="s">
         <v>28</v>
@@ -21941,7 +21916,7 @@
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
       <c r="AG184" s="1" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="AH184" s="1"/>
       <c r="AI184" s="1"/>
@@ -21962,12 +21937,21 @@
       <c r="AX184" s="1"/>
       <c r="AY184" s="1"/>
       <c r="AZ184" s="1"/>
-      <c r="BA184" s="1"/>
-      <c r="BB184" s="1"/>
-      <c r="BC184" s="12"/>
-      <c r="BD184" s="1"/>
-      <c r="BE184" s="1"/>
-      <c r="BF184" s="1"/>
+      <c r="BA184" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB184" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE184" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF184" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG184" s="1"/>
       <c r="BH184" s="1"/>
       <c r="BI184" s="11"/>
@@ -21995,49 +21979,43 @@
       <c r="CE184" s="1"/>
       <c r="CF184" s="18"/>
       <c r="CG184" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="185" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>511</v>
+        <v>382</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>361</v>
       </c>
       <c r="E185" s="3"/>
-      <c r="F185" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="1"/>
       <c r="I185" s="1" t="s">
         <v>427</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>368</v>
+        <v>28</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="O185" s="1"/>
       <c r="P185" s="1" t="s">
@@ -22070,7 +22048,7 @@
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
       <c r="AG185" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AH185" s="1"/>
       <c r="AI185" s="1"/>
@@ -22124,24 +22102,26 @@
       <c r="CE185" s="1"/>
       <c r="CF185" s="18"/>
       <c r="CG185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="186" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
-        <v>252</v>
+      <c r="A186" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>382</v>
+        <v>511</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>361</v>
       </c>
       <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
+      <c r="F186" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="G186" s="3" t="s">
         <v>241</v>
       </c>
@@ -22152,19 +22132,19 @@
         <v>427</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>28</v>
+        <v>368</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="1" t="s">
@@ -22197,7 +22177,7 @@
       <c r="AE186" s="1"/>
       <c r="AF186" s="1"/>
       <c r="AG186" s="1" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AH186" s="1"/>
       <c r="AI186" s="1"/>
@@ -22218,21 +22198,12 @@
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
-      <c r="BA186" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB186" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD186" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE186" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF186" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="BA186" s="1"/>
+      <c r="BB186" s="1"/>
+      <c r="BC186" s="12"/>
+      <c r="BD186" s="1"/>
+      <c r="BE186" s="1"/>
+      <c r="BF186" s="1"/>
       <c r="BG186" s="1"/>
       <c r="BH186" s="1"/>
       <c r="BI186" s="11"/>
@@ -22265,7 +22236,7 @@
     </row>
     <row customFormat="1" r="187" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>364</v>
@@ -22278,8 +22249,12 @@
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="1"/>
+      <c r="G187" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="I187" s="1" t="s">
         <v>427</v>
       </c>
@@ -22392,12 +22367,12 @@
       <c r="CE187" s="1"/>
       <c r="CF187" s="18"/>
       <c r="CG187" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="188" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>364</v>
@@ -22524,43 +22499,37 @@
       <c r="CE188" s="1"/>
       <c r="CF188" s="18"/>
       <c r="CG188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="189" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>512</v>
+        <v>382</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>361</v>
       </c>
       <c r="E189" s="3"/>
-      <c r="F189" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="1"/>
       <c r="I189" s="1" t="s">
         <v>427</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="M189" s="2" t="s">
         <v>28</v>
@@ -22599,7 +22568,7 @@
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
       <c r="AG189" s="1" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="AH189" s="1"/>
       <c r="AI189" s="1"/>
@@ -22651,14 +22620,14 @@
       <c r="BT189" s="1"/>
       <c r="BU189" s="1"/>
       <c r="BV189" s="1"/>
-      <c r="BW189" s="12"/>
-      <c r="BX189" s="12"/>
-      <c r="BY189" s="12"/>
-      <c r="BZ189" s="12"/>
-      <c r="CA189" s="12"/>
-      <c r="CB189" s="12"/>
-      <c r="CC189" s="12"/>
-      <c r="CD189" s="12"/>
+      <c r="BW189" s="1"/>
+      <c r="BX189" s="1"/>
+      <c r="BY189" s="1"/>
+      <c r="BZ189" s="1"/>
+      <c r="CA189" s="1"/>
+      <c r="CB189" s="1"/>
+      <c r="CC189" s="1"/>
+      <c r="CD189" s="1"/>
       <c r="CE189" s="1"/>
       <c r="CF189" s="18"/>
       <c r="CG189" t="s">
@@ -22667,40 +22636,64 @@
     </row>
     <row customFormat="1" r="190" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C190" s="11" t="s">
-        <v>2</v>
+      <c r="C190" s="28" t="s">
+        <v>512</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
+      <c r="F190" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="G190" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>324</v>
+        <v>241</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J190" s="1"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="1"/>
+      <c r="J190" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="11"/>
-      <c r="R190" s="10"/>
-      <c r="S190" s="10"/>
-      <c r="T190" s="1"/>
-      <c r="U190" s="1"/>
+      <c r="P190" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q190" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R190" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S190" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U190" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
@@ -22712,7 +22705,9 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
       <c r="AF190" s="1"/>
-      <c r="AG190" s="1"/>
+      <c r="AG190" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="AH190" s="1"/>
       <c r="AI190" s="1"/>
       <c r="AJ190" s="1"/>
@@ -22732,18 +22727,24 @@
       <c r="AX190" s="1"/>
       <c r="AY190" s="1"/>
       <c r="AZ190" s="1"/>
-      <c r="BA190" s="1"/>
-      <c r="BB190" s="4"/>
-      <c r="BD190" s="2"/>
-      <c r="BE190" s="3"/>
-      <c r="BF190" s="2"/>
+      <c r="BA190" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB190" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD190" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE190" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF190" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="BG190" s="1"/>
-      <c r="BH190" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BI190" s="11" t="s">
-        <v>351</v>
-      </c>
+      <c r="BH190" s="1"/>
+      <c r="BI190" s="11"/>
       <c r="BJ190" s="1"/>
       <c r="BK190" s="1"/>
       <c r="BL190" s="1"/>
@@ -22773,16 +22774,16 @@
     </row>
     <row customFormat="1" r="191" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C191" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D191" s="28" t="s">
-        <v>386</v>
+      <c r="C191" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -22795,28 +22796,16 @@
       <c r="I191" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K191" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M191" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="J191" s="1"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="1"/>
       <c r="O191" s="1"/>
-      <c r="P191" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="P191" s="1"/>
       <c r="Q191" s="11"/>
-      <c r="R191" s="1"/>
-      <c r="S191" s="1"/>
+      <c r="R191" s="10"/>
+      <c r="S191" s="10"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
@@ -22850,9 +22839,7 @@
       <c r="AX191" s="1"/>
       <c r="AY191" s="1"/>
       <c r="AZ191" s="1"/>
-      <c r="BA191" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BA191" s="1"/>
       <c r="BB191" s="4"/>
       <c r="BD191" s="2"/>
       <c r="BE191" s="3"/>
@@ -22862,14 +22849,10 @@
         <v>285</v>
       </c>
       <c r="BI191" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="BJ191" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BK191" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BJ191" s="1"/>
+      <c r="BK191" s="1"/>
       <c r="BL191" s="1"/>
       <c r="BM191" s="1"/>
       <c r="BN191" s="1"/>
@@ -22892,35 +22875,37 @@
       <c r="CE191" s="1"/>
       <c r="CF191" s="18"/>
       <c r="CG191" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" r="192" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>431</v>
+      <c r="A192" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D192" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D192" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I192" s="1"/>
+      <c r="I192" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="J192" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K192" t="s">
+      <c r="K192" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L192" s="1" t="s">
@@ -22936,7 +22921,7 @@
       <c r="P192" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q192" s="1"/>
+      <c r="Q192" s="11"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
@@ -22973,22 +22958,25 @@
       <c r="AY192" s="1"/>
       <c r="AZ192" s="1"/>
       <c r="BA192" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="BB192" s="1"/>
-      <c r="BC192" s="1"/>
-      <c r="BD192" s="1"/>
-      <c r="BE192" s="1"/>
-      <c r="BF192" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="BG192" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="BH192" s="1"/>
-      <c r="BI192" s="1"/>
-      <c r="BJ192" s="1"/>
-      <c r="BK192" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="BB192" s="4"/>
+      <c r="BD192" s="2"/>
+      <c r="BE192" s="3"/>
+      <c r="BF192" s="2"/>
+      <c r="BG192" s="1"/>
+      <c r="BH192" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI192" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ192" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BK192" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="BL192" s="1"/>
       <c r="BM192" s="1"/>
       <c r="BN192" s="1"/>
@@ -23000,23 +22988,23 @@
       <c r="BT192" s="1"/>
       <c r="BU192" s="1"/>
       <c r="BV192" s="1"/>
-      <c r="BW192" s="1"/>
-      <c r="BX192" s="1"/>
-      <c r="BY192" s="1"/>
-      <c r="BZ192" s="1"/>
-      <c r="CA192" s="1"/>
-      <c r="CB192" s="1"/>
-      <c r="CC192" s="1"/>
-      <c r="CD192" s="1"/>
+      <c r="BW192" s="12"/>
+      <c r="BX192" s="12"/>
+      <c r="BY192" s="12"/>
+      <c r="BZ192" s="12"/>
+      <c r="CA192" s="12"/>
+      <c r="CB192" s="12"/>
+      <c r="CC192" s="12"/>
+      <c r="CD192" s="12"/>
       <c r="CE192" s="1"/>
-      <c r="CF192" s="1"/>
+      <c r="CF192" s="18"/>
       <c r="CG192" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row customFormat="1" r="193" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>364</v>
@@ -23099,7 +23087,7 @@
       <c r="BD193" s="1"/>
       <c r="BE193" s="1"/>
       <c r="BF193" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BG193" s="4" t="s">
         <v>438</v>
@@ -23135,7 +23123,7 @@
     </row>
     <row customFormat="1" r="194" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>364</v>
@@ -23218,7 +23206,7 @@
       <c r="BD194" s="1"/>
       <c r="BE194" s="1"/>
       <c r="BF194" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BG194" s="4" t="s">
         <v>438</v>
@@ -23254,7 +23242,7 @@
     </row>
     <row customFormat="1" r="195" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>364</v>
@@ -23337,7 +23325,7 @@
       <c r="BD195" s="1"/>
       <c r="BE195" s="1"/>
       <c r="BF195" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BG195" s="4" t="s">
         <v>438</v>
@@ -23373,7 +23361,7 @@
     </row>
     <row customFormat="1" r="196" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>364</v>
@@ -23456,7 +23444,7 @@
       <c r="BD196" s="1"/>
       <c r="BE196" s="1"/>
       <c r="BF196" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BG196" s="4" t="s">
         <v>438</v>
@@ -23492,7 +23480,7 @@
     </row>
     <row customFormat="1" r="197" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>364</v>
@@ -23575,7 +23563,7 @@
       <c r="BD197" s="1"/>
       <c r="BE197" s="1"/>
       <c r="BF197" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BG197" s="4" t="s">
         <v>438</v>
@@ -23611,15 +23599,17 @@
     </row>
     <row customFormat="1" r="198" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D198" s="1"/>
+      <c r="C198" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="2" t="s">
@@ -23692,7 +23682,7 @@
       <c r="BD198" s="1"/>
       <c r="BE198" s="1"/>
       <c r="BF198" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="BG198" s="4" t="s">
         <v>438</v>
@@ -23728,7 +23718,7 @@
     </row>
     <row customFormat="1" r="199" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>364</v>
@@ -23809,7 +23799,7 @@
       <c r="BD199" s="1"/>
       <c r="BE199" s="1"/>
       <c r="BF199" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BG199" s="4" t="s">
         <v>438</v>
@@ -23845,7 +23835,7 @@
     </row>
     <row customFormat="1" r="200" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>364</v>
@@ -23926,7 +23916,7 @@
       <c r="BD200" s="1"/>
       <c r="BE200" s="1"/>
       <c r="BF200" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BG200" s="4" t="s">
         <v>438</v>
@@ -23962,7 +23952,7 @@
     </row>
     <row customFormat="1" r="201" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>364</v>
@@ -24043,7 +24033,7 @@
       <c r="BD201" s="1"/>
       <c r="BE201" s="1"/>
       <c r="BF201" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BG201" s="4" t="s">
         <v>438</v>
@@ -24079,7 +24069,7 @@
     </row>
     <row customFormat="1" r="202" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>364</v>
@@ -24160,7 +24150,7 @@
       <c r="BD202" s="1"/>
       <c r="BE202" s="1"/>
       <c r="BF202" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="BG202" s="4" t="s">
         <v>438</v>
@@ -24196,17 +24186,15 @@
     </row>
     <row customFormat="1" r="203" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C203" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="27" t="s">
-        <v>3</v>
-      </c>
+      <c r="C203" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="2" t="s">
@@ -24278,8 +24266,12 @@
       <c r="BC203" s="1"/>
       <c r="BD203" s="1"/>
       <c r="BE203" s="1"/>
-      <c r="BF203" s="1"/>
-      <c r="BG203" s="4"/>
+      <c r="BF203" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="BG203" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="BH203" s="1"/>
       <c r="BI203" s="1"/>
       <c r="BJ203" s="1"/>
@@ -24311,15 +24303,17 @@
     </row>
     <row customFormat="1" r="204" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D204" s="1"/>
+      <c r="C204" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="2" t="s">
@@ -24391,12 +24385,8 @@
       <c r="BC204" s="1"/>
       <c r="BD204" s="1"/>
       <c r="BE204" s="1"/>
-      <c r="BF204" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="BG204" s="4" t="s">
-        <v>438</v>
-      </c>
+      <c r="BF204" s="1"/>
+      <c r="BG204" s="4"/>
       <c r="BH204" s="1"/>
       <c r="BI204" s="1"/>
       <c r="BJ204" s="1"/>
@@ -24428,7 +24418,7 @@
     </row>
     <row customFormat="1" r="205" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>364</v>
@@ -24509,9 +24499,11 @@
       <c r="BD205" s="1"/>
       <c r="BE205" s="1"/>
       <c r="BF205" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG205" s="4"/>
+        <v>458</v>
+      </c>
+      <c r="BG205" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="BH205" s="1"/>
       <c r="BI205" s="1"/>
       <c r="BJ205" s="1"/>
@@ -24541,54 +24533,50 @@
         <v>365</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="206" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
-        <v>287</v>
+    <row customFormat="1" r="206" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C206" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D206" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="C206" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I206" s="1"/>
       <c r="J206" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="K206" s="2" t="s">
-        <v>292</v>
+        <v>0</v>
+      </c>
+      <c r="K206" t="s">
+        <v>1</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="M206" s="2"/>
-      <c r="N206" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="R206" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="S206" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="T206" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="U206" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="P206" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
@@ -24600,9 +24588,7 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
       <c r="AF206" s="1"/>
-      <c r="AG206" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="AG206" s="1"/>
       <c r="AH206" s="1"/>
       <c r="AI206" s="1"/>
       <c r="AJ206" s="1"/>
@@ -24622,20 +24608,23 @@
       <c r="AX206" s="1"/>
       <c r="AY206" s="1"/>
       <c r="AZ206" s="1"/>
-      <c r="BA206" s="1"/>
-      <c r="BB206" s="4"/>
-      <c r="BD206" s="2"/>
-      <c r="BE206" s="3"/>
-      <c r="BF206" s="2"/>
-      <c r="BG206" s="1"/>
+      <c r="BA206" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BB206" s="1"/>
+      <c r="BC206" s="1"/>
+      <c r="BD206" s="1"/>
+      <c r="BE206" s="1"/>
+      <c r="BF206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG206" s="4"/>
       <c r="BH206" s="1"/>
-      <c r="BI206" s="11"/>
+      <c r="BI206" s="1"/>
       <c r="BJ206" s="1"/>
       <c r="BK206" s="1"/>
       <c r="BL206" s="1"/>
-      <c r="BM206" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="BM206" s="1"/>
       <c r="BN206" s="1"/>
       <c r="BO206" s="1"/>
       <c r="BP206" s="1"/>
@@ -24645,41 +24634,68 @@
       <c r="BT206" s="1"/>
       <c r="BU206" s="1"/>
       <c r="BV206" s="1"/>
-      <c r="BW206" s="12"/>
-      <c r="BX206" s="12"/>
-      <c r="BY206" s="12"/>
-      <c r="BZ206" s="12"/>
-      <c r="CA206" s="12"/>
-      <c r="CB206" s="12"/>
-      <c r="CC206" s="12"/>
-      <c r="CD206" s="12"/>
+      <c r="BW206" s="1"/>
+      <c r="BX206" s="1"/>
+      <c r="BY206" s="1"/>
+      <c r="BZ206" s="1"/>
+      <c r="CA206" s="1"/>
+      <c r="CB206" s="1"/>
+      <c r="CC206" s="1"/>
+      <c r="CD206" s="1"/>
       <c r="CE206" s="1"/>
-      <c r="CF206" s="18"/>
+      <c r="CF206" s="1"/>
       <c r="CG206" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row customFormat="1" r="207" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="2"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="30" r="207" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
       <c r="H207" s="3"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="2"/>
-      <c r="L207" s="1"/>
+      <c r="I207" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="M207" s="2"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-      <c r="S207" s="1"/>
-      <c r="T207" s="1"/>
-      <c r="U207" s="1"/>
+      <c r="Q207" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="R207" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="S207" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="T207" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U207" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
@@ -24691,7 +24707,9 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
       <c r="AF207" s="1"/>
-      <c r="AG207" s="1"/>
+      <c r="AG207" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="AH207" s="1"/>
       <c r="AI207" s="1"/>
       <c r="AJ207" s="1"/>
@@ -24712,18 +24730,19 @@
       <c r="AY207" s="1"/>
       <c r="AZ207" s="1"/>
       <c r="BA207" s="1"/>
-      <c r="BB207" s="1"/>
-      <c r="BC207" s="1"/>
-      <c r="BD207" s="1"/>
-      <c r="BE207" s="1"/>
-      <c r="BF207" s="1"/>
-      <c r="BG207" s="4"/>
+      <c r="BB207" s="4"/>
+      <c r="BD207" s="2"/>
+      <c r="BE207" s="3"/>
+      <c r="BF207" s="2"/>
+      <c r="BG207" s="1"/>
       <c r="BH207" s="1"/>
-      <c r="BI207" s="1"/>
+      <c r="BI207" s="11"/>
       <c r="BJ207" s="1"/>
       <c r="BK207" s="1"/>
       <c r="BL207" s="1"/>
-      <c r="BM207" s="1"/>
+      <c r="BM207" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="BN207" s="1"/>
       <c r="BO207" s="1"/>
       <c r="BP207" s="1"/>
@@ -24733,16 +24752,19 @@
       <c r="BT207" s="1"/>
       <c r="BU207" s="1"/>
       <c r="BV207" s="1"/>
-      <c r="BW207" s="1"/>
-      <c r="BX207" s="1"/>
-      <c r="BY207" s="1"/>
-      <c r="BZ207" s="1"/>
-      <c r="CA207" s="1"/>
-      <c r="CB207" s="1"/>
-      <c r="CC207" s="1"/>
-      <c r="CD207" s="1"/>
+      <c r="BW207" s="12"/>
+      <c r="BX207" s="12"/>
+      <c r="BY207" s="12"/>
+      <c r="BZ207" s="12"/>
+      <c r="CA207" s="12"/>
+      <c r="CB207" s="12"/>
+      <c r="CC207" s="12"/>
+      <c r="CD207" s="12"/>
       <c r="CE207" s="1"/>
-      <c r="CF207" s="1"/>
+      <c r="CF207" s="18"/>
+      <c r="CG207" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row customFormat="1" r="208" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
@@ -25170,19 +25192,18 @@
       <c r="CF212" s="1"/>
     </row>
     <row customFormat="1" r="213" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A213" s="7"/>
+      <c r="A213" s="2"/>
       <c r="B213" s="1"/>
-      <c r="C213" s="11"/>
+      <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="3"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
+      <c r="J213" s="2"/>
       <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
+      <c r="M213" s="2"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
@@ -25228,9 +25249,9 @@
       <c r="BD213" s="1"/>
       <c r="BE213" s="1"/>
       <c r="BF213" s="1"/>
-      <c r="BG213" s="1"/>
+      <c r="BG213" s="4"/>
       <c r="BH213" s="1"/>
-      <c r="BI213" s="11"/>
+      <c r="BI213" s="1"/>
       <c r="BJ213" s="1"/>
       <c r="BK213" s="1"/>
       <c r="BL213" s="1"/>
@@ -25254,7 +25275,6 @@
       <c r="CD213" s="1"/>
       <c r="CE213" s="1"/>
       <c r="CF213" s="1"/>
-      <c r="CG213" s="1"/>
     </row>
     <row customFormat="1" r="214" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
@@ -26823,91 +26843,91 @@
       <c r="CG231" s="1"/>
     </row>
     <row customFormat="1" r="232" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A232" s="8"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2"/>
-      <c r="V232" s="2"/>
-      <c r="W232" s="2"/>
-      <c r="X232" s="2"/>
-      <c r="Y232" s="2"/>
-      <c r="Z232" s="2"/>
-      <c r="AA232" s="2"/>
-      <c r="AB232" s="2"/>
-      <c r="AC232" s="2"/>
-      <c r="AD232" s="2"/>
-      <c r="AE232" s="2"/>
-      <c r="AF232" s="2"/>
-      <c r="AG232" s="2"/>
-      <c r="AH232" s="2"/>
-      <c r="AI232" s="2"/>
-      <c r="AJ232" s="2"/>
-      <c r="AK232" s="2"/>
-      <c r="AL232" s="2"/>
-      <c r="AM232" s="2"/>
-      <c r="AN232" s="2"/>
-      <c r="AO232" s="2"/>
-      <c r="AP232" s="2"/>
-      <c r="AQ232" s="2"/>
-      <c r="AR232" s="2"/>
-      <c r="AS232" s="2"/>
-      <c r="AT232" s="2"/>
-      <c r="AU232" s="2"/>
-      <c r="AV232" s="2"/>
-      <c r="AW232" s="2"/>
-      <c r="AX232" s="2"/>
-      <c r="AY232" s="2"/>
-      <c r="AZ232" s="2"/>
-      <c r="BA232" s="2"/>
-      <c r="BB232" s="2"/>
-      <c r="BC232" s="2"/>
-      <c r="BD232" s="2"/>
-      <c r="BE232" s="2"/>
-      <c r="BF232" s="2"/>
-      <c r="BG232" s="2"/>
-      <c r="BH232" s="2"/>
-      <c r="BI232" s="3"/>
-      <c r="BJ232" s="2"/>
-      <c r="BK232" s="2"/>
-      <c r="BL232" s="2"/>
-      <c r="BM232" s="2"/>
-      <c r="BN232" s="2"/>
-      <c r="BO232" s="2"/>
-      <c r="BP232" s="2"/>
-      <c r="BQ232" s="2"/>
-      <c r="BR232" s="2"/>
-      <c r="BS232" s="2"/>
-      <c r="BT232" s="2"/>
-      <c r="BU232" s="2"/>
-      <c r="BV232" s="2"/>
-      <c r="BW232" s="2"/>
-      <c r="BX232" s="2"/>
-      <c r="BY232" s="2"/>
-      <c r="BZ232" s="2"/>
-      <c r="CA232" s="2"/>
-      <c r="CB232" s="2"/>
-      <c r="CC232" s="2"/>
-      <c r="CD232" s="2"/>
-      <c r="CE232" s="2"/>
-      <c r="CF232" s="2"/>
-      <c r="CG232" s="2"/>
+      <c r="A232" s="7"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
+      <c r="AH232" s="1"/>
+      <c r="AI232" s="1"/>
+      <c r="AJ232" s="1"/>
+      <c r="AK232" s="1"/>
+      <c r="AL232" s="1"/>
+      <c r="AM232" s="1"/>
+      <c r="AN232" s="1"/>
+      <c r="AO232" s="1"/>
+      <c r="AP232" s="1"/>
+      <c r="AQ232" s="1"/>
+      <c r="AR232" s="1"/>
+      <c r="AS232" s="1"/>
+      <c r="AT232" s="1"/>
+      <c r="AU232" s="1"/>
+      <c r="AV232" s="1"/>
+      <c r="AW232" s="1"/>
+      <c r="AX232" s="1"/>
+      <c r="AY232" s="1"/>
+      <c r="AZ232" s="1"/>
+      <c r="BA232" s="1"/>
+      <c r="BB232" s="1"/>
+      <c r="BC232" s="1"/>
+      <c r="BD232" s="1"/>
+      <c r="BE232" s="1"/>
+      <c r="BF232" s="1"/>
+      <c r="BG232" s="1"/>
+      <c r="BH232" s="1"/>
+      <c r="BI232" s="11"/>
+      <c r="BJ232" s="1"/>
+      <c r="BK232" s="1"/>
+      <c r="BL232" s="1"/>
+      <c r="BM232" s="1"/>
+      <c r="BN232" s="1"/>
+      <c r="BO232" s="1"/>
+      <c r="BP232" s="1"/>
+      <c r="BQ232" s="1"/>
+      <c r="BR232" s="1"/>
+      <c r="BS232" s="1"/>
+      <c r="BT232" s="1"/>
+      <c r="BU232" s="1"/>
+      <c r="BV232" s="1"/>
+      <c r="BW232" s="1"/>
+      <c r="BX232" s="1"/>
+      <c r="BY232" s="1"/>
+      <c r="BZ232" s="1"/>
+      <c r="CA232" s="1"/>
+      <c r="CB232" s="1"/>
+      <c r="CC232" s="1"/>
+      <c r="CD232" s="1"/>
+      <c r="CE232" s="1"/>
+      <c r="CF232" s="1"/>
+      <c r="CG232" s="1"/>
     </row>
     <row customFormat="1" r="233" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
@@ -32304,7 +32324,7 @@
       <c r="CG294" s="2"/>
     </row>
     <row customFormat="1" r="295" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
+      <c r="A295" s="8"/>
       <c r="B295" s="2"/>
       <c r="C295" s="3"/>
       <c r="D295" s="2"/>
@@ -33174,205 +33194,292 @@
       <c r="CG304" s="2"/>
     </row>
     <row customFormat="1" r="305" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="C305" s="14"/>
-      <c r="BI305" s="14"/>
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+      <c r="M305" s="2"/>
+      <c r="N305" s="2"/>
+      <c r="O305" s="2"/>
+      <c r="P305" s="2"/>
+      <c r="Q305" s="2"/>
+      <c r="R305" s="2"/>
+      <c r="S305" s="2"/>
+      <c r="T305" s="2"/>
+      <c r="U305" s="2"/>
+      <c r="V305" s="2"/>
+      <c r="W305" s="2"/>
+      <c r="X305" s="2"/>
+      <c r="Y305" s="2"/>
+      <c r="Z305" s="2"/>
+      <c r="AA305" s="2"/>
+      <c r="AB305" s="2"/>
+      <c r="AC305" s="2"/>
+      <c r="AD305" s="2"/>
+      <c r="AE305" s="2"/>
+      <c r="AF305" s="2"/>
+      <c r="AG305" s="2"/>
+      <c r="AH305" s="2"/>
+      <c r="AI305" s="2"/>
+      <c r="AJ305" s="2"/>
+      <c r="AK305" s="2"/>
+      <c r="AL305" s="2"/>
+      <c r="AM305" s="2"/>
+      <c r="AN305" s="2"/>
+      <c r="AO305" s="2"/>
+      <c r="AP305" s="2"/>
+      <c r="AQ305" s="2"/>
+      <c r="AR305" s="2"/>
+      <c r="AS305" s="2"/>
+      <c r="AT305" s="2"/>
+      <c r="AU305" s="2"/>
+      <c r="AV305" s="2"/>
+      <c r="AW305" s="2"/>
+      <c r="AX305" s="2"/>
+      <c r="AY305" s="2"/>
+      <c r="AZ305" s="2"/>
+      <c r="BA305" s="2"/>
+      <c r="BB305" s="2"/>
+      <c r="BC305" s="2"/>
+      <c r="BD305" s="2"/>
+      <c r="BE305" s="2"/>
+      <c r="BF305" s="2"/>
+      <c r="BG305" s="2"/>
+      <c r="BH305" s="2"/>
+      <c r="BI305" s="3"/>
+      <c r="BJ305" s="2"/>
+      <c r="BK305" s="2"/>
+      <c r="BL305" s="2"/>
+      <c r="BM305" s="2"/>
+      <c r="BN305" s="2"/>
+      <c r="BO305" s="2"/>
+      <c r="BP305" s="2"/>
+      <c r="BQ305" s="2"/>
+      <c r="BR305" s="2"/>
+      <c r="BS305" s="2"/>
+      <c r="BT305" s="2"/>
+      <c r="BU305" s="2"/>
+      <c r="BV305" s="2"/>
+      <c r="BW305" s="2"/>
+      <c r="BX305" s="2"/>
+      <c r="BY305" s="2"/>
+      <c r="BZ305" s="2"/>
+      <c r="CA305" s="2"/>
+      <c r="CB305" s="2"/>
+      <c r="CC305" s="2"/>
+      <c r="CD305" s="2"/>
+      <c r="CE305" s="2"/>
+      <c r="CF305" s="2"/>
+      <c r="CG305" s="2"/>
+    </row>
+    <row customFormat="1" r="306" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="C306" s="14"/>
+      <c r="BI306" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="abc@test.com" r:id="rId1" ref="BM25"/>
-    <hyperlink r:id="rId2" ref="C68"/>
-    <hyperlink r:id="rId3" ref="C75"/>
-    <hyperlink r:id="rId4" ref="C25"/>
+    <hyperlink display="abc@test.com" r:id="rId1" ref="BM26"/>
+    <hyperlink r:id="rId2" ref="C69"/>
+    <hyperlink r:id="rId3" ref="C76"/>
+    <hyperlink r:id="rId4" ref="C26"/>
     <hyperlink r:id="rId5" ref="C11"/>
-    <hyperlink r:id="rId6" ref="C185"/>
-    <hyperlink r:id="rId7" ref="C81"/>
-    <hyperlink display="Ankit@12345" r:id="rId8" ref="AU81"/>
-    <hyperlink r:id="rId9" ref="C165"/>
-    <hyperlink display="Deepika@1234" r:id="rId10" ref="D165"/>
-    <hyperlink r:id="rId11" ref="C177"/>
-    <hyperlink r:id="rId12" ref="C178"/>
-    <hyperlink r:id="rId13" ref="C179"/>
-    <hyperlink r:id="rId14" ref="C180"/>
-    <hyperlink r:id="rId15" ref="C182"/>
-    <hyperlink r:id="rId16" ref="C189"/>
-    <hyperlink r:id="rId17" ref="C191"/>
-    <hyperlink r:id="rId18" ref="C206"/>
-    <hyperlink r:id="rId19" ref="D191"/>
-    <hyperlink r:id="rId20" ref="D206"/>
-    <hyperlink r:id="rId21" ref="C173"/>
-    <hyperlink r:id="rId22" ref="C174"/>
-    <hyperlink r:id="rId23" ref="C175"/>
-    <hyperlink r:id="rId24" ref="C160"/>
-    <hyperlink r:id="rId25" ref="C161"/>
-    <hyperlink r:id="rId26" ref="AM149"/>
-    <hyperlink r:id="rId27" ref="C183"/>
-    <hyperlink r:id="rId28" ref="C184"/>
-    <hyperlink r:id="rId29" ref="C186"/>
-    <hyperlink r:id="rId30" ref="C187"/>
-    <hyperlink r:id="rId31" ref="C188"/>
+    <hyperlink r:id="rId6" ref="C186"/>
+    <hyperlink r:id="rId7" ref="C82"/>
+    <hyperlink display="Ankit@12345" r:id="rId8" ref="AU82"/>
+    <hyperlink r:id="rId9" ref="C166"/>
+    <hyperlink display="Deepika@1234" r:id="rId10" ref="D166"/>
+    <hyperlink r:id="rId11" ref="C178"/>
+    <hyperlink r:id="rId12" ref="C179"/>
+    <hyperlink r:id="rId13" ref="C180"/>
+    <hyperlink r:id="rId14" ref="C181"/>
+    <hyperlink r:id="rId15" ref="C183"/>
+    <hyperlink r:id="rId16" ref="C190"/>
+    <hyperlink r:id="rId17" ref="C192"/>
+    <hyperlink r:id="rId18" ref="C207"/>
+    <hyperlink r:id="rId19" ref="D192"/>
+    <hyperlink r:id="rId20" ref="D207"/>
+    <hyperlink r:id="rId21" ref="C174"/>
+    <hyperlink r:id="rId22" ref="C175"/>
+    <hyperlink r:id="rId23" ref="C176"/>
+    <hyperlink r:id="rId24" ref="C161"/>
+    <hyperlink r:id="rId25" ref="C162"/>
+    <hyperlink r:id="rId26" ref="AM150"/>
+    <hyperlink r:id="rId27" ref="C184"/>
+    <hyperlink r:id="rId28" ref="C185"/>
+    <hyperlink r:id="rId29" ref="C187"/>
+    <hyperlink r:id="rId30" ref="C188"/>
+    <hyperlink r:id="rId31" ref="C189"/>
     <hyperlink r:id="rId32" ref="D11"/>
-    <hyperlink r:id="rId33" ref="C48"/>
-    <hyperlink r:id="rId34" ref="C49"/>
-    <hyperlink r:id="rId35" ref="D48"/>
-    <hyperlink r:id="rId36" ref="D49"/>
-    <hyperlink r:id="rId37" ref="C52"/>
-    <hyperlink r:id="rId38" ref="C53"/>
-    <hyperlink r:id="rId39" ref="C54"/>
-    <hyperlink r:id="rId40" ref="D52"/>
-    <hyperlink r:id="rId41" ref="D53"/>
-    <hyperlink r:id="rId42" ref="D54"/>
-    <hyperlink r:id="rId43" ref="C56"/>
-    <hyperlink r:id="rId44" ref="D56"/>
-    <hyperlink r:id="rId45" ref="C59"/>
-    <hyperlink r:id="rId46" ref="C60"/>
-    <hyperlink r:id="rId47" ref="C61"/>
-    <hyperlink r:id="rId48" ref="D59"/>
-    <hyperlink r:id="rId49" ref="D60"/>
-    <hyperlink r:id="rId50" ref="D61"/>
-    <hyperlink r:id="rId51" ref="C64"/>
-    <hyperlink r:id="rId52" ref="C65"/>
-    <hyperlink r:id="rId53" ref="D64"/>
-    <hyperlink r:id="rId54" ref="D65"/>
-    <hyperlink r:id="rId55" ref="C67"/>
-    <hyperlink r:id="rId56" ref="D67"/>
-    <hyperlink r:id="rId57" ref="C69"/>
-    <hyperlink r:id="rId58" ref="D69"/>
-    <hyperlink r:id="rId59" ref="C71"/>
-    <hyperlink r:id="rId60" ref="C72"/>
-    <hyperlink r:id="rId61" ref="C73"/>
-    <hyperlink r:id="rId62" ref="C74"/>
-    <hyperlink r:id="rId63" ref="D73"/>
-    <hyperlink r:id="rId64" ref="D74"/>
-    <hyperlink r:id="rId65" ref="C79"/>
-    <hyperlink r:id="rId66" ref="C80"/>
-    <hyperlink r:id="rId67" ref="D79"/>
-    <hyperlink r:id="rId68" ref="D80"/>
-    <hyperlink r:id="rId69" ref="C82"/>
-    <hyperlink r:id="rId70" ref="C83"/>
-    <hyperlink r:id="rId71" ref="C84"/>
-    <hyperlink r:id="rId72" ref="C85"/>
-    <hyperlink r:id="rId73" ref="D82"/>
-    <hyperlink r:id="rId74" ref="D83"/>
-    <hyperlink r:id="rId75" ref="D84"/>
-    <hyperlink r:id="rId76" ref="D85"/>
-    <hyperlink r:id="rId77" ref="C87"/>
-    <hyperlink r:id="rId78" ref="C88"/>
-    <hyperlink r:id="rId79" ref="C89"/>
-    <hyperlink r:id="rId80" ref="C90"/>
-    <hyperlink r:id="rId81" ref="C91"/>
-    <hyperlink r:id="rId82" ref="C92"/>
-    <hyperlink r:id="rId83" ref="C107"/>
-    <hyperlink r:id="rId84" ref="C108"/>
-    <hyperlink r:id="rId85" ref="C109"/>
-    <hyperlink r:id="rId86" ref="C110"/>
-    <hyperlink r:id="rId87" ref="C111"/>
-    <hyperlink r:id="rId88" ref="C112"/>
-    <hyperlink r:id="rId89" ref="C113"/>
-    <hyperlink r:id="rId90" ref="C114"/>
-    <hyperlink r:id="rId91" ref="D87"/>
-    <hyperlink r:id="rId92" ref="D88"/>
-    <hyperlink r:id="rId93" ref="D89"/>
-    <hyperlink r:id="rId94" ref="D90"/>
-    <hyperlink r:id="rId95" ref="D91"/>
-    <hyperlink r:id="rId96" ref="D92"/>
-    <hyperlink r:id="rId97" ref="D107"/>
-    <hyperlink r:id="rId98" ref="D108"/>
-    <hyperlink r:id="rId99" ref="D109"/>
-    <hyperlink r:id="rId100" ref="D110"/>
-    <hyperlink r:id="rId101" ref="D111"/>
-    <hyperlink r:id="rId102" ref="D112"/>
-    <hyperlink r:id="rId103" ref="D113"/>
-    <hyperlink r:id="rId104" ref="D114"/>
-    <hyperlink r:id="rId105" ref="C124"/>
-    <hyperlink r:id="rId106" ref="D124"/>
-    <hyperlink r:id="rId107" ref="C128"/>
-    <hyperlink r:id="rId108" ref="C129"/>
-    <hyperlink r:id="rId109" ref="C130"/>
-    <hyperlink r:id="rId110" ref="C131"/>
-    <hyperlink r:id="rId111" ref="C132"/>
-    <hyperlink r:id="rId112" ref="C133"/>
-    <hyperlink r:id="rId113" ref="C135"/>
-    <hyperlink r:id="rId114" ref="C136"/>
-    <hyperlink r:id="rId115" ref="C137"/>
-    <hyperlink r:id="rId116" ref="C138"/>
-    <hyperlink r:id="rId117" ref="C139"/>
-    <hyperlink r:id="rId118" ref="D128"/>
-    <hyperlink r:id="rId119" ref="D129"/>
-    <hyperlink r:id="rId120" ref="D130"/>
-    <hyperlink r:id="rId121" ref="D131"/>
-    <hyperlink r:id="rId122" ref="D132"/>
-    <hyperlink r:id="rId123" ref="D133"/>
-    <hyperlink r:id="rId124" ref="D135"/>
-    <hyperlink r:id="rId125" ref="D136"/>
-    <hyperlink r:id="rId126" ref="D137"/>
-    <hyperlink r:id="rId127" ref="D138"/>
-    <hyperlink r:id="rId128" ref="D139"/>
-    <hyperlink r:id="rId129" ref="C145"/>
-    <hyperlink r:id="rId130" ref="C146"/>
-    <hyperlink r:id="rId131" ref="C147"/>
-    <hyperlink r:id="rId132" ref="C148"/>
-    <hyperlink r:id="rId133" ref="C149"/>
-    <hyperlink r:id="rId134" ref="C150"/>
-    <hyperlink r:id="rId135" ref="C151"/>
-    <hyperlink r:id="rId136" ref="C152"/>
-    <hyperlink r:id="rId137" ref="C153"/>
-    <hyperlink r:id="rId138" ref="C154"/>
-    <hyperlink r:id="rId139" ref="D145"/>
-    <hyperlink r:id="rId140" ref="D146"/>
-    <hyperlink r:id="rId141" ref="D147"/>
-    <hyperlink r:id="rId142" ref="D148"/>
-    <hyperlink r:id="rId143" ref="D149"/>
-    <hyperlink r:id="rId144" ref="D150"/>
-    <hyperlink r:id="rId145" ref="D151"/>
-    <hyperlink r:id="rId146" ref="D152"/>
-    <hyperlink r:id="rId147" ref="D153"/>
-    <hyperlink r:id="rId148" ref="D154"/>
-    <hyperlink r:id="rId149" ref="C159"/>
-    <hyperlink r:id="rId150" ref="D159"/>
-    <hyperlink r:id="rId151" ref="C162"/>
-    <hyperlink r:id="rId152" ref="C163"/>
-    <hyperlink r:id="rId153" ref="C164"/>
-    <hyperlink r:id="rId154" ref="D162"/>
-    <hyperlink r:id="rId155" ref="D163"/>
-    <hyperlink r:id="rId156" ref="D164"/>
-    <hyperlink r:id="rId157" ref="C166"/>
-    <hyperlink r:id="rId158" ref="C167"/>
-    <hyperlink r:id="rId159" ref="C168"/>
-    <hyperlink r:id="rId160" ref="D166"/>
-    <hyperlink r:id="rId161" ref="D167"/>
-    <hyperlink r:id="rId162" ref="D168"/>
-    <hyperlink r:id="rId163" ref="C192"/>
-    <hyperlink r:id="rId164" ref="C193"/>
-    <hyperlink r:id="rId165" ref="C194"/>
-    <hyperlink r:id="rId166" ref="C195"/>
-    <hyperlink r:id="rId167" ref="C196"/>
-    <hyperlink r:id="rId168" ref="C197"/>
-    <hyperlink r:id="rId169" ref="D192"/>
-    <hyperlink r:id="rId170" ref="D193"/>
-    <hyperlink r:id="rId171" ref="D194"/>
-    <hyperlink r:id="rId172" ref="D195"/>
-    <hyperlink r:id="rId173" ref="D196"/>
-    <hyperlink r:id="rId174" ref="D197"/>
-    <hyperlink r:id="rId175" ref="C203"/>
-    <hyperlink r:id="rId176" ref="D203"/>
-    <hyperlink r:id="rId177" ref="C134"/>
-    <hyperlink r:id="rId178" ref="D134"/>
-    <hyperlink display="Ankit@123" r:id="rId179" ref="D93"/>
-    <hyperlink display="Ankit@123" r:id="rId180" ref="D94"/>
-    <hyperlink display="Ankit@123" r:id="rId181" ref="D103"/>
-    <hyperlink display="Ankit@123" r:id="rId182" ref="D106"/>
-    <hyperlink display="Ankit@123" r:id="rId183" ref="D95"/>
-    <hyperlink display="Ankit@123" r:id="rId184" ref="D102"/>
-    <hyperlink display="Ankit@123" r:id="rId185" ref="D104"/>
-    <hyperlink display="Ankit@123" r:id="rId186" ref="D99"/>
-    <hyperlink display="Ankit@123" r:id="rId187" ref="D100"/>
-    <hyperlink r:id="rId188" ref="C100"/>
-    <hyperlink display="Ankit@123" r:id="rId189" ref="D105"/>
-    <hyperlink display="Ankit@123" r:id="rId190" ref="D96"/>
-    <hyperlink display="Ankit@123" r:id="rId191" ref="D98"/>
-    <hyperlink display="Ankit@123" r:id="rId192" ref="D97"/>
-    <hyperlink display="Ankit@123" r:id="rId193" ref="D101"/>
-    <hyperlink r:id="rId194" ref="C101"/>
+    <hyperlink r:id="rId33" ref="C49"/>
+    <hyperlink r:id="rId34" ref="C50"/>
+    <hyperlink r:id="rId35" ref="D49"/>
+    <hyperlink r:id="rId36" ref="D50"/>
+    <hyperlink r:id="rId37" ref="C53"/>
+    <hyperlink r:id="rId38" ref="C54"/>
+    <hyperlink r:id="rId39" ref="C55"/>
+    <hyperlink r:id="rId40" ref="D53"/>
+    <hyperlink r:id="rId41" ref="D54"/>
+    <hyperlink r:id="rId42" ref="D55"/>
+    <hyperlink r:id="rId43" ref="C57"/>
+    <hyperlink r:id="rId44" ref="D57"/>
+    <hyperlink r:id="rId45" ref="C60"/>
+    <hyperlink r:id="rId46" ref="C61"/>
+    <hyperlink r:id="rId47" ref="C62"/>
+    <hyperlink r:id="rId48" ref="D60"/>
+    <hyperlink r:id="rId49" ref="D61"/>
+    <hyperlink r:id="rId50" ref="D62"/>
+    <hyperlink r:id="rId51" ref="C65"/>
+    <hyperlink r:id="rId52" ref="C66"/>
+    <hyperlink r:id="rId53" ref="D65"/>
+    <hyperlink r:id="rId54" ref="D66"/>
+    <hyperlink r:id="rId55" ref="C68"/>
+    <hyperlink r:id="rId56" ref="D68"/>
+    <hyperlink r:id="rId57" ref="C70"/>
+    <hyperlink r:id="rId58" ref="D70"/>
+    <hyperlink r:id="rId59" ref="C72"/>
+    <hyperlink r:id="rId60" ref="C73"/>
+    <hyperlink r:id="rId61" ref="C74"/>
+    <hyperlink r:id="rId62" ref="C75"/>
+    <hyperlink r:id="rId63" ref="D74"/>
+    <hyperlink r:id="rId64" ref="D75"/>
+    <hyperlink r:id="rId65" ref="C80"/>
+    <hyperlink r:id="rId66" ref="C81"/>
+    <hyperlink r:id="rId67" ref="D80"/>
+    <hyperlink r:id="rId68" ref="D81"/>
+    <hyperlink r:id="rId69" ref="C83"/>
+    <hyperlink r:id="rId70" ref="C84"/>
+    <hyperlink r:id="rId71" ref="C85"/>
+    <hyperlink r:id="rId72" ref="C86"/>
+    <hyperlink r:id="rId73" ref="D83"/>
+    <hyperlink r:id="rId74" ref="D84"/>
+    <hyperlink r:id="rId75" ref="D85"/>
+    <hyperlink r:id="rId76" ref="D86"/>
+    <hyperlink r:id="rId77" ref="C88"/>
+    <hyperlink r:id="rId78" ref="C89"/>
+    <hyperlink r:id="rId79" ref="C90"/>
+    <hyperlink r:id="rId80" ref="C91"/>
+    <hyperlink r:id="rId81" ref="C92"/>
+    <hyperlink r:id="rId82" ref="C93"/>
+    <hyperlink r:id="rId83" ref="C108"/>
+    <hyperlink r:id="rId84" ref="C109"/>
+    <hyperlink r:id="rId85" ref="C110"/>
+    <hyperlink r:id="rId86" ref="C111"/>
+    <hyperlink r:id="rId87" ref="C112"/>
+    <hyperlink r:id="rId88" ref="C113"/>
+    <hyperlink r:id="rId89" ref="C114"/>
+    <hyperlink r:id="rId90" ref="C115"/>
+    <hyperlink r:id="rId91" ref="D88"/>
+    <hyperlink r:id="rId92" ref="D89"/>
+    <hyperlink r:id="rId93" ref="D90"/>
+    <hyperlink r:id="rId94" ref="D91"/>
+    <hyperlink r:id="rId95" ref="D92"/>
+    <hyperlink r:id="rId96" ref="D93"/>
+    <hyperlink r:id="rId97" ref="D108"/>
+    <hyperlink r:id="rId98" ref="D109"/>
+    <hyperlink r:id="rId99" ref="D110"/>
+    <hyperlink r:id="rId100" ref="D111"/>
+    <hyperlink r:id="rId101" ref="D112"/>
+    <hyperlink r:id="rId102" ref="D113"/>
+    <hyperlink r:id="rId103" ref="D114"/>
+    <hyperlink r:id="rId104" ref="D115"/>
+    <hyperlink r:id="rId105" ref="C125"/>
+    <hyperlink r:id="rId106" ref="D125"/>
+    <hyperlink r:id="rId107" ref="C129"/>
+    <hyperlink r:id="rId108" ref="C130"/>
+    <hyperlink r:id="rId109" ref="C131"/>
+    <hyperlink r:id="rId110" ref="C132"/>
+    <hyperlink r:id="rId111" ref="C133"/>
+    <hyperlink r:id="rId112" ref="C134"/>
+    <hyperlink r:id="rId113" ref="C136"/>
+    <hyperlink r:id="rId114" ref="C137"/>
+    <hyperlink r:id="rId115" ref="C138"/>
+    <hyperlink r:id="rId116" ref="C139"/>
+    <hyperlink r:id="rId117" ref="C140"/>
+    <hyperlink r:id="rId118" ref="D129"/>
+    <hyperlink r:id="rId119" ref="D130"/>
+    <hyperlink r:id="rId120" ref="D131"/>
+    <hyperlink r:id="rId121" ref="D132"/>
+    <hyperlink r:id="rId122" ref="D133"/>
+    <hyperlink r:id="rId123" ref="D134"/>
+    <hyperlink r:id="rId124" ref="D136"/>
+    <hyperlink r:id="rId125" ref="D137"/>
+    <hyperlink r:id="rId126" ref="D138"/>
+    <hyperlink r:id="rId127" ref="D139"/>
+    <hyperlink r:id="rId128" ref="D140"/>
+    <hyperlink r:id="rId129" ref="C146"/>
+    <hyperlink r:id="rId130" ref="C147"/>
+    <hyperlink r:id="rId131" ref="C148"/>
+    <hyperlink r:id="rId132" ref="C149"/>
+    <hyperlink r:id="rId133" ref="C150"/>
+    <hyperlink r:id="rId134" ref="C151"/>
+    <hyperlink r:id="rId135" ref="C152"/>
+    <hyperlink r:id="rId136" ref="C153"/>
+    <hyperlink r:id="rId137" ref="C154"/>
+    <hyperlink r:id="rId138" ref="C155"/>
+    <hyperlink r:id="rId139" ref="D146"/>
+    <hyperlink r:id="rId140" ref="D147"/>
+    <hyperlink r:id="rId141" ref="D148"/>
+    <hyperlink r:id="rId142" ref="D149"/>
+    <hyperlink r:id="rId143" ref="D150"/>
+    <hyperlink r:id="rId144" ref="D151"/>
+    <hyperlink r:id="rId145" ref="D152"/>
+    <hyperlink r:id="rId146" ref="D153"/>
+    <hyperlink r:id="rId147" ref="D154"/>
+    <hyperlink r:id="rId148" ref="D155"/>
+    <hyperlink r:id="rId149" ref="C160"/>
+    <hyperlink r:id="rId150" ref="D160"/>
+    <hyperlink r:id="rId151" ref="C163"/>
+    <hyperlink r:id="rId152" ref="C164"/>
+    <hyperlink r:id="rId153" ref="C165"/>
+    <hyperlink r:id="rId154" ref="D163"/>
+    <hyperlink r:id="rId155" ref="D164"/>
+    <hyperlink r:id="rId156" ref="D165"/>
+    <hyperlink r:id="rId157" ref="C167"/>
+    <hyperlink r:id="rId158" ref="C168"/>
+    <hyperlink r:id="rId159" ref="C169"/>
+    <hyperlink r:id="rId160" ref="D167"/>
+    <hyperlink r:id="rId161" ref="D168"/>
+    <hyperlink r:id="rId162" ref="D169"/>
+    <hyperlink r:id="rId163" ref="C193"/>
+    <hyperlink r:id="rId164" ref="C194"/>
+    <hyperlink r:id="rId165" ref="C195"/>
+    <hyperlink r:id="rId166" ref="C196"/>
+    <hyperlink r:id="rId167" ref="C197"/>
+    <hyperlink r:id="rId168" ref="C198"/>
+    <hyperlink r:id="rId169" ref="D193"/>
+    <hyperlink r:id="rId170" ref="D194"/>
+    <hyperlink r:id="rId171" ref="D195"/>
+    <hyperlink r:id="rId172" ref="D196"/>
+    <hyperlink r:id="rId173" ref="D197"/>
+    <hyperlink r:id="rId174" ref="D198"/>
+    <hyperlink r:id="rId175" ref="C204"/>
+    <hyperlink r:id="rId176" ref="D204"/>
+    <hyperlink r:id="rId177" ref="C135"/>
+    <hyperlink r:id="rId178" ref="D135"/>
+    <hyperlink display="Ankit@123" r:id="rId179" ref="D94"/>
+    <hyperlink display="Ankit@123" r:id="rId180" ref="D95"/>
+    <hyperlink display="Ankit@123" r:id="rId181" ref="D104"/>
+    <hyperlink display="Ankit@123" r:id="rId182" ref="D107"/>
+    <hyperlink display="Ankit@123" r:id="rId183" ref="D96"/>
+    <hyperlink display="Ankit@123" r:id="rId184" ref="D103"/>
+    <hyperlink display="Ankit@123" r:id="rId185" ref="D105"/>
+    <hyperlink display="Ankit@123" r:id="rId186" ref="D100"/>
+    <hyperlink display="Ankit@123" r:id="rId187" ref="D101"/>
+    <hyperlink r:id="rId188" ref="C101"/>
+    <hyperlink display="Ankit@123" r:id="rId189" ref="D106"/>
+    <hyperlink display="Ankit@123" r:id="rId190" ref="D97"/>
+    <hyperlink display="Ankit@123" r:id="rId191" ref="D99"/>
+    <hyperlink display="Ankit@123" r:id="rId192" ref="D98"/>
+    <hyperlink display="Ankit@123" r:id="rId193" ref="D102"/>
+    <hyperlink r:id="rId194" ref="C102"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId195"/>
